--- a/0_data/9_evaluation/distances/b/b_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/b/b_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.68695857988165</v>
+        <v>75.90379825653798</v>
       </c>
       <c r="C2" t="n">
-        <v>11.30532544378698</v>
+        <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.436047337278107</v>
+        <v>3.426064757160648</v>
       </c>
       <c r="E2" t="n">
-        <v>18.50059171597633</v>
+        <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.052568047337278</v>
+        <v>6.020622665006226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008852071005917159</v>
+        <v>0.008468244084682441</v>
       </c>
       <c r="H2" t="n">
-        <v>2.398745562130177</v>
+        <v>2.397770859277708</v>
       </c>
       <c r="I2" t="n">
-        <v>6.184615384615385</v>
+        <v>5.936488169364882</v>
       </c>
       <c r="J2" t="n">
-        <v>338.0437869822485</v>
+        <v>337.4308841843089</v>
       </c>
       <c r="K2" t="n">
-        <v>5.668118343195266</v>
+        <v>5.658555417185553</v>
       </c>
       <c r="L2" t="n">
-        <v>3.002189349112427</v>
+        <v>3.006226650062267</v>
       </c>
       <c r="M2" t="n">
-        <v>4.839337278106509</v>
+        <v>4.87225404732254</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[78.78461538461538, 27.4094674556213, 121.5680473372781, 47.07455621301775, 12.792899408284024, 22.27337278106509, 0.19171597633136095, 14.257988165680473, 3.246153846153846, 4.363313609467456, 1.7420118343195266, 0.12544378698224853, 2.7940828402366864, 0.014201183431952662, 0.20591715976331362, 0.07928994082840236, 0.020118343195266272, 0.07337278106508875, 0.0, 0.009467455621301775, 0.002366863905325444, 0.001183431952662722, 0.002366863905325444, 0.0035502958579881655, 0.0035502958579881655, 0.0, 0.0, 0.001183431952662722, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[62.049704142011834, 1.263905325443787, 58.75739644970414, 1.0792899408284025, 65.51360946745562, 13.389349112426036, 1.5005917159763313, 53.31479289940828, 1.489940828402367, 56.82958579881657, 0.850887573964497, 22.004733727810653]</t>
+          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[8.00473372781065, 78.62603550295859, 146.02366863905326, 24.45207100591716, 40.472189349112426, 3.21301775147929, 9.531360946745561, 2.327810650887574, 8.488757396449705, 1.1112426035502958, 2.506508875739645, 0.6378698224852071, 3.4106508875739645, 0.5183431952662721, 1.6840236686390533, 0.42485207100591715, 3.2153846153846155, 0.23431952662721894, 0.7289940828402367, 0.15621301775147928, 0.450887573964497, 0.06745562130177515, 0.17633136094674556, 0.03550295857988166, 0.2911242603550296, 0.021301775147928994, 0.06745562130177515, 0.011834319526627219, 0.10059171597633136, 0.01301775147928994, 0.03076923076923077, 0.009467455621301775]</t>
+          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[7.024852071005917, 120.19408284023669, 50.31597633136095, 76.77396449704142, 13.835502958579882, 17.880473372781065, 0.005917159763313609, 21.293491124260356, 0.0035502958579881655, 4.86508875739645, 2.486390532544379, 4.74792899408284, 1.7692307692307692, 1.9100591715976332, 0.0035502958579881655, 4.164497041420119, 0.001183431952662722, 1.2520710059171598, 0.6355029585798817, 1.4579881656804734, 0.6355029585798817, 0.7420118343195267, 0.001183431952662722, 1.5869822485207101, 0.0, 0.5372781065088758, 0.2781065088757396, 0.6059171597633136, 0.24378698224852072, 0.31952662721893493, 0.0, 0.808284023668639, 0.0, 0.20236686390532543, 0.08520710059171598, 0.2911242603550296, 0.03905325443786982, 0.08402366863905325, 0.0, 0.21420118343195266, 0.0, 0.04970414201183432, 0.040236686390532544, 0.09940828402366864, 0.028402366863905324, 0.02603550295857988, 0.0, 0.12189349112426036, 0.0, 0.027218934911242602, 0.023668639053254437, 0.04970414201183432, 0.009467455621301775, 0.011834319526627219, 0.0, 0.0485207100591716, 0.0, 0.011834319526627219, 0.009467455621301775, 0.027218934911242602, 0.004733727810650888, 0.009467455621301775, 0.0, 0.14911242603550295]</t>
+          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.881656804733728, 0.11834319526627218, 15.710059171597633, 0.07337278106508875, 5.3349112426035505, 0.8248520710059172, 0.011834319526627219, 4.106508875739645, 0.06390532544378698, 10.879289940828402, 0.1739644970414201, 8.407100591715976], [0.11715976331360947, 0.2816568047337278, 0.1621301775147929, 0.20118343195266272, 0.0485207100591716, 0.08165680473372781, 0.02603550295857988, 0.002366863905325444, 0.05917159763313609, 0.04260355029585799, 0.1301775147928994, 0.06627218934911243], [17.9905325443787, 0.16331360946745563, 13.57869822485207, 0.04260355029585799, 18.026035502958578, 0.7798816568047338, 0.0970414201183432, 3.710059171597633, 0.01301775147928994, 2.4816568047337277, 0.022485207100591716, 1.8094674556213017], [0.05325443786982249, 0.28994082840236685, 0.11597633136094675, 0.20236686390532543, 0.046153846153846156, 0.2579881656804734, 0.009467455621301775, 0.005917159763313609, 0.05562130177514793, 0.0, 0.040236686390532544, 0.0], [5.456804733727811, 0.03905325443786982, 21.181065088757396, 0.05798816568047337, 15.532544378698224, 4.459171597633136, 0.35384615384615387, 11.523076923076923, 0.09230769230769231, 5.469822485207101, 0.002366863905325444, 1.301775147928994], [0.48757396449704143, 0.05562130177514793, 0.6650887573964497, 0.3715976331360947, 5.550295857988166, 3.094674556213018, 0.08402366863905325, 2.1644970414201183, 0.17041420118343195, 0.6307692307692307, 0.05798816568047337, 0.05207100591715976], [0.002366863905325444, 0.01301775147928994, 0.10059171597633136, 0.009467455621301775, 0.4662721893491124, 0.11479289940828402, 0.29467455621301775, 0.23905325443786982, 0.05917159763313609, 0.13727810650887573, 0.014201183431952662, 0.04497041420118343], [4.230769230769231, 0.002366863905325444, 3.472189349112426, 0.01775147928994083, 12.87810650887574, 2.859171597633136, 0.30650887573964497, 13.553846153846154, 0.07928994082840236, 14.779881656804733, 0.01775147928994083, 1.0875739644970415], [0.022485207100591716, 0.05325443786982249, 0.023668639053254437, 0.05207100591715976, 0.11124260355029586, 0.19053254437869824, 0.054437869822485205, 0.06982248520710059, 0.4106508875739645, 0.26627218934911245, 0.19053254437869824, 0.040236686390532544], [10.695857988165681, 0.033136094674556214, 2.740828402366864, 0.009467455621301775, 6.260355029585799, 0.58698224852071, 0.1881656804733728, 15.471005917159763, 0.22840236686390533, 14.854437869822485, 0.04260355029585799, 5.38698224852071], [0.1408284023668639, 0.12544378698224853, 0.0035502958579881655, 0.040236686390532544, 0.004733727810650888, 0.06390532544378698, 0.008284023668639054, 0.029585798816568046, 0.2, 0.05680473372781065, 0.13372781065088757, 0.03076923076923077], [6.769230769230769, 0.08875739644970414, 0.9680473372781065, 0.0, 0.9550295857988166, 0.06745562130177515, 0.06627218934911243, 2.195266272189349, 0.05798816568047337, 7.034319526627219, 0.02485207100591716, 3.7633136094674557]]</t>
+          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.04970414201183432, 2.785798816568047, 1.2698224852071005, 1.9881656804733727, 0.18579881656804734, 0.1881656804733728, 0.0, 0.3408284023668639, 0.0, 0.023668639053254437, 0.027218934911242602, 0.03905325443786982, 0.015384615384615385, 0.01301775147928994, 0.0, 0.02485207100591716, 0.0, 0.005917159763313609, 0.001183431952662722, 0.008284023668639054, 0.008284023668639054, 0.0035502958579881655, 0.0, 0.008284023668639054, 0.0, 0.0, 0.0, 0.005917159763313609, 0.002366863905325444, 0.0, 0.0, 0.011834319526627219, 0.0, 0.001183431952662722, 0.0, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0], [3.460355029585799, 64.24733727810651, 15.776331360946745, 16.975147928994083, 3.778698224852071, 5.828402366863905, 0.0, 3.3100591715976333, 0.0, 1.608284023668639, 0.6982248520710059, 0.8520710059171598, 0.450887573964497, 0.6437869822485207, 0.0, 0.757396449704142, 0.0, 0.3076923076923077, 0.16568047337278108, 0.19644970414201182, 0.06627218934911243, 0.16568047337278108, 0.0, 0.26745562130177514, 0.0, 0.09112426035502959, 0.05207100591715976, 0.07692307692307693, 0.06390532544378698, 0.0650887573964497, 0.0, 0.11952662721893491, 0.0, 0.046153846153846156, 0.015384615384615385, 0.028402366863905324, 0.0035502958579881655, 0.028402366863905324, 0.0, 0.010650887573964497, 0.0, 0.008284023668639054, 0.001183431952662722, 0.0035502958579881655, 0.002366863905325444, 0.001183431952662722, 0.0, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.002366863905325444, 0.001183431952662722, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.002366863905325444, 0.0, 0.0], [0.2165680473372781, 15.132544378698224, 14.146745562130178, 9.427218934911243, 2.2710059171597634, 2.391715976331361, 0.0, 2.5633136094674556, 0.0, 0.6792899408284023, 0.5124260355029586, 0.5396449704142012, 0.2106508875739645, 0.2911242603550296, 0.0, 0.527810650887574, 0.0, 0.1952662721893491, 0.11597633136094675, 0.2153846153846154, 0.12781065088757396, 0.09230769230769231, 0.0, 0.19763313609467456, 0.0, 0.06035502958579882, 0.04497041420118343, 0.06390532544378698, 0.0378698224852071, 0.04378698224852071, 0.0, 0.06153846153846154, 0.0, 0.023668639053254437, 0.007100591715976331, 0.033136094674556214, 0.0035502958579881655, 0.010650887573964497, 0.0, 0.004733727810650888, 0.0, 0.016568047337278107, 0.002366863905325444, 0.01301775147928994, 0.0035502958579881655, 0.0, 0.0, 0.005917159763313609, 0.0, 0.0, 0.0, 0.002366863905325444, 0.002366863905325444, 0.0, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004733727810650888], [2.460355029585799, 16.325443786982248, 8.344378698224853, 27.236686390532544, 3.2106508875739643, 3.545562130177515, 0.002366863905325444, 6.262721893491125, 0.0, 1.2272189349112426, 0.6485207100591716, 1.7420118343195266, 0.5420118343195266, 0.5242603550295858, 0.001183431952662722, 1.3727810650887573, 0.0, 0.40236686390532544, 0.15621301775147928, 0.5171597633136095, 0.16331360946745563, 0.21775147928994082, 0.0, 0.47692307692307695, 0.0, 0.1668639053254438, 0.07218934911242604, 0.2485207100591716, 0.06390532544378698, 0.08520710059171598, 0.0, 0.2650887573964497, 0.0, 0.05562130177514793, 0.029585798816568046, 0.12189349112426036, 0.005917159763313609, 0.008284023668639054, 0.0, 0.08165680473372781, 0.0, 0.007100591715976331, 0.015384615384615385, 0.027218934911242602, 0.004733727810650888, 0.005917159763313609, 0.0, 0.01301775147928994, 0.0, 0.008284023668639054, 0.004733727810650888, 0.020118343195266272, 0.0, 0.0, 0.0, 0.007100591715976331, 0.0, 0.001183431952662722, 0.0035502958579881655, 0.010650887573964497, 0.001183431952662722, 0.0, 0.0, 0.04497041420118343], [0.20591715976331362, 3.3384615384615386, 1.9124260355029585, 3.3715976331360946, 1.5964497041420118, 0.914792899408284, 0.0, 0.9159763313609467, 0.0, 0.24970414201183433, 0.1136094674556213, 0.25207100591715975, 0.10650887573964497, 0.08875739644970414, 0.002366863905325444, 0.22840236686390533, 0.0, 0.05798816568047337, 0.03550295857988166, 0.06863905325443787, 0.03550295857988166, 0.04260355029585799, 0.0, 0.07455621301775148, 0.0, 0.027218934911242602, 0.016568047337278107, 0.023668639053254437, 0.01301775147928994, 0.01775147928994083, 0.0, 0.04260355029585799, 0.0, 0.023668639053254437, 0.001183431952662722, 0.009467455621301775, 0.0035502958579881655, 0.005917159763313609, 0.0, 0.002366863905325444, 0.0, 0.001183431952662722, 0.001183431952662722, 0.002366863905325444, 0.004733727810650888, 0.001183431952662722, 0.0, 0.002366863905325444, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.004733727810650888], [0.2378698224852071, 5.027218934911242, 2.3431952662721893, 3.5384615384615383, 0.927810650887574, 2.4011834319526626, 0.001183431952662722, 1.1384615384615384, 0.0, 0.3254437869822485, 0.12662721893491125, 0.3207100591715976, 0.15857988165680473, 0.1301775147928994, 0.0, 0.3005917159763314, 0.0, 0.11952662721893491, 0.04142011834319527, 0.11124260355029586, 0.0650887573964497, 0.07337278106508875, 0.0, 0.12781065088757396, 0.0, 0.06035502958579882, 0.027218934911242602, 0.05088757396449704, 0.009467455621301775, 0.03431952662721893, 0.0, 0.0485207100591716, 0.0, 0.01775147928994083, 0.010650887573964497, 0.020118343195266272, 0.004733727810650888, 0.004733727810650888, 0.0, 0.009467455621301775, 0.0, 0.001183431952662722, 0.0035502958579881655, 0.004733727810650888, 0.0035502958579881655, 0.002366863905325444, 0.0, 0.007100591715976331, 0.0, 0.0, 0.002366863905325444, 0.001183431952662722, 0.001183431952662722, 0.001183431952662722, 0.0, 0.002366863905325444, 0.0, 0.002366863905325444, 0.0, 0.002366863905325444, 0.001183431952662722, 0.0, 0.0, 0.002366863905325444], [0.0, 0.001183431952662722, 0.0, 0.0, 0.002366863905325444, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002366863905325444, 3.9136094674556214, 1.9680473372781064, 5.247337278106509, 0.7727810650887574, 0.9810650887573964, 0.0, 4.385798816568047, 0.0, 0.2982248520710059, 0.1621301775147929, 0.6343195266272189, 0.15502958579881657, 0.11952662721893491, 0.0, 0.676923076923077, 0.0, 0.11124260355029586, 0.08757396449704143, 0.26627218934911245, 0.12662721893491125, 0.09822485207100591, 0.001183431952662722, 0.3230769230769231, 0.0, 0.10414201183431952, 0.04970414201183432, 0.10650887573964497, 0.036686390532544376, 0.036686390532544376, 0.0, 0.19289940828402366, 0.0, 0.008284023668639054, 0.014201183431952662, 0.054437869822485205, 0.011834319526627219, 0.005917159763313609, 0.0, 0.08284023668639054, 0.0, 0.010650887573964497, 0.011834319526627219, 0.028402366863905324, 0.004733727810650888, 0.008284023668639054, 0.0, 0.07100591715976332, 0.0, 0.007100591715976331, 0.005917159763313609, 0.010650887573964497, 0.001183431952662722, 0.004733727810650888, 0.0, 0.01301775147928994, 0.0, 0.0, 0.002366863905325444, 0.009467455621301775, 0.002366863905325444, 0.002366863905325444, 0.0, 0.04142011834319527], [0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04378698224852071, 2.02603550295858, 0.650887573964497, 1.170414201183432, 0.1408284023668639, 0.22366863905325443, 0.0, 0.2603550295857988, 0.0, 0.07928994082840236, 0.023668639053254437, 0.040236686390532544, 0.01775147928994083, 0.009467455621301775, 0.0, 0.020118343195266272, 0.0, 0.007100591715976331, 0.005917159763313609, 0.001183431952662722, 0.014201183431952662, 0.007100591715976331, 0.0, 0.007100591715976331, 0.0, 0.008284023668639054, 0.007100591715976331, 0.0035502958579881655, 0.0, 0.002366863905325444, 0.0, 0.014201183431952662, 0.0, 0.0035502958579881655, 0.0035502958579881655, 0.0035502958579881655, 0.002366863905325444, 0.01301775147928994, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.002366863905325444, 0.002366863905325444, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0035502958579881655, 0.001183431952662722, 0.005917159763313609, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.009467455621301775], [0.005917159763313609, 0.9136094674556213, 0.557396449704142, 0.5609467455621302, 0.0970414201183432, 0.08994082840236686, 0.0, 0.12071005917159763, 0.0, 0.008284023668639054, 0.008284023668639054, 0.03076923076923077, 0.009467455621301775, 0.01301775147928994, 0.0, 0.021301775147928994, 0.0, 0.004733727810650888, 0.002366863905325444, 0.002366863905325444, 0.0, 0.0, 0.0, 0.005917159763313609, 0.0, 0.002366863905325444, 0.0, 0.002366863905325444, 0.0, 0.004733727810650888, 0.0, 0.004733727810650888, 0.0, 0.001183431952662722, 0.001183431952662722, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444], [0.13846153846153847, 1.2781065088757397, 0.6307692307692307, 1.6272189349112427, 0.12544378698224853, 0.17159763313609466, 0.0, 0.3230769230769231, 0.0, 0.06390532544378698, 0.01301775147928994, 0.1136094674556213, 0.021301775147928994, 0.014201183431952662, 0.0, 0.040236686390532544, 0.0, 0.002366863905325444, 0.004733727810650888, 0.027218934911242602, 0.007100591715976331, 0.009467455621301775, 0.0, 0.015384615384615385, 0.0, 0.005917159763313609, 0.0, 0.01301775147928994, 0.005917159763313609, 0.004733727810650888, 0.0, 0.011834319526627219, 0.0, 0.005917159763313609, 0.0, 0.008284023668639054, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.010650887573964497, 0.0, 0.001183431952662722, 0.0, 0.005917159763313609, 0.0, 0.0, 0.001183431952662722, 0.001183431952662722, 0.001183431952662722, 0.0, 0.0, 0.004733727810650888, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007100591715976331], [0.007100591715976331, 0.6153846153846154, 0.285207100591716, 0.42958579881656805, 0.05798816568047337, 0.13727810650887573, 0.0, 0.08994082840236686, 0.001183431952662722, 0.04260355029585799, 0.014201183431952662, 0.010650887573964497, 0.01301775147928994, 0.0035502958579881655, 0.0, 0.004733727810650888, 0.0, 0.004733727810650888, 0.0035502958579881655, 0.005917159763313609, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004733727810650888, 0.0, 0.001183431952662722, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722], [0.0378698224852071, 0.7207100591715976, 0.30414201183431955, 0.44970414201183434, 0.05917159763313609, 0.1455621301775148, 0.0, 0.07218934911242604, 0.0, 0.011834319526627219, 0.016568047337278107, 0.014201183431952662, 0.0035502958579881655, 0.010650887573964497, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0035502958579881655, 0.001183431952662722, 0.005917159763313609, 0.0, 0.001183431952662722, 0.0, 0.005917159763313609, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444], [0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.001183431952662722, 0.9455621301775148, 0.5621301775147929, 1.4284023668639054, 0.14437869822485208, 0.20236686390532543, 0.0, 0.5124260355029586, 0.0, 0.028402366863905324, 0.02485207100591716, 0.0485207100591716, 0.01301775147928994, 0.008284023668639054, 0.0, 0.06627218934911243, 0.0, 0.005917159763313609, 0.001183431952662722, 0.010650887573964497, 0.0, 0.008284023668639054, 0.0, 0.020118343195266272, 0.0, 0.005917159763313609, 0.001183431952662722, 0.001183431952662722, 0.001183431952662722, 0.008284023668639054, 0.0, 0.016568047337278107, 0.0, 0.0035502958579881655, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0035502958579881655, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.010650887573964497, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008284023668639054, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444], [0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002366863905325444, 0.4532544378698225, 0.15384615384615385, 0.3349112426035503, 0.05680473372781065, 0.06982248520710059, 0.001183431952662722, 0.05798816568047337, 0.001183431952662722, 0.02485207100591716, 0.005917159763313609, 0.007100591715976331, 0.001183431952662722, 0.004733727810650888, 0.0, 0.007100591715976331, 0.0, 0.009467455621301775, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.001183431952662722, 0.2, 0.11952662721893491, 0.1940828402366864, 0.016568047337278107, 0.027218934911242602, 0.0, 0.02603550295857988, 0.0, 0.007100591715976331, 0.004733727810650888, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0035502958579881655, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722], [0.05207100591715976, 0.3242603550295858, 0.2556213017751479, 0.450887573964497, 0.05325443786982249, 0.07218934911242604, 0.0, 0.13136094674556212, 0.0, 0.015384615384615385, 0.011834319526627219, 0.020118343195266272, 0.001183431952662722, 0.002366863905325444, 0.0, 0.002366863905325444, 0.0, 0.0, 0.001183431952662722, 0.007100591715976331, 0.0, 0.0035502958579881655, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.002366863905325444, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.0, 0.22840236686390533, 0.09112426035502959, 0.15857988165680473, 0.029585798816568046, 0.03431952662721893, 0.0, 0.021301775147928994, 0.0, 0.009467455621301775, 0.0035502958579881655, 0.0035502958579881655, 0.005917159763313609, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.004733727810650888, 0.001183431952662722, 0.004733727810650888, 0.002366863905325444, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.01301775147928994, 0.23431952662721894, 0.11715976331360947, 0.16568047337278108, 0.029585798816568046, 0.0485207100591716, 0.0, 0.0485207100591716, 0.0, 0.008284023668639054, 0.001183431952662722, 0.004733727810650888, 0.0035502958579881655, 0.005917159763313609, 0.0, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.001183431952662722, 0.002366863905325444, 0.002366863905325444, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.001183431952662722, 0.3349112426035503, 0.20591715976331362, 0.5360946745562131, 0.06272189349112427, 0.07810650887573964, 0.0, 0.16449704142011834, 0.0, 0.02485207100591716, 0.021301775147928994, 0.011834319526627219, 0.009467455621301775, 0.007100591715976331, 0.0, 0.021301775147928994, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.011834319526627219, 0.0, 0.0, 0.0, 0.0, 0.0035502958579881655, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.001183431952662722, 0.16094674556213018, 0.06153846153846154, 0.1242603550295858, 0.020118343195266272, 0.05325443786982249, 0.0, 0.03195266272189349, 0.0, 0.010650887573964497, 0.004733727810650888, 0.007100591715976331, 0.0035502958579881655, 0.001183431952662722, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.002366863905325444, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002366863905325444, 0.06627218934911243, 0.036686390532544376, 0.06153846153846154, 0.01775147928994083, 0.011834319526627219, 0.0, 0.01775147928994083, 0.0, 0.01893491124260355, 0.0035502958579881655, 0.002366863905325444, 0.0, 0.0, 0.0, 0.005917159763313609, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0378698224852071, 0.11715976331360947, 0.06627218934911243, 0.20118343195266272, 0.03195266272189349, 0.03905325443786982, 0.0, 0.03195266272189349, 0.0, 0.02485207100591716, 0.001183431952662722, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.0, 0.004733727810650888, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.004733727810650888, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05207100591715976, 0.01893491124260355, 0.07100591715976332, 0.01775147928994083, 0.011834319526627219, 0.0, 0.023668639053254437, 0.0, 0.007100591715976331, 0.009467455621301775, 0.0035502958579881655, 0.004733727810650888, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.004733727810650888, 0.05325443786982249, 0.04260355029585799, 0.04970414201183432, 0.008284023668639054, 0.029585798816568046, 0.0, 0.03550295857988166, 0.0, 0.01775147928994083, 0.001183431952662722, 0.009467455621301775, 0.002366863905325444, 0.001183431952662722, 0.0, 0.004733727810650888, 0.0, 0.002366863905325444, 0.0, 0.004733727810650888, 0.0, 0.002366863905325444, 0.0, 0.002366863905325444, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1301775147928994, 0.08875739644970414, 0.22958579881656804, 0.033136094674556214, 0.05680473372781065, 0.0, 0.1076923076923077, 0.0, 0.004733727810650888, 0.009467455621301775, 0.021301775147928994, 0.005917159763313609, 0.005917159763313609, 0.0, 0.015384615384615385, 0.0, 0.002366863905325444, 0.001183431952662722, 0.002366863905325444, 0.002366863905325444, 0.002366863905325444, 0.0, 0.009467455621301775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.002366863905325444, 0.06390532544378698, 0.023668639053254437, 0.029585798816568046, 0.007100591715976331, 0.005917159763313609, 0.0, 0.01301775147928994, 0.0, 0.0035502958579881655, 0.0035502958579881655, 0.002366863905325444, 0.001183431952662722, 0.0035502958579881655, 0.0, 0.007100591715976331, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007100591715976331, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01775147928994083, 0.01775147928994083, 0.02603550295857988, 0.0035502958579881655, 0.005917159763313609, 0.0, 0.004733727810650888, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.023668639053254437, 0.04260355029585799, 0.03195266272189349, 0.10414201183431952, 0.007100591715976331, 0.005917159763313609, 0.0, 0.0378698224852071, 0.0, 0.0, 0.0035502958579881655, 0.001183431952662722, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004733727810650888, 0.001183431952662722, 0.005917159763313609, 0.001183431952662722, 0.004733727810650888, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.005917159763313609, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.0, 0.02603550295857988, 0.010650887573964497, 0.014201183431952662, 0.001183431952662722, 0.001183431952662722, 0.0, 0.007100591715976331, 0.0, 0.004733727810650888, 0.0, 0.001183431952662722, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.001183431952662722, 0.011834319526627219, 0.021301775147928994, 0.09112426035502959, 0.005917159763313609, 0.023668639053254437, 0.0, 0.027218934911242602, 0.0, 0.0035502958579881655, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.005917159763313609, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0035502958579881655, 0.005917159763313609, 0.009467455621301775, 0.009467455621301775, 0.001183431952662722, 0.0, 0.007100591715976331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.005917159763313609, 0.001183431952662722, 0.014201183431952662, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.002366863905325444, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009467455621301775, 0.007100591715976331, 0.004733727810650888, 0.04142011834319527, 0.0, 0.008284023668639054, 0.0, 0.004733727810650888, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.004733727810650888, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004733727810650888, 0.002366863905325444, 0.002366863905325444, 0.001183431952662722, 0.0, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.004733727810650888, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.001183431952662722, 0.001183431952662722, 0.005917159763313609, 0.0, 0.0, 0.0, 0.007100591715976331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.004733727810650888, 0.010650887573964497, 0.027218934911242602, 0.0035502958579881655, 0.002366863905325444, 0.0, 0.054437869822485205, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.004733727810650888, 0.0, 0.0, 0.0, 0.001183431952662722, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0035502958579881655, 0.004733727810650888, 0.0, 0.004733727810650888, 0.0, 0.005917159763313609, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.001183431952662722, 0.002366863905325444, 0.007100591715976331, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.002366863905325444, 0.008284023668639054, 0.008284023668639054, 0.0035502958579881655, 0.001183431952662722, 0.0, 0.009467455621301775, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.001183431952662722, 0.0, 0.002366863905325444, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.001183431952662722, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0035502958579881655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.002366863905325444, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.001183431952662722, 0.002366863905325444, 0.020118343195266272, 0.0, 0.0, 0.0, 0.011834319526627219, 0.0, 0.001183431952662722, 0.0, 0.0, 0.0, 0.0, 0.0, 0</t>
+          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.302373925713959</v>
+        <v>3.590809757418174</v>
       </c>
       <c r="C3" t="n">
-        <v>2.856162451146779</v>
+        <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5948908687214624</v>
+        <v>0.5906991495010002</v>
       </c>
       <c r="E3" t="n">
-        <v>3.652550329595369</v>
+        <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.393950635979293</v>
+        <v>1.382981190106598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02129495617353621</v>
+        <v>0.02093743096043811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295949245122617</v>
+        <v>0.4295189899033051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.65437345549236</v>
+        <v>15.22384905978332</v>
       </c>
       <c r="J3" t="n">
-        <v>81.46690168937239</v>
+        <v>81.5531434743672</v>
       </c>
       <c r="K3" t="n">
-        <v>1.545535777025525</v>
+        <v>1.539005082169607</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8662220561365579</v>
+        <v>0.8673466694570817</v>
       </c>
       <c r="M3" t="n">
-        <v>1.773982658326258</v>
+        <v>1.743405014990587</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[44.129272175302106, 26.277002437737202, 38.68426797155144, 24.958860896064163, 9.15990474333881, 12.079708198578704, 0.8277309197701699, 10.094685377742069, 4.65760179039277, 5.379938927733858, 2.944407713093603, 0.6515370616458276, 3.748636109243993, 0.1679306203556595, 0.9923794930500316, 0.5649397244535741, 0.2138903887997856, 0.4530643691273258, 0.0, 0.10837290625744843, 0.048592816964846706, 0.034380684133334755, 0.06876136826666944, 0.10314205240000396, 0.07684110334081919, 0.0, 0.0, 0.03438068413333475, 0.10314205240000396, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.615026952377544, 4.373961295113954, 24.33643058413776, 3.8941144444490305, 22.954523950889968, 16.625029399520674, 5.275291259705442, 25.566209788415552, 4.619890684564627, 27.45404897558611, 3.2847526244647787, 19.906645468406737]</t>
+          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[19.599117872465516, 79.95414238351096, 85.92444408131541, 32.04551697871053, 39.268527778680166, 5.052348074973752, 10.151655878857138, 4.175753689502024, 10.488942794254498, 2.526906848154486, 4.427618297502956, 1.682906813819633, 5.241448842340988, 1.3608932328043863, 2.924419594370272, 1.0771857407749275, 5.530421514692852, 0.9189682494324062, 2.0430107858185513, 0.7625710805218614, 1.5412328248828908, 0.41731039288143895, 0.7984649675477955, 0.3456148132005821, 1.3010616656915754, 0.15236427871650743, 0.33908165148489683, 0.11857964544260598, 0.41058437808690235, 0.14124050885525144, 0.20981817995363056, 0.128368277317009]</t>
+          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[12.667644013776743, 93.98911035005874, 57.5793420623299, 59.96681357581544, 16.682774126555998, 16.77377947519363, 0.10303336738309485, 26.360523070862026, 0.07684110334081949, 5.449783679366136, 3.9119137541956994, 6.289402082167347, 2.8835382604377444, 3.0204753920752, 0.0768411033408204, 6.04344575398436, 0.034380684133334755, 2.22021611926855, 1.3759278359545521, 2.5572170940559764, 1.6009371926973475, 1.6894236193271488, 0.03438068413333474, 2.9285084768689127, 0.0, 1.2872040888855736, 0.9368491636970024, 1.5718569330538807, 1.0433105488630785, 1.0027936189418067, 0.0, 2.0894046636122474, 0.0, 0.8415224764845184, 0.5350054899429622, 1.1928700569320274, 0.32218051943715525, 0.5251478456537971, 0.0, 1.0912397736285626, 0.0, 0.3298061579430605, 0.30114564811068023, 0.4860780176281623, 0.2737388363512598, 0.2418548122713921, 0.0, 0.656731164918642, 0.0, 0.21310320442485756, 0.1931569776388493, 0.31134832951299657, 0.11879204820193592, 0.12817174500887235, 0.0, 0.30962976724850655, 0.0, 0.11857964544260616, 0.1187920482019359, 0.20747556923844565, 0.06863905325443741, 0.13727810650887481, 0.0, 0.7778074435958131]</t>
+          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.511712149954485, 0.6984053522583943, 9.651683147019646, 0.7840502395854789, 5.24299703333222, 1.961788251518871, 0.20024144244355152, 5.2639686471862746, 0.40783613199832947, 9.030630818881933, 0.9799331090170527, 8.70706422010752], [0.6960592230057083, 1.530350031690509, 1.0926262621474514, 0.9945406102941728, 0.564230272022822, 0.4733934906712456, 0.23186207626125505, 0.06876136826666954, 0.4143026080386466, 0.316164649243369, 0.7857310871217751, 0.5961302798284555], [11.054460357667251, 1.0532916687788327, 13.332614128100051, 0.3806973859016713, 10.893862732268518, 2.3450963538992964, 0.6076851056538197, 4.389870601945375, 0.19109403098728245, 3.5543066102757774, 0.3584529234109846, 3.3825735555059993], [0.49685823617909225, 1.4192107553483162, 1.049448612354296, 1.1064069819870004, 0.6734174962535197, 1.240232169466456, 0.1187920482019363, 0.0908240655827219, 0.3377366342321255, 0.0, 0.31271279649540706, 0.0], [5.613136891846195, 0.3071365030137138, 10.652515720395735, 0.7167964396916391, 13.355244300680958, 6.777952547330788, 1.5746512716214176, 9.296229432237823, 0.6800626493938481, 5.725318055129671, 0.04859281696484672, 2.6149427991703154], [1.4104930216260876, 0.38978950292132303, 2.0549320432027134, 1.5519860699045713, 7.816165347590267, 6.373430985522817, 0.667977889587872, 4.076507222803048, 0.9162958328451863, 1.788457402807457, 0.3802188405692881, 0.42091598585407597], [0.04859281696484676, 0.15710699905586975, 0.6138921364520386, 0.1187920482019366, 1.9732797188918323, 0.8688325083257151, 1.5383176992385168, 1.5528981276301, 0.4603078724268733, 0.8009430385858547, 0.22774839693462517, 0.42453054372640664], [5.237100241060072, 0.06876136826666944, 4.228754268383513, 0.2591148515326631, 9.333178392160873, 4.849478886189284, 1.8928748997268263, 14.518904224550047, 0.5457610439723082, 10.702156946130238, 0.26364250452102655, 2.2952277546493414], [0.2446414622410583, 0.3809106967912656, 0.2909413963620235, 0.3887605486529296, 0.6413218553960258, 1.0218467215358848, 0.46345226034525655, 0.5181675420407837, 1.93213379362395, 1.701057366051882, 1.1296563127940842, 0.3683193119796801], [8.984986524404913, 0.2775040686286606, 3.9256765775921867, 0.18818428697407277, 6.160834675400952, 1.778523024201217, 1.0292075752271896, 10.794944008557605, 1.220591738924404, 15.3935011207657, 0.4048029284416887, 6.911995987145245], [1.0113213689933727, 0.7335598204330024, 0.0768411033408189, 0.3381676217931811, 0.06863905325443764, 0.5595318334943361, 0.12375778899314839, 0.34787666152336827, 1.0338644687022307, 0.5891256913548043, 0.7768002624912292, 0.42300698722669167], [8.277580757399237, 0.8595741310123582, 2.7131364147163404, 0.0, 2.429184274963164, 0.4805753819482141, 0.40745821638826557, 3.339344276257141, 0.7569469820190565, 7.488374005551217, 0.39893068091609907, 7.0038588452463015]]</t>
+          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5957566180673085, 6.869900870562766, 3.7179367685104823, 6.404684089951397, 0.9532439698388252, 0.8737335089942161, 0.0, 1.8588796715430917, 0.0, 0.22695991153180925, 0.33063318221244764, 0.3221805194371549, 0.16426274233894433, 0.15710699905586967, 0.0, 0.25853045443137723, 0.0, 0.10303336738309413, 0.03438068413333472, 0.12375778899314721, 0.1329768936386994, 0.07684110334081994, 0.0, 0.1329768936386999, 0.0, 0.0, 0.0, 0.10303336738309368, 0.04859281696484671, 0.0, 0.0, 0.15339031238835105, 0.0, 0.03438068413333473, 0.0, 0.07684110334082021, 0.0, 0.03438068413333475, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.06876136826666947, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0], [8.258825073212988, 71.85787506520245, 20.44726878441885, 17.559517660832178, 5.572503985843823, 7.726548280774731, 0.0, 4.645894605228289, 0.0, 3.0240342997323664, 1.8544835601550513, 1.7737430338095015, 1.2913970391805087, 1.8072110264903685, 0.0, 1.7659723413132253, 0.0, 1.0547160923693926, 0.7040077441476635, 0.8266202301339883, 0.4217303849960734, 0.8262016414535789, 0.0, 0.9727378731827192, 0.0, 0.48891067413307604, 0.3570239839782082, 0.5008867875722925, 0.4673342663239211, 0.39735831585029774, 0.0, 0.6571660608548663, 0.0, 0.3660116077960037, 0.18461538461538562, 0.2693809321789768, 0.07684110334081957, 0.32511871877234333, 0.0, 0.11359713937057, 0.0, 0.11379422846149735, 0.034380684133334734, 0.07684110334082093, 0.0485928169648467, 0.034380684133334755, 0.0, 0.05947849407398337, 0.0, 0.03438068413333473, 0.048592816964846755, 0.03438068413333478, 0.03438068413333475, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.06876136826666948, 0.0, 0.0], [2.4512689739495057, 20.316348826027085, 28.840959605170784, 15.35253478153822, 4.736230699264074, 4.686799037840839, 0.0, 5.419214415206339, 0.0, 1.8073117681177489, 1.5955261144234962, 1.570407512593701, 0.9524208594445691, 1.066090258927753, 0.0, 1.7830883552112748, 0.0, 0.7336228212726381, 0.6330487137622252, 0.9054731673576661, 0.8371524358402773, 0.5491251783869164, 0.0, 0.8851137501010629, 0.0, 0.4588664880285397, 0.5174941033999184, 0.441285256299441, 0.30145243215577416, 0.40903969173704574, 0.0, 0.4196363599072626, 0.0, 0.329113255841115, 0.10855367853698036, 0.32100469009664045, 0.07684110334081905, 0.17167515082403462, 0.0, 0.08413194124107053, 0.0, 0.24751557798629759, 0.048592816964846706, 0.17151191493010626, 0.07684110334082009, 0.0, 0.0, 0.11394182155655089, 0.0, 0.0, 0.0, 0.06876136826666948, 0.06876136826666947, 0.0, 0.0, 0.0768411033408201, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08413194124107048], [7.654671149468082, 16.87663217470981, 14.390775554628313, 41.75911001797532, 5.661298504740548, 4.975620547423067, 0.06876136826666947, 10.18513104316498, 0.0, 2.6254047790469763, 1.8495515691560134, 3.8691250298873947, 1.578613945214477, 1.4847360105327265, 0.03438068413333474, 3.455134925648242, 0.0, 1.288637308916519, 0.6262312196164035, 1.5202776075643134, 0.7145675415743353, 0.7949051730209399, 0.0, 1.5722444665896784, 0.0, 0.7244440344105469, 0.42773166629102477, 1.0757194652483926, 0.5782539648298686, 0.5124082700502154, 0.0, 1.2406431422142645, 0.0, 0.44640019566994416, 0.30432844883240767, 0.861019741105295, 0.09082406558272194, 0.10287012455432264, 0.0, 0.7243570341939314, 0.0, 0.11895698814796703, 0.17808979850446596, 0.27168979112224273, 0.09718563392969341, 0.10303336738309475, 0.0, 0.14938455491454136, 0.0, 0.13297689363869825, 0.08413194124107046, 0.17761732738944921, 0.0, 0.0, 0.0, 0.09704142011834249, 0.0, 0.03438068413333473, 0.07684110334082021, 0.1495719415347642, 0.034380684133334734, 0.0, 0.0, 0.288417687457424], [1.2279633468891513, 4.878548624989869, 4.367377657757126, 5.788308798720348, 5.899492441222238, 2.3733892298565937, 0.0, 2.336495712056312, 0.0, 0.9924641653826369, 0.6048066746957438, 0.8684536183734007, 0.5677884025229517, 0.4721137101850569, 0.06876136826666948, 0.9464466983902543, 0.0, 0.38331870633870274, 0.32804767881673264, 0.41569637148734434, 0.2685373735575073, 0.31616464924336907, 0.0, 0.4300859396436346, 0.0, 0.25366885299292447, 0.1812776723206325, 0.269838056230872, 0.16446724007432703, 0.24503043600503535, 0.0, 0.26304154550555664, 0.0, 0.20504474102308526, 0.03438068413333478, 0.13727810650887473, 0.05947849407398349, 0.10303336738309604, 0.0, 0.04859281696484668, 0.0, 0.03438068413333477, 0.034380684133334755, 0.04859281696484671, 0.1375227365333391, 0.034380684133334775, 0.0, 0.04859281696484673, 0.0, 0.059478494073983375, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.0, 0.0, 0.0, 0.06863905325443743], [1.3687934330437677, 7.1483331912835295, 4.8436468940314406, 5.409174761239771, 2.401330117041546, 5.3917533805477715, 0.03438068413333478, 2.7475217450722607, 0.0, 1.0577988525804658, 0.7062283248589573, 1.201619998200893, 0.7589702583674611, 0.624623411631616, 0.0, 1.150070594253108, 0.0, 0.6973557925205653, 0.29901276586705194, 0.5234650090500104, 0.41198052223619647, 0.4148870061814214, 0.0, 0.6117164227797003, 0.0, 0.34041724048971717, 0.20747556923844634, 0.37180486438839544, 0.1283682773170094, 0.24808076020362455, 0.0, 0.3281842657608507, 0.0, 0.18440285141569224, 0.16463746081961422, 0.2448474665028743, 0.08413194124107058, 0.08413194124107051, 0.0, 0.12836827731700937, 0.0, 0.034380684133334755, 0.07684110334081923, 0.08413194124107039, 0.07684110334081859, 0.048592816964846706, 0.0, 0.12852092800225556, 0.0, 0.0, 0.048592816964846706, 0.03438068413333477, 0.03438068413333475, 0.03438068413333472, 0.0, 0.04859281696484673, 0.0, 0.04859281696484669, 0.0, 0.06876136826666945, 0.03438068413333474, 0.0, 0.0, 0.04859281696484671], [0.0, 0.03438068413333478, 0.0, 0.0, 0.06876136826666947, 0.0, 0.03438068413333478, 0.0, 0.0, 0.0, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04859281696484672, 4.635174685833784, 4.024207412588782, 9.381418529197546, 2.0148484208912847, 2.320910105466595, 0.0, 13.38073460918402, 0.0, 1.0915746929955408, 0.8304758496789482, 2.570659375668658, 0.7682232819688607, 0.6258039190904577, 0.0, 2.9061860160291357, 0.0, 0.5833419280737846, 0.5143152242104975, 1.1862569831427705, 0.663013460798462, 0.5946978122568513, 0.03438068413333474, 1.4336612624272713, 0.0, 0.5316442096284463, 0.3735523157288588, 0.6215215165087588, 0.33328687980875277, 0.23799637482568559, 0.0, 0.9279087618697609, 0.0, 0.14972168197174843, 0.17483580056259185, 0.4505038047480838, 0.2226299415918135, 0.1139418215565529, 0.0, 0.6326437282560495, 0.0, 0.12357659154751784, 0.18164813116544537, 0.23663904851975867, 0.06863905325443738, 0.14972168197174873, 0.0, 0.500579126116392, 0.0, 0.10855367853698025, 0.0908240655827219, 0.13280827490720196, 0.034380684133334734, 0.08413194124107048, 0.0, 0.132597199956729, 0.0, 0.0, 0.06876136826666956, 0.10837290625744804, 0.04859281696484671, 0.048592816964846665, 0.0, 0.32915580717050613], [0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333476, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.48817966628701764, 3.270710473988296, 1.9178426718549033, 2.51797334562258, 0.6456421234858722, 0.9119370288774228, 0.0, 1.2416451643648736, 0.0, 0.4981475435108677, 0.24693775949382135, 0.4079563044572492, 0.23517267434412287, 0.10837290625744825, 0.0, 0.19659223459981107, 0.0, 0.1536822066816374, 0.09082406558272162, 0.03438068413333478, 0.20591715976331337, 0.08396531017782997, 0.0, 0.08396531017783011, 0.0, 0.10287012455432303, 0.09704142011834258, 0.10314205240000233, 0.0, 0.04859281696484683, 0.0, 0.31497080882647815, 0.0, 0.059478494073983416, 0.07684110334081876, 0.07684110334081944, 0.048592816964846706, 0.28128362727827777, 0.0, 0.03438068413333479, 0.0, 0.0, 0.03438068413333477, 0.04859281696484674, 0.06876136826666958, 0.06876136826666947, 0.0, 0.0, 0.0, 0.05947849407398343, 0.03438068413333471, 0.0908240655827227, 0.0, 0.07684110334082048, 0.0, 0.0, 0.0, 0.03438068413333475, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.10837290625744814], [0.12389351316735875, 1.9673950250934547, 1.6763112053043128, 1.89989449803744, 0.558995933711216, 0.5622908521538297, 0.0, 0.708099860878208, 0.0, 0.11379422846149569, 0.1850699910279262, 0.47067872433163954, 0.10837290625744918, 0.16446724007432642, 0.0, 0.232344795934903, 0.0, 0.10868261750455711, 0.048592816964846706, 0.04859281696484673, 0.0, 0.0, 0.0, 0.11394182155655191, 0.0, 0.04859281696484671, 0.0, 0.06876136826666955, 0.0, 0.10868261750455709, 0.0, 0.1086826175045571, 0.0, 0.034380684133334734, 0.03438068413333476, 0.04859281696484671, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.03438068413333476, 0.0, 0.0, 0.0, 0.03438068413333473, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.04859281696484671], [0.8694689939042788, 2.2614978987503536, 1.8121222315971186, 4.063340795395264, 0.6044244742438402, 0.7266021621260405, 0.0, 1.3573381538530742, 0.0, 0.4570928361495229, 0.17827843635256987, 0.9724570790329099, 0.303074127373552, 0.18147843140078143, 0.0, 0.3585505875901036, 0.0, 0.04859281696484673, 0.08413194124107051, 0.24416010969872926, 0.2062841048000075, 0.1283682773170091, 0.0, 0.15689290811054832, 0.0, 0.09082406558272177, 0.0, 0.19718973752275504, 0.14171566750222717, 0.08413194124107069, 0.0, 0.14547069818101274, 0.0, 0.09082406558272214, 0.0, 0.12375778899314716, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.1572851855700469, 0.0, 0.03438068413333472, 0.0, 0.12389351316735979, 0.0, 0.0, 0.034380684133334734, 0.03438068413333472, 0.034380684133334734, 0.0, 0.0, 0.08413194124107065, 0.0, 0.07684110334081946, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08396531017782996], [0.0970414201183427, 1.457890183443958, 1.0424510765739494, 1.2977268952709449, 0.4130397918874569, 1.0747647270518141, 0.0, 0.6354092908613483, 0.03438068413333476, 0.38991164556645636, 0.17483580056259235, 0.14957194153476333, 0.21988917255197515, 0.07684110334081862, 0.0, 0.08413194124107065, 0.0, 0.13752273653333913, 0.05947849407398341, 0.12389351316735805, 0.03438068413333478, 0.0, 0.0, 0.034380684133334755, 0.0, 0.0, 0.0, 0.0, 0.07684110334081895, 0.0, 0.0, 0.059478494073983444, 0.0, 0.034380684133334755, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1086826175045571, 0.0, 0.03438068413333478, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.034380684133334755], [0.3934194889636428, 1.851942071622198, 1.060777599653823, 1.4003855876596532, 0.36575514834711437, 0.824976856758531, 0.0, 0.4774146966205377, 0.0, 0.14547069818101, 0.1876924569270483, 0.21710735707396103, 0.05947849407398357, 0.27714551325425396, 0.0, 0.034380684133334734, 0.0, 0.034380684133334755, 0.0, 0.0, 0.034380684133334734, 0.05947849407398333, 0.0, 0.03438068413333475, 0.0, 0.03438068413333474, 0.0, 0.07684110334082059, 0.03438068413333475, 0.14171566750222753, 0.0, 0.03438068413333476, 0.0, 0.14171566750222764, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333475, 0.0, 0.03438068413333474, 0.03438068413333476, 0.0, 0.0, 0.03438068413333476, 0.0, 0.0, 0.0, 0.03438068413333476, 0.034380684133334755, 0.0, 0.03438068413333476, 0.0, 0.0, 0.06876136826666944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04859281696484673], [0.0, 0.06876136826666948, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.034380684133334734, 1.8865753883277554, 1.6252403247616456, 3.524540902277699, 0.8415158194229816, 0.8732685430330823, 0.0, 2.760910476406363, 0.0, 0.24643816079290434, 0.23452862584739076, 0.3353187142162534, 0.1493845549145413, 0.15742758956985525, 0.0, 0.611805705899311, 0.0, 0.10303336738309464, 0.03438068413333475, 0.14143868561731332, 0.0, 0.14972168197174854, 0.0, 0.2543305126474742, 0.0, 0.09082406558272169, 0.034380684133334755, 0.03438068413333473, 0.034380684133334775, 0.1574275895698552, 0.0, 0.2994433639435004, 0.0, 0.05947849407398356, 0.03438068413333477, 0.0, 0.03438068413333477, 0.10314205240000436, 0.0, 0.07684110334081928, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666956, 0.0, 0.22001651904586395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12375778899314702, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04859281696484673], [0.0, 0.0, 0.034380684133334755, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06876136826666948, 1.3593435373080351, 0.6705998374677964, 1.0659996105238074, 0.3757019037095314, 0.4523187771702659, 0.034380684133334775, 0.35776852766359457, 0.03438068413333474, 0.31618679691449386, 0.0908240655827219, 0.17526783038114568, 0.03438068413333474, 0.08413194124107039, 0.0, 0.14577845089454153, 0.0, 0.16107721826080318, 0.06876136826666956, 0.0, 0.0, 0.0, 0.0, 0.06876136826666948, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048592816964846665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333475, 0.0, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.0, 0.034380684133334755, 0.0, 0.0, 0.0, 0.0, 0.03438068413333478], [0.03438068413333472, 0.7060180864974653, 0.6425981016910195, 0.7569562330145776, 0.1938951322045953, 0.21858600056149077, 0.0, 0.25611392374255426, 0.0, 0.10855367853698057, 0.08413194124107043, 0.0, 0.0, 0.0, 0.0, 0.03438068413333475, 0.0, 0.0, 0.0, 0.1031420524000029, 0.076841103340819, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333473, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333478, 0.0, 0.0, 0.0, 0.03438068413333474], [0.5348326904672976, 1.0654069215781368, 0.9891636529549989, 1.4453401288112482, 0.3450470344336078, 0.44667933205530636, 0.0, 0.8344781417902696, 0.0, 0.18461538461538549, 0.17501194145135635, 0.24484746650287423, 0.03438068413333472, 0.048592816964846755, 0.0, 0.06876136826666956, 0.0, 0.0, 0.034380684133334775, 0.10855367853698036, 0.0, 0.07684110334081888, 0.0, 0.04859281696484677, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.03438068413333478, 0.0, 0.04859281696484673, 0.0, 0.034380684133334755, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04859281696484671, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334755], [0.0, 0.9856475018302575, 0.5194255269530842, 0.6920942370573753, 0.26257792313042133, 0.26647986641491334, 0.0, 0.21652600878891026, 0.0, 0.16826388248214139, 0.059478494073983555, 0.0768411033408202, 0.14171566750222706, 0.03438068413333472, 0.0, 0.03438068413333473, 0.0, 0.0, 0.09718563392969357, 0.03438068413333479, 0.09718563392969351, 0.06876136826666956, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333473, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734], [0.2501048412916991, 0.8888558790053461, 0.6448716063503388, 0.7271609165064149, 0.26704686783561116, 0.31342855114313595, 0.0, 0.35586489505934044, 0.0, 0.11379422846149721, 0.03438068413333473, 0.08413194124107065, 0.07684110334081909, 0.1417156675022276, 0.0, 0.07684110334081913, 0.0, 0.034380684133334755, 0.03438068413333479, 0.06876136826666956, 0.06876136826666956, 0.04859281696484667, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.034380684133334796, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03438068413333476, 1.062663906379114, 0.8985000085291274, 1.7419804795222986, 0.4094674556213011, 0.5338760470617439, 0.0, 1.0252059462565526, 0.0, 0.2077723677856071, 0.3069540528948355, 0.15339031238835243, 0.19437126785938727, 0.09704142011834248, 0.0, 0.3069540528948393, 0.0, 0.0, 0.034380684133334775, 0.0, 0.0, 0.034380684133334775, 0.0, 0.1681139962800479, 0.0, 0.0, 0.0, 0.0, 0.10314205240000436, 0.03438068413333476, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.0, 0.03438068413333479, 0.0, 0.0, 0.03438068413333479, 0.0, 0.034380684133334755, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04859281696484671], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03438068413333479, 0.6600262166243205, 0.41395766298688824, 0.5918106433148209, 0.21389038879978559, 0.38707452349729615, 0.0, 0.26677401758306174, 0.0, 0.1414386856173136, 0.09718563392969339, 0.20628410480000856, 0.05947849407398344, 0.03438068413333476, 0.0, 0.1031420524000043, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.048592816964846706, 0.0, 0.034380684133334775, 0.0, 0.03438068413333477, 0.0, 0.034380684133334775, 0.0, 0.03438068413333472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333471, 0.0, 0.03438068413333478, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0687613682666695, 0.36127446563855586, 0.3297169700627026, 0.47766691373108494, 0.19682006864364396, 0.1370943475273324, 0.0, 0.19682006864364407, 0.0, 0.27021149161596253, 0.07684110334081859, 0.04859281696484679, 0.0, 0.0, 0.0, 0.14171566750222764, 0.0, 0.0, 0.0, 0.034380684133334775, 0.0, 0.03438068413333477, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3873566399143865, 0.609006547153384, 0.4355351158696203, 1.0004725608685687, 0.27976591674716855, 0.3536976989644163, 0.0, 0.2336671331619609, 0.0, 0.32722267992763493, 0.03438068413333474, 0.07684110334082037, 0.0, 0.03438068413333476, 0.0, 0.08413194124107051, 0.0, 0.0, 0.0, 0.0, 0.06876136826666948, 0.0, 0.0, 0.09718563392969373, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048592816964846845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333477, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333473, 0.0, 0.0, 0.03438068413333475, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.38570442087640244, 0.16024035726000746, 0.5586751498338831, 0.18440285141569202, 0.1609206383280971, 0.0, 0.336227992560093, 0.0, 0.15368220668163982, 0.21736523500911423, 0.059478494073983416, 0.09718563392969364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048592816964846845, 0.034380684133334796, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.08413194124107044, 0.36504607846596526, 0.30081992920995243, 0.2957538278183994, 0.11379422846149559, 0.223634197905603, 0.0, 0.355738936327821, 0.0, 0.21409981582632218, 0.03438068413333475, 0.11879204820193612, 0.06876136826666958, 0.034380684133334775, 0.0, 0.08413194124107065, 0.0, 0.04859281696484668, 0.0, 0.13752273653333913, 0.0, 0.06876136826666943, 0.0, 0.06876136826666956, 0.0, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333475, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.575311053887532, 0.5593140296354682, 1.1591980267080306, 0.31354470694526126, 0.5094066310102652, 0.0, 0.6222691820355879, 0.0, 0.0686390532544374, 0.13727810650887523, 0.22192425822198644, 0.07669515619417586, 0.09082406558272156, 0.0, 0.1780897985044659, 0.0, 0.04859281696484668, 0.03438068413333476, 0.048592816964846665, 0.06876136826666948, 0.06876136826666956, 0.0, 0.16107721826080282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666948, 0.0, 0.04859281696484673, 0.0, 0.0, 0.0, 0.03438068413333479, 0.0, 0.034380684133334796, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06876136826666948, 0.4518850883228667, 0.3397294907515627, 0.2534037053889188, 0.10855367853698025, 0.10303336738309612, 0.0, 0.13259719995672756, 0.0, 0.07684110334081955, 0.059478494073983416, 0.06876136826666945, 0.034380684133334775, 0.10314205240000375, 0.0, 0.12852092800225606, 0.0, 0.06876136826666951, 0.0, 0.0, 0.0, 0.0, 0.0, 0.20628410480000797, 0.0, 0.03438068413333473, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333477, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22488321179562507, 0.21409981582632212, 0.2907391497157058, 0.1031420524000026, 0.1030333673830954, 0.0, 0.08413194124107051, 0.0, 0.03438068413333478, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666948, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4531632766329092, 0.3648234917131006, 0.27550336525722746, 0.7090584664375098, 0.11895698814796725, 0.09082406558272103, 0.0, 0.31676651412977563, 0.0, 0.0, 0.07684110334081966, 0.03438068413333472, 0.0, 0.0, 0.0, 0.06876136826666943, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333475, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0686390532544375, 0.034380684133334775, 0.09082406558272187, 0.03438068413333474, 0.09718563392969358, 0.0, 0.07684110334081953, 0.0, 0.0, 0.0, 0.0, 0.0, 0.048592816964846706, 0.0, 0.17190342066667658, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666956, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333478], [0.0, 0.3253168122389926, 0.1495719415347627, 0.23288665958276028, 0.034380684133334775, 0.034380684133334796, 0.0, 0.08396531017782996, 0.0, 0.10868261750455711, 0.0, 0.03438068413333473, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.034380684133334734, 0.16092063832809714, 0.22192425822198722, 0.7116805944966003, 0.0908240655827217, 0.382341938133326, 0.0, 0.2760112434401419, 0.0, 0.0768411033408207, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.1417156675022295, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.076841103340819, 0.12389351316735787, 0.10837290625744844, 0.21185084726109085, 0.03438068413333474, 0.0, 0.10855367853698043, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10303336738309486, 0.03438068413333472, 0.17483580056259135, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.10314205240000436, 0.0, 0.0, 0.06876136826666955, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333477, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.137278106508875, 0.11895698814796674, 0.10868261750455693, 0.3327317377398691, 0.0, 0.10287012455432323, 0.0, 0.06863905325443741, 0.0, 0.03438068413333476, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666947, 0.0, 0.0, 0.0, 0.0, 0.13752273653333913, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333478, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08413194124107046, 0.04859281696484668, 0.048592816964846706, 0.034380684133334734, 0.0, 0.0, 0.07684110334081858, 0.0, 0.0, 0.0, 0.0, 0.1375227365333391, 0.034380684133334775, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03438068413333474, 0.034380684133334775, 0.11394182155655204, 0.0, 0.0, 0.0, 0.15368220668163837, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.06876136826666956, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334755, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08413194124107062, 0.14957194153476225, 0.21858600056149097, 0.0768411033408205, 0.06876136826666947, 0.0, 0.5096649996029834, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09718563392969336, 0.0, 0.0, 0.0, 0.034380684133334734, 0.06876136826666955, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.034380684133334734], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07684110334081923, 0.08413194124107051, 0.0, 0.08413194124107039, 0.0, 0.07669515619417637, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03438068413333475, 0.06876136826666948, 0.12852092800225556, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666956, 0.0, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06876136826666952, 0.12375778899314707, 0.102870124554321, 0.059478494073983396, 0.03438068413333472, 0.0, 0.16826388248214097, 0.0, 0.0, 0.0, 0.06876136826666944, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333474, 0.0, 0.0, 0.0, 0.03438068413333472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333476, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666947, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.034380684133334734, 0.0, 0.048592816964846706, 0.048592816964846706, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03438068413333472, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.07684110334082048, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666947, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03438068413333478, 0.04859281696484672, 0.1904774075832136, 0.0, 0.0, 0.0, 0.18164813116544526, 0.0, 0.034380684133334734, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06876136826666958, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333479, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.048592816964846706, 0.0, 0.03438068413333476, 0.0, 0.03438068413333473, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03438068413333</t>
+          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.0034</v>
+        <v>75.69840000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.79</v>
+        <v>13.56</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4012</v>
+        <v>3.514</v>
       </c>
       <c r="E4" t="n">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="F4" t="n">
-        <v>5.9587</v>
+        <v>6.2161</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0118</v>
+        <v>0.0146</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2676</v>
+        <v>2.3908</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>4.51</v>
       </c>
       <c r="J4" t="n">
-        <v>322.61</v>
+        <v>323.01</v>
       </c>
       <c r="K4" t="n">
-        <v>6.189499999999999</v>
+        <v>6.245699999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>2.755099999999999</v>
+        <v>2.6777</v>
       </c>
       <c r="M4" t="n">
-        <v>4.601699999999999</v>
+        <v>4.4161</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[77.52, 24.83, 119.86, 46.77, 11.07, 19.79, 0.21, 11.75, 2.58, 3.63, 1.16, 0.15, 1.66, 0.04, 0.29, 0.09, 0.01, 0.11, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.66, 22.39, 109.14, 46.78, 13.68, 25.17, 0.64, 13.45, 2.51, 3.62, 2.24, 0.13, 2.01, 0.05, 0.27, 0.1, 0.05, 0.04, 0.0, 0.03, 0.01, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[59.5, 0.9, 53.89, 0.59, 59.3, 12.93, 0.76, 55.9, 2.06, 55.26, 1.29, 20.23]</t>
+          <t>[60.81, 0.87, 53.84, 0.49, 58.54, 9.46, 1.44, 51.52, 1.19, 60.53, 0.52, 23.8]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[4.66, 77.55, 153.04, 17.99, 37.45, 2.24, 8.84, 1.84, 5.3, 1.0, 3.06, 0.55, 2.36, 0.54, 1.37, 0.29, 1.55, 0.14, 0.5, 0.11, 0.63, 0.06, 0.28, 0.05, 0.26, 0.05, 0.15, 0.01, 0.04, 0.02, 0.01, 0.0]</t>
+          <t>[11.66, 75.17, 151.33, 21.41, 28.36, 4.45, 8.2, 2.48, 5.89, 1.54, 2.62, 0.74, 2.2, 0.63, 1.61, 0.63, 1.69, 0.28, 0.52, 0.14, 0.32, 0.11, 0.12, 0.03, 0.09, 0.04, 0.05, 0.01, 0.03, 0.0, 0.01, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[9.34, 113.04, 43.49, 80.14, 9.23, 12.66, 0.0, 28.89, 0.0, 3.73, 1.76, 4.37, 1.42, 1.59, 0.0, 4.19, 0.0, 0.95, 0.54, 1.48, 0.36, 0.49, 0.0, 1.5, 0.0, 0.41, 0.2, 0.41, 0.13, 0.16, 0.0, 0.63, 0.0, 0.05, 0.06, 0.14, 0.04, 0.05, 0.0, 0.15, 0.0, 0.07, 0.01, 0.09, 0.02, 0.03, 0.0, 0.09, 0.0, 0.0, 0.02, 0.1, 0.0, 0.0, 0.0, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.03, 0.0, 0.1]</t>
+          <t>[2.63, 112.72, 61.67, 81.06, 12.38, 13.08, 0.0, 13.03, 0.0, 4.3, 2.2, 4.18, 1.51, 1.81, 0.0, 3.4, 0.0, 1.29, 0.7, 1.04, 0.5, 0.69, 0.0, 1.23, 0.0, 0.46, 0.34, 0.41, 0.21, 0.27, 0.0, 0.71, 0.01, 0.31, 0.04, 0.16, 0.0, 0.12, 0.0, 0.1, 0.01, 0.03, 0.03, 0.02, 0.02, 0.01, 0.0, 0.05, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[15.87, 0.03, 15.48, 0.05, 4.66, 0.58, 0.01, 4.08, 0.05, 10.6, 0.18, 7.76], [0.07, 0.35, 0.03, 0.06, 0.01, 0.06, 0.02, 0.0, 0.12, 0.0, 0.18, 0.0], [16.82, 0.05, 12.43, 0.02, 17.0, 0.56, 0.02, 3.0, 0.02, 2.24, 0.04, 1.43], [0.04, 0.1, 0.05, 0.13, 0.03, 0.18, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0], [4.78, 0.02, 19.67, 0.06, 12.43, 4.72, 0.14, 11.29, 0.02, 4.96, 0.01, 1.1], [0.34, 0.01, 0.44, 0.14, 5.57, 3.46, 0.07, 2.15, 0.15, 0.49, 0.06, 0.01], [0.03, 0.02, 0.04, 0.03, 0.22, 0.03, 0.2, 0.01, 0.06, 0.07, 0.02, 0.03], [4.05, 0.01, 3.09, 0.01, 13.23, 2.47, 0.07, 15.35, 0.04, 16.42, 0.04, 0.92], [0.05, 0.1, 0.01, 0.05, 0.06, 0.24, 0.05, 0.04, 0.93, 0.09, 0.41, 0.03], [11.11, 0.01, 1.97, 0.0, 4.68, 0.47, 0.11, 17.78, 0.16, 13.79, 0.04, 4.95], [0.12, 0.18, 0.02, 0.04, 0.05, 0.08, 0.04, 0.01, 0.45, 0.03, 0.27, 0.0], [6.04, 0.02, 0.63, 0.0, 1.01, 0.06, 0.01, 1.91, 0.04, 6.46, 0.02, 3.98]]</t>
+          <t>[[15.86, 0.08, 14.69, 0.03, 5.03, 0.51, 0.05, 4.74, 0.07, 11.62, 0.03, 7.85], [0.06, 0.24, 0.07, 0.04, 0.05, 0.02, 0.06, 0.03, 0.13, 0.02, 0.07, 0.06], [15.58, 0.03, 12.89, 0.06, 15.72, 0.81, 0.07, 3.29, 0.02, 3.4, 0.05, 1.85], [0.0, 0.05, 0.07, 0.09, 0.09, 0.04, 0.03, 0.0, 0.05, 0.04, 0.03, 0.0], [5.56, 0.04, 17.39, 0.12, 14.35, 3.2, 0.39, 10.34, 0.1, 5.47, 0.03, 1.32], [0.48, 0.05, 0.67, 0.05, 3.57, 2.25, 0.03, 1.55, 0.08, 0.58, 0.02, 0.09], [0.03, 0.05, 0.18, 0.0, 0.41, 0.02, 0.27, 0.11, 0.09, 0.18, 0.01, 0.07], [4.71, 0.03, 3.61, 0.01, 11.46, 1.71, 0.17, 13.22, 0.06, 14.85, 0.02, 1.52], [0.07, 0.11, 0.09, 0.05, 0.12, 0.11, 0.05, 0.03, 0.28, 0.14, 0.1, 0.04], [11.6, 0.04, 3.04, 0.0, 5.97, 0.47, 0.24, 15.77, 0.11, 17.14, 0.02, 5.96], [0.05, 0.06, 0.03, 0.04, 0.02, 0.07, 0.02, 0.0, 0.07, 0.02, 0.11, 0.02], [6.62, 0.09, 1.07, 0.0, 1.42, 0.21, 0.06, 2.23, 0.13, 6.91, 0.03, 4.99]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.17, 3.16, 1.13, 3.31, 0.19, 0.22, 0.0, 0.81, 0.0, 0.03, 0.05, 0.03, 0.0, 0.01, 0.0, 0.08, 0.0, 0.0, 0.0, 0.05, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.81, 66.38, 12.96, 15.4, 2.5, 3.68, 0.0, 2.8, 0.0, 1.35, 0.5, 0.9, 0.44, 0.55, 0.0, 0.41, 0.0, 0.26, 0.12, 0.09, 0.07, 0.07, 0.0, 0.12, 0.0, 0.04, 0.02, 0.06, 0.03, 0.02, 0.0, 0.09, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0], [0.14, 12.99, 12.89, 9.46, 1.35, 1.57, 0.0, 2.06, 0.0, 0.42, 0.35, 0.4, 0.19, 0.18, 0.0, 0.42, 0.0, 0.16, 0.11, 0.18, 0.03, 0.07, 0.0, 0.15, 0.0, 0.06, 0.05, 0.0, 0.05, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0], [4.29, 15.2, 8.82, 30.23, 2.76, 2.99, 0.0, 7.26, 0.0, 1.11, 0.48, 1.63, 0.52, 0.44, 0.0, 1.38, 0.0, 0.33, 0.15, 0.55, 0.09, 0.2, 0.0, 0.42, 0.0, 0.15, 0.07, 0.15, 0.01, 0.06, 0.0, 0.17, 0.0, 0.01, 0.03, 0.04, 0.01, 0.01, 0.0, 0.07, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.11, 2.28, 1.39, 2.89, 0.7, 0.43, 0.0, 0.46, 0.0, 0.14, 0.03, 0.15, 0.04, 0.11, 0.0, 0.22, 0.0, 0.05, 0.03, 0.02, 0.04, 0.0, 0.0, 0.0, 0.0, 0.02, 0.01, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.22, 3.03, 1.62, 3.01, 0.48, 1.87, 0.0, 1.1, 0.0, 0.14, 0.09, 0.24, 0.06, 0.1, 0.0, 0.15, 0.0, 0.09, 0.01, 0.04, 0.02, 0.05, 0.0, 0.09, 0.0, 0.03, 0.02, 0.06, 0.0, 0.01, 0.0, 0.05, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 2.85, 1.34, 7.31, 0.56, 0.76, 0.0, 11.0, 0.0, 0.33, 0.13, 0.8, 0.14, 0.08, 0.0, 1.26, 0.0, 0.04, 0.1, 0.46, 0.09, 0.05, 0.0, 0.6, 0.0, 0.09, 0.02, 0.09, 0.01, 0.02, 0.0, 0.17, 0.0, 0.01, 0.0, 0.06, 0.03, 0.01, 0.0, 0.07, 0.0, 0.02, 0.01, 0.04, 0.01, 0.02, 0.0, 0.06, 0.0, 0.0, 0.02, 0.04, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 1.66, 0.36, 1.07, 0.05, 0.17, 0.0, 0.22, 0.0, 0.08, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.49, 0.4, 0.52, 0.06, 0.11, 0.0, 0.09, 0.0, 0.0, 0.03, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19, 1.04, 0.49, 1.63, 0.1, 0.18, 0.0, 0.52, 0.0, 0.02, 0.02, 0.02, 0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.56, 0.24, 0.32, 0.09, 0.06, 0.0, 0.12, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.65, 0.25, 0.44, 0.03, 0.08, 0.0, 0.04, 0.0, 0.02, 0.01, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.67, 0.44, 1.7, 0.09, 0.1, 0.0, 0.87, 0.0, 0.03, 0.0, 0.04, 0.0, 0.02, 0.0, 0.06, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4, 0.14, 0.22, 0.02, 0.07, 0.0, 0.05, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.19, 0.08, 0.14, 0.02, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14, 0.21, 0.22, 0.57, 0.04, 0.06, 0.0, 0.18, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.12, 0.02, 0.11, 0.04, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.05, 0.14, 0.03, 0.04, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.23, 0.18, 0.43, 0.04, 0.04, 0.0, 0.42, 0.0, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.09, 0.1, 0.01, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06, 0.07, 0.04, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 0.06, 0.02, 0.12, 0.01, 0.02, 0.0, 0.11, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.02, 0.01, 0.03, 0.0, 0.0, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.01, 0.05, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.09, 0.04, 0.21, 0.02, 0.03, 0.0, 0.17, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.04, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.08, 0.0, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.02, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.06, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 0.65, 0.58, 0.9, 0.05, 0.11, 0.0, 0.07, 0.0, 0.03, 0.03, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.72, 60.07, 17.16, 17.76, 3.12, 4.36, 0.0, 2.94, 0.0, 1.21, 0.6, 0.92, 0.36, 0.45, 0.0, 0.85, 0.0, 0.32, 0.17, 0.14, 0.13, 0.17, 0.0, 0.26, 0.0, 0.1, 0.06, 0.08, 0.08, 0.05, 0.0, 0.17, 0.0, 0.1, 0.02, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.34, 17.42, 23.68, 9.85, 2.59, 1.8, 0.0, 1.76, 0.0, 0.59, 0.53, 0.56, 0.28, 0.25, 0.0, 0.53, 0.0, 0.2, 0.15, 0.21, 0.1, 0.1, 0.0, 0.16, 0.0, 0.05, 0.06, 0.01, 0.01, 0.02, 0.0, 0.11, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.13, 16.62, 9.18, 35.03, 3.01, 3.18, 0.0, 4.58, 0.0, 1.17, 0.51, 1.62, 0.46, 0.49, 0.0, 1.15, 0.0, 0.3, 0.18, 0.44, 0.07, 0.15, 0.0, 0.41, 0.0, 0.13, 0.12, 0.2, 0.05, 0.1, 0.0, 0.24, 0.0, 0.08, 0.01, 0.06, 0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.05, 2.53, 2.58, 2.98, 1.56, 0.82, 0.0, 0.44, 0.0, 0.31, 0.12, 0.14, 0.06, 0.11, 0.0, 0.16, 0.0, 0.11, 0.04, 0.04, 0.08, 0.03, 0.0, 0.03, 0.0, 0.0, 0.03, 0.03, 0.01, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.12, 3.83, 1.97, 3.3, 0.63, 1.26, 0.0, 0.68, 0.0, 0.24, 0.12, 0.19, 0.06, 0.07, 0.0, 0.13, 0.0, 0.04, 0.02, 0.04, 0.03, 0.04, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.02, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 2.95, 1.76, 4.1, 0.6, 0.56, 0.0, 1.2, 0.0, 0.31, 0.07, 0.24, 0.08, 0.08, 0.0, 0.25, 0.0, 0.09, 0.05, 0.05, 0.07, 0.05, 0.0, 0.16, 0.0, 0.05, 0.01, 0.03, 0.02, 0.02, 0.0, 0.04, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.6, 0.7, 0.95, 0.1, 0.18, 0.0, 0.16, 0.0, 0.08, 0.03, 0.09, 0.02, 0.07, 0.0, 0.04, 0.0, 0.07, 0.02, 0.01, 0.0, 0.02, 0.0, 0.03, 0.0, 0.02, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.75, 0.5, 0.45, 0.12, 0.05, 0.0, 0.1, 0.0, 0.04, 0.05, 0.02, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.28, 0.68, 1.34, 0.09, 0.15, 0.0, 0.28, 0.0, 0.08, 0.0, 0.07, 0.0, 0.05, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.53, 0.31, 0.32, 0.05, 0.08, 0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.01, 0.03, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.69, 0.3, 0.39, 0.06, 0.05, 0.0, 0.12, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.03, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.94, 0.68, 1.01, 0.09, 0.06, 0.0, 0.18, 0.0, 0.03, 0.01, 0.07, 0.02, 0.04, 0.0, 0.05, 0.0, 0.03, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.42, 0.22, 0.28, 0.04, 0.04, 0.0, 0.04, 0.0, 0.02, 0.01, 0.04, 0.03, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24, 0.1, 0.11, 0.02, 0.02, 0.0, 0.04, 0.0, 0.01, 0.03, 0.0, 0.03, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2, 0.19, 0.35, 0.02, 0.07, 0.0, 0.07, 0.0, 0.03, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.18, 0.03, 0.14, 0.04, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.18, 0.12, 0.18, 0.02, 0.03, 0.0, 0.05, 0.0, 0.01, 0.01, 0.0, 0.01, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.31, 0.13, 0.48, 0.02, 0.03, 0.0, 0.04, 0.0, 0.03, 0.01, 0.02, 0.02, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.11, 0.08, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11, 0.08, 0.08, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.06, 0.14, 0.01, 0.02, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.03, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.04, 0.06, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2, 0.09, 0.16, 0.02, 0.02, 0.0, 0.11, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.05, 0.03, 0.01, 0.02, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.07, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.757534938126477</v>
+        <v>3.234259952446618</v>
       </c>
       <c r="C5" t="n">
-        <v>3.053833656242593</v>
+        <v>2.923422651619159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5538091367971461</v>
+        <v>0.5375797615238134</v>
       </c>
       <c r="E5" t="n">
-        <v>5.83609458456595</v>
+        <v>3.034798181098704</v>
       </c>
       <c r="F5" t="n">
-        <v>1.246270159315387</v>
+        <v>1.114278147501781</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02099428493662025</v>
+        <v>0.01899578900704048</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2310156704641484</v>
+        <v>0.1976141695324503</v>
       </c>
       <c r="I5" t="n">
-        <v>28.04496389728466</v>
+        <v>12.10330120256453</v>
       </c>
       <c r="J5" t="n">
-        <v>5.077194106984683</v>
+        <v>4.26964869749257</v>
       </c>
       <c r="K5" t="n">
-        <v>1.755532041860814</v>
+        <v>1.621128776501114</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8193527872656563</v>
+        <v>0.6658436077638653</v>
       </c>
       <c r="M5" t="n">
-        <v>1.868971404275624</v>
+        <v>1.398792261202499</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[19.749167071043775, 23.365810493111518, 16.737992711194497, 19.760493414892245, 5.095596137842951, 6.395772040965813, 0.8036790404135223, 4.80910594601533, 2.079326814139615, 2.4398975388323176, 1.1464728518373213, 0.3840572873934309, 1.4914422550001718, 0.19595917942265423, 0.49588305072869715, 0.3192177939902477, 0.09949874371066199, 0.31288975694324056, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.13999999999999985, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[11.308598498487777, 18.29966939592079, 13.075947384415398, 11.74953616105759, 5.262850938417314, 6.578837283289504, 1.3001538370516017, 4.452808102759427, 1.763490856228067, 2.0774022239325736, 1.7783138080777523, 0.36482872693909385, 1.6339828640472343, 0.21794494717703417, 0.507050293363489, 0.29999999999999977, 0.21794494717703372, 0.1959591794226543, 0.0, 0.17058722109231986, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[22.16325788326256, 5.233545643251806, 18.662205121581966, 2.596516897691988, 16.1458973117012, 21.300354457144607, 4.565347741410293, 23.694936167881956, 12.20313074583731, 25.905065141782597, 7.790115531877558, 22.624701102998017]</t>
+          <t>[17.20214812167364, 3.1895297459029877, 13.309184798476577, 1.5523852614605715, 13.90785389627026, 12.921625284769714, 5.704945223225204, 19.911042162579033, 3.4891116347861346, 20.446249044751458, 2.090358820872626, 20.948508300115307]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[10.806683117404708, 77.22944710406776, 72.13222858057279, 18.83374365334731, 44.156624644553624, 2.5064716236175504, 6.952294585243062, 2.4319539469323836, 3.9661064030103903, 1.4352700094407325, 2.7742386342922996, 1.0234744745229354, 2.5160286166894053, 0.8052328855678962, 1.5726092966786123, 0.6526101439603891, 1.6874537030686205, 0.4694677837722203, 0.806225774829855, 0.3433656942677881, 1.2462343278854104, 0.2764054992217047, 0.6794115100585209, 0.21794494717703364, 0.7158212067269308, 0.2598076211353315, 0.47696960070847305, 0.09949874371066195, 0.24166091947189142, 0.13999999999999987, 0.09949874371066199, 0.0]</t>
+          <t>[10.048104298821741, 60.36639048344698, 68.70968708995842, 19.55407630137512, 16.40763237033302, 5.109549882328187, 5.885575587824864, 2.9033773437154173, 4.01471045033138, 2.012063617284504, 2.5642932749590104, 1.0641428475538426, 2.1863211109075436, 1.026206606877972, 1.8968131167829894, 1.006528688115744, 2.038111871316194, 0.5114684741017764, 0.8997777503361594, 0.4694677837722205, 0.5635601121442144, 0.371348892552543, 0.3815756805667785, 0.17058722109231983, 0.28618176042508386, 0.24166091947189122, 0.21794494717703375, 0.09949874371066196, 0.1705872210923198, 0.0, 0.09949874371066197, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[18.21165560842835, 91.2535939018294, 55.13719162235233, 60.187045117699554, 11.058801924259248, 14.544565995587496, 0.0, 46.941430527839685, 0.0, 4.158978239904603, 2.140654105641545, 4.981274937202323, 1.7673709288092294, 1.9083762731704654, 0.0, 5.249180888481553, 0.0, 1.336974195712094, 0.8765842800324453, 2.6437851652507622, 0.7683749084919425, 0.7279423054061355, 0.0, 2.3937418407171647, 0.0, 0.8954886933959573, 0.5656854249492376, 0.8954886933959584, 0.4160528812542942, 0.44090815370097247, 0.0, 1.6349617732534305, 0.0, 0.21794494717703375, 0.23748684174075804, 0.42473521163190603, 0.19595917942265412, 0.259807621135332, 0.0, 0.4330127018922197, 0.0, 0.2551470164434616, 0.09949874371066199, 0.3192177939902475, 0.13999999999999999, 0.22158519806160326, 0.0, 0.5494542747126461, 0.0, 0.0, 0.13999999999999985, 0.36055512754639873, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.17058722109231972, 0.0, 0.09949874371066199, 0.0, 0.17058722109231975, 0.0, 0.3605551275463987]</t>
+          <t>[3.3901474894169414, 74.03716364097156, 65.1114513737791, 67.76618920966413, 15.804923283584772, 9.72798026313787, 0.0, 9.648269274849246, 0.0, 3.956008088970498, 2.3409399821439245, 3.5815639042183793, 1.5652156400956392, 2.2658111130453915, 0.0, 3.274141108748979, 0.0, 1.9041796133768474, 0.9949874371066196, 1.4485855169785455, 0.8185352771872451, 1.1890752709563857, 0.0, 1.707951989957563, 0.0, 0.7799999999999997, 0.6036555309114631, 0.8728688332160797, 0.5156549233741496, 0.5450688029964661, 0.0, 1.3288717018583842, 0.09949874371066196, 0.702780193232564, 0.19595917942265406, 0.3929376540877704, 0.0, 0.35440090293338716, 0.0, 0.3316624790355398, 0.09949874371066196, 0.1705872210923198, 0.17058722109231983, 0.13999999999999987, 0.1399999999999999, 0.09949874371066196, 0.0, 0.21794494717703372, 0.0, 0.13999999999999993, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265415]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[12.343139795044046, 0.22158519806160318, 6.917340529423141, 0.25980762113533207, 2.7284427793157033, 1.0313098467482984, 0.09949874371066195, 3.764784190362045, 0.32787192621509986, 7.03135833249878, 1.0897706180660216, 7.309062867426986], [0.4302324952859784, 2.325403190846694, 0.17058722109231986, 0.3411744421846401, 0.09949874371066199, 0.41999999999999904, 0.1989974874213239, 0.0, 0.7249827584156742, 0.0, 1.32951118836962, 0.0], [7.791508198032007, 0.25980762113533207, 8.128044045156251, 0.13999999999999987, 7.524626236564844, 1.0613199329137275, 0.13999999999999987, 1.8275666882497066, 0.13999999999999985, 1.8117394956229214, 0.24166091947189128, 2.3505531263938715], [0.3136877428271622, 0.5385164807134514, 0.2598076211353318, 0.6427285585688564, 0.17058722109232, 0.9314504817756, 0.09949874371066196, 0.0, 0.19899748742132392, 0.0, 0.13999999999999987, 0.0], [2.55960934519313, 0.13999999999999987, 7.738287924340887, 0.23748684174075815, 7.13478100574923, 7.889334572700036, 1.104717158371317, 7.146040861903883, 0.13999999999999987, 3.2401234544381183, 0.09949874371066195, 1.7916472867168918], [0.9614572273377532, 0.09949874371066196, 0.8163332652783427, 0.8248636250920497, 9.075522023553248, 7.286178696683191, 0.32419130154894577, 4.082584965435498, 0.8645808232895283, 0.9109884741312588, 0.41999999999999954, 0.09949874371066197], [0.22158519806160318, 0.13999999999999987, 0.31368774282716216, 0.22158519806160315, 1.797665152357361, 0.2215851980616029, 1.697056274847719, 0.09949874371066195, 0.34117444218464016, 0.4302324952859783, 0.13999999999999987, 0.22158519806160318], [3.021175268004159, 0.09949874371066199, 2.010447711331982, 0.09949874371066199, 7.171966257589334, 4.572646935856733, 0.35369478367654705, 13.56714782111553, 0.1959591794226541, 9.856145291136896, 0.24166091947189114, 1.1973303637676618], [0.25980762113533173, 0.6708203932499365, 0.09949874371066195, 0.29580398915498085, 0.276405499221705, 1.1146299834474205, 0.35707142142714193, 0.24166091947189114, 6.450201547238653, 0.4710626285325549, 2.9869549712039505, 0.17058722109231989], [7.618260956412559, 0.09949874371066195, 1.8785898967044408, 0.0, 3.2183225444321146, 0.9945350672550468, 0.9153687781435433, 10.409207462626538, 0.5782732917920386, 13.865997980672006, 0.1959591794226542, 6.629291063152983], [0.8280096617793773, 1.2913558765886337, 0.13999999999999987, 0.27999999999999975, 0.3278719262150994, 0.4621688003316531, 0.3136877428271622, 0.09949874371066199, 3.356709698499414, 0.17058722109231972, 1.6843693181722352, 0.0], [6.548160046913943, 0.13999999999999987, 1.0644716999526105, 0.0, 1.8894178997776012, 0.2374868417407583, 0.09949874371066195, 2.249866662715816, 0.19595917942265415, 7.68819874873172, 0.13999999999999987, 7.292434435769717]]</t>
+          <t>[[9.090676542480214, 0.33704599092705406, 5.643925938564397, 0.17058722109231983, 2.49581649966499, 0.9219002115196626, 0.25980762113533196, 3.4543306153291122, 0.2917190429162963, 5.170647928451521, 0.1705872210923197, 6.6187234418730645], [0.3104834939252005, 1.0873821775254529, 0.29171904291629636, 0.27999999999999975, 0.21794494717703375, 0.13999999999999987, 0.36932370625238836, 0.17058722109231977, 0.7570336848516054, 0.19899748742132398, 0.38091993909481736, 0.276405499221705], [5.580645123997763, 0.17058722109231975, 6.009816968926758, 0.23748684174075815, 5.7690207141247125, 1.2782409788455384, 0.4302324952859783, 2.0014744564945115, 0.13999999999999987, 2.3108440016582685, 0.2598076211353318, 2.118372016431487], [0.0, 0.35707142142714193, 0.2917190429162962, 0.4264973622427223, 0.28618176042508364, 0.19595917942265417, 0.17058722109231966, 0.0, 0.32787192621509936, 0.24166091947189133, 0.22158519806160282, 0.0], [2.430308622377001, 0.19595917942265423, 5.57654911213019, 0.4308131845707599, 7.368005157435763, 4.368065933568311, 1.6241613220367008, 5.03829336184387, 0.33166247903553975, 2.875604284320081, 0.17058722109231989, 1.541946821391711], [0.9431860898041285, 0.29580398915498046, 1.2732242536175635, 0.21794494717703367, 4.764986883507655, 4.579028281196787, 0.17058722109232002, 2.2332711434127286, 0.3919183588453077, 0.8852118390532285, 0.1989974874213239, 0.2861817604250837], [0.17058722109231966, 0.25980762113533173, 0.6982836100038435, 0.0, 2.0980705421887, 0.19899748742132392, 1.5352849898308796, 0.46679760067935255, 0.3491418050019217, 0.7400000000000014, 0.09949874371066199, 0.4302324952859784], [3.296346462373153, 0.17058722109231997, 2.1995226754912074, 0.09949874371066195, 4.934409792467585, 2.604976007567055, 0.762299153875957, 9.15049725424799, 0.31048349392520036, 7.024777576550023, 0.1399999999999999, 1.7232527382830412], [0.32419130154894565, 0.5271622141238883, 0.34914180500192227, 0.25980762113533223, 0.43081318457076034, 0.4877499359302882, 0.21794494717703367, 0.1705872210923199, 1.077775486824599, 0.400499687890016, 0.5000000000000012, 0.19595917942265428], [5.283937925449163, 0.19595917942265417, 2.029384143034531, 0.0, 3.462527978226313, 0.7410128204019146, 1.0209799214480155, 7.12861136547645, 0.37134889255254305, 11.677345588788572, 0.13999999999999987, 5.984847533563406], [0.21794494717703383, 0.31048349392520036, 0.17058722109231986, 0.2416609194718911, 0.1399999999999999, 0.29171904291629613, 0.13999999999999987, 0.0, 0.4950757517794619, 0.13999999999999987, 0.7196526940128808, 0.13999999999999987], [6.449465094098891, 0.31921779399024724, 1.5116547224812953, 0.0, 1.517761509592334, 0.6212084996198943, 0.2764054992217046, 2.235419423732379, 0.48280430818293224, 6.43443082175883, 0.17058722109231986, 6.518427724536029]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.5301886456724626, 8.11507239647312, 2.20297526086881, 9.74955896438398, 0.6114736298484181, 0.8195120499419154, 0.0, 3.6047052584087926, 0.0, 0.1705872210923199, 0.21794494717703367, 0.2215851980616033, 0.0, 0.09949874371066196, 0.0, 0.36551333764994126, 0.0, 0.0, 0.0, 0.25980762113533173, 0.09949874371066196, 0.0, 0.0, 0.19899748742132398, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.22158519806160337, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [9.831271535259322, 74.77175669997331, 17.684976675133043, 16.426198586404585, 2.7838821814150108, 4.051863768687196, 0.0, 2.842534080710379, 0.0, 2.281994741448805, 1.0535653752852738, 1.3379088160259651, 0.803990049689672, 0.9420721840708377, 0.0, 0.8377947242612596, 0.0, 0.5219195340279951, 0.38157568056677843, 0.28618176042508353, 0.29171904291629636, 0.2551470164434616, 0.0, 0.4069397989875159, 0.0, 0.195959179422654, 0.13999999999999987, 0.27640549922170465, 0.22158519806160298, 0.13999999999999987, 0.0, 0.47106262853255476, 0.0, 0.13999999999999987, 0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0], [0.4476605857119881, 17.508566474728877, 29.496065839362384, 17.324791485036698, 2.882273408266466, 2.2989345358230633, 0.0, 3.841405992602188, 0.0, 1.0017983829094554, 0.7664854858377951, 0.9165151389911674, 0.5233545643251815, 0.4975942121849889, 0.0, 0.9713907555664715, 0.0, 0.542586398650022, 0.371348892552543, 0.606300255648965, 0.2215851980616031, 0.2917190429162962, 0.0, 0.4092676385936229, 0.0, 0.23748684174075807, 0.29580398915498063, 0.0, 0.25980762113533185, 0.17058722109231983, 0.0, 0.22158519806160312, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0], [12.661196625911785, 15.72323122007688, 17.635407565463293, 42.28234974549074, 4.458968490581652, 4.198797446888811, 0.0, 10.53529306664034, 0.0, 1.5613775968675876, 1.0342146779078318, 2.7628065440779586, 0.8885943956609222, 0.8754427451295723, 0.0, 2.5720808696462103, 0.0, 0.6790434448545979, 0.409267638593623, 1.4722431864335455, 0.34914180500192243, 0.4898979485566351, 0.0, 0.7769169839822014, 0.0, 0.4092676385936232, 0.2917190429162963, 0.409267638593623, 0.09949874371066197, 0.27640549922170493, 0.0, 0.5301886456724626, 0.0, 0.09949874371066199, 0.17058722109231994, 0.24166091947189106, 0.09949874371066199, 0.09949874371066195, 0.0, 0.2551470164434616, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.259807621135332, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2598076211353315], [0.48774993593028804, 2.3709913538433662, 2.870174210740526, 5.071281889226826, 2.0420577856662145, 1.0124722218411721, 0.0, 1.0716342659695057, 0.0, 0.37469987990390413, 0.17058722109232, 0.4555216789572153, 0.19595917942265384, 0.31288975694324056, 0.0, 0.5758472019555191, 0.0, 0.2179449471770336, 0.17058722109231994, 0.1399999999999999, 0.19595917942265398, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066196, 0.13999999999999985, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7291090453423277, 3.336030575399451, 2.726829660979945, 4.03607482586733, 1.0906878563548785, 5.742220824733234, 0.0, 2.118962010041708, 0.0, 0.5102940328869229, 0.2861817604250836, 0.6651315659326358, 0.23748684174075832, 0.3605551275463987, 0.0, 0.40926763859362314, 0.0, 0.3192177939902478, 0.09949874371066196, 0.19595917942265412, 0.13999999999999987, 0.2179449471770337, 0.0, 0.2861817604250835, 0.0, 0.17058722109231983, 0.1399999999999999, 0.23748684174075826, 0.0, 0.09949874371066196, 0.0, 0.25980762113533185, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2374868417407582, 2.991237202229203, 2.6199999999999997, 10.505898343311726, 0.9931767214348103, 1.7895250766614028, 0.0, 32.79481666361317, 0.0, 0.8837986195961157, 0.4160528812542943, 2.258317958127241, 0.4247352116319065, 0.27129319932501095, 0.0, 3.239197431463538, 0.0, 0.19595917942265417, 0.33166247903553986, 1.126232658024087, 0.3491418050019219, 0.21794494717703378, 0.0, 1.5684387141358127, 0.0, 0.4023679907746145, 0.13999999999999987, 0.2861817604250837, 0.09949874371066199, 0.13999999999999985, 0.0, 0.6009159675029447, 0.0, 0.09949874371066199, 0.0, 0.23748684174075804, 0.17058722109231986, 0.09949874371066195, 0.0, 0.2917190429162966, 0.0, 0.13999999999999999, 0.09949874371066199, 0.1959591794226542, 0.09949874371066199, 0.19899748742132398, 0.0, 0.4431703961232067, 0.0, 0.0, 0.13999999999999985, 0.19595917942265406, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231975, 2.4133793734098243, 0.8187795796183489, 1.5378881623837286, 0.25980762113533185, 0.6641535966928133, 0.0, 0.5929586832149442, 0.0, 0.30594117081556693, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 1.0246462804304708, 0.8366600265340749, 1.1356055653262709, 0.2374868417407583, 0.421781934179263, 0.0, 0.3192177939902474, 0.0, 0.0, 0.22158519806160315, 0.09949874371066197, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6433506042586733, 1.5869467539901907, 1.0629675441893789, 2.910858979751508, 0.3316624790355398, 0.5362835071116766, 0.0, 2.137662274541981, 0.0, 0.13999999999999985, 0.13999999999999987, 0.13999999999999987, 0.09949874371066193, 0.09949874371066196, 0.0, 0.19595917942265403, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0799999999999987, 0.6019966777316968, 0.7194442299441992, 0.28618176042508386, 0.2764054992217044, 0.0, 0.3815756805667785, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.227802915780869, 0.7123903424387503, 0.8163332652783427, 0.17058722109231997, 0.27129319932501095, 0.0, 0.1959591794226542, 0.0, 0.13999999999999985, 0.09949874371066199, 0.13999999999999996, 0.09949874371066193, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999996, 1.068222823197482, 0.9200000000000005, 3.284813541131368, 0.28618176042508364, 0.3316624790355398, 0.0, 2.5871026264916477, 0.0, 0.17058722109231983, 0.0, 0.24166091947189114, 0.0, 0.13999999999999985, 0.0, 0.2764054992217047, 0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.24166091947189144, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7348469228349527, 0.4247352116319061, 0.5929586832149443, 0.13999999999999985, 0.2551470164434616, 0.0, 0.25980762113533173, 0.0, 0.0, 0.09949874371066197, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.560267793113258, 0.30594117081556715, 0.3469870314579497, 0.13999999999999999, 0.09949874371066196, 0.0, 0.2416609194718914, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7213875518748568, 0.45376205218153726, 0.6569627082262741, 1.7161293657530599, 0.19595917942265415, 0.23748684174075824, 0.0, 0.6539113089708728, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22158519806160326, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.45343136195018463, 0.13999999999999993, 0.39736632972611075, 0.19595917942265415, 0.09949874371066197, 0.0, 0.31368774282716244, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34698703145794974, 0.21794494717703383, 0.4476605857119881, 0.17058722109231975, 0.19595917942265417, 0.0, 0.2598076211353316, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999999, 0.5631163290120439, 0.45563142999578077, 1.0512373661547612, 0.19595917942265423, 0.19595917942265423, 0.0, 1.3204544672195253, 0.0, 0.13999999999999987, 0.09949874371066199, 0.13999999999999996, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3316624790355398, 0.31921779399024786, 0.45825756949558455, 0.09949874371066199, 0.19595917942265423, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066197, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2764054992217047, 0.38091993909481753, 0.19595917942265412, 0.0, 0.13999999999999993, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.17058722109231986, 0.27640549922170465, 0.13999999999999993, 0.4534313619501852, 0.09949874371066196, 0.13999999999999996, 0.0, 0.421781934179263, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.13999999999999987, 0.09949874371066196, 0.17058722109231972, 0.0, 0.0, 0.0, 0.24166091947189144, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25980762113533196, 0.09949874371066196, 0.21794494717703378, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132398, 0.5494542747126459, 0.2416609194718913, 0.7251896303726357, 0.19899748742132398, 0.1705872210923198, 0.0, 0.6333245613427606, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.17058722109231994, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.19899748742132398, 0.19595917942265428, 0.0, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19899748742132392, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.30594117081556693, 0.0, 0.09949874371066199, 0.0, 0.1959591794226543, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.13999999999999993, 0.09949874371066199, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.13999999999999996, 0.13999999999999993, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.36932370625238764, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132398, 0.0, 0.0, 0.19595917942265398, 0.0, 0.0, 0.0, 0.19595917942265406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066193, 0.09949874371066199, 0.0, 0.0, 0.2416609194718911, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.0, 1.1258330249197706, 1.0313098467482988, 2.0760539492026697, 0.2179449471770336, 0.39736632972611063, 0.0, 0.25514701644346155, 0.0, 0.17058722109231989, 0.17058722109231977, 0.17058722109231975, 0.0, 0.13999999999999993, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.0870142593360956, 70.42389580249024, 18.24649007343604, 14.823036126246201, 4.205425067695299, 3.935784546948677, 0.0, 2.399249882775865, 0.0, 1.626622267153625, 1.0099504938362074, 1.1634431657799194, 0.640624695121879, 0.6837397165588674, 0.0, 1.2278029157808672, 0.0, 0.7600000000000008, 0.4013726448077897, 0.40049968789001583, 0.3912799509302769, 0.44844174649557345, 0.0, 0.5765414122159827, 0.0, 0.2999999999999999, 0.23748684174075824, 0.2712931993250109, 0.3655133376499408, 0.21794494717703367, 0.0, 0.5487257967327581, 0.0, 0.45825756949558466, 0.1399999999999999, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6959885056522129, 18.926795819683797, 34.37641051651555, 11.467671952057223, 3.789709751418965, 2.592296279363145, 0.0, 2.1406541056415445, 0.0, 0.8954886933959586, 1.0045396955820116, 0.9728309205612242, 0.584465567848098, 0.6383572667401852, 0.0, 1.2037856952132306, 0.0, 0.48989794855663543, 0.3840572873934309, 0.6048966853934646, 0.29999999999999977, 0.33166247903553986, 0.0, 0.4409081537009723, 0.0, 0.2179449471770336, 0.23748684174075818, 0.09949874371066195, 0.09949874371066197, 0.13999999999999987, 0.0, 0.39736632972611063, 0.0, 0.19899748742132395, 0.0, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066197, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.265634568945311, 13.806360852882271, 11.558875377821149, 52.02604251718555, 4.603248852712613, 3.2966043135323346, 0.0, 6.031881961709796, 0.0, 1.4356531614564845, 0.7809609465267776, 2.2126002802133056, 0.8296987405076617, 0.7936623967405783, 0.0, 1.5516120649182898, 0.0, 0.7416198487095669, 0.45563142999578105, 0.8284926070883201, 0.25514701644346144, 0.49749371855331037, 0.0, 0.775822144566653, 0.0, 0.39127995093027684, 0.35440090293338716, 0.6480740698407857, 0.21794494717703383, 0.2999999999999999, 0.0, 0.7227724399837064, 0.0, 0.30594117081556693, 0.09949874371066197, 0.2764054992217047, 0.0, 0.2416609194718912, 0.0, 0.1959591794226543, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.21794494717703372, 3.281630692201667, 3.957726620169715, 4.701021165661775, 4.858641785519902, 1.620987353436171, 0.0, 1.0613199329137286, 0.0, 0.6587108622149781, 0.3544009029333872, 0.42473521163190603, 0.2764054992217045, 0.3433656942677881, 0.0, 0.3929376540877701, 0.0, 0.34336569426778807, 0.19595917942265423, 0.19595917942265423, 0.27129319932501084, 0.1705872210923198, 0.0, 0.17058722109231972, 0.0, 0.0, 0.1705872210923198, 0.17058722109231966, 0.09949874371066195, 0.1705872210923199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.32496153618543855, 3.4031015265489812, 2.7182899035974804, 3.2388269481403307, 1.6950221237494223, 2.1661948204166697, 0.0, 1.0759182125050222, 0.0, 0.567802782663136, 0.32496153618543855, 0.5233545643251816, 0.27640549922170504, 0.2551470164434616, 0.0, 0.4394314508543964, 0.0, 0.195959179422654, 0.13999999999999987, 0.2416609194718915, 0.17058722109231977, 0.2416609194718914, 0.0, 0.25514701644346155, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.13999999999999993, 0.09949874371066196, 0.0, 0.2551470164434616, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2179449471770336, 2.255548713727992, 2.1124393482417427, 5.710516614107693, 1.303840481040532, 0.9520504188329518, 0.0, 2.477902338672773, 0.0, 0.5233545643251808, 0.25514701644346155, 0.6499230723708772, 0.3059411708155671, 0.271293199325011, 0.0, 0.5545268253204708, 0.0, 0.3491418050019221, 0.21794494717703375, 0.2598076211353318, 0.291719042916296, 0.21794494717703397, 0.0, 0.5425863986500217, 0.0, 0.25980762113533185, 0.09949874371066199, 0.1705872210923197, 0.13999999999999987, 0.13999999999999993, 0.0, 0.24166091947189117, 0.0, 0.1705872210923198, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 1.7663521732655696, 1.0049875621120887, 1.4026760139105539, 0.36055512754639873, 0.4770744176750626, 0.0, 0.4841487374764088, 0.0, 0.3655133376499406, 0.1705872210923198, 0.3192177939902475, 0.13999999999999987, 0.3241913015489465, 0.0, 0.1959591794226542, 0.0, 0.29171904291629647, 0.13999999999999987, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.17058722109231975, 0.0, 0.1399999999999999, 0.09949874371066197, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 1.1521718621802912, 0.9327379053088815, 0.8170067319184099, 0.35440090293338716, 0.21794494717703375, 0.0, 0.2999999999999998, 0.0, 0.19595917942265412, 0.21794494717703367, 0.1399999999999999, 0.13999999999999987, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265415, 1.715109325961467, 1.0851727973000433, 2.011069367277021, 0.319217793990248, 0.3570714214271427, 0.0, 0.7626270385975051, 0.0, 0.30594117081556715, 0.0, 0.25514701644346155, 0.0, 0.21794494717703375, 0.0, 0.19595917942265395, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.953467356546621, 0.6114736298484178, 0.6462197768561407, 0.21794494717703367, 0.27129319932501095, 0.0, 0.21794494717703364, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.09949874371066199, 0.17058722109231983, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.09949874371066197, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999996, 1.2140428328522854, 0.7000000000000004, 0.6766830868286866, 0.27640549922170504, 0.21794494717703383, 0.0, 0.32496153618543866, 0.0, 0.09949874371066196, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.17058722109231986, 0.09949874371066199, 0.0, 0.17058722109231975, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.21794494717703375, 1.2634872377669675, 1.1651609330903612, 1.6643016553497756, 0.28618176042508375, 0.2374868417407581, 0.0, 0.47707441767506287, 0.0, 0.22158519806160326, 0.09949874371066199, 0.2917190429162965, 0.13999999999999985, 0.2416609194718914, 0.0, 0.2958039891549808, 0.0, 0.17058722109231975, 0.09949874371066197, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.09949874371066196, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6954135460285488, 0.5400000000000004, 0.633719180710194, 0.19595917942265412, 0.1959591794226541, 0.0, 0.1959591794226541, 0.0, 0.13999999999999987, 0.09949874371066197, 0.19595917942265415, 0.1705872210923198, 0.17058722109231994, 0.0, 0.13999999999999987, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.17058722109231983, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5122499389946283, 0.33166247903553986, 0.3433656942677881, 0.13999999999999999, 0.1399999999999999, 0.0, 0.19595917942265395, 0.0, 0.09949874371066195, 0.1705872210923198, 0.0, 0.17058722109231986, 0.0, 0.0, 0.21794494717703364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5477225575051659, 0.5421254467371924, 0.7123903424387509, 0.19899748742132395, 0.2917190429162965, 0.0, 0.35369478367654794, 0.0, 0.17058722109231975, 0.09949874371066196, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.47707441767506253, 0.17058722109231972, 0.3469870314579495, 0.19595917942265412, 0.17058722109231977, 0.0, 0.17058722109232002, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.5173006862551025, 0.3815756805667784, 0.43312815655415426, 0.13999999999999996, 0.1705872210923197, 0.0, 0.2598076211353319, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066196, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1959591794226542, 0.6433506042586732, 0.4616275555033516, 0.9641576634555166, 0.13999999999999987, 0.17058722109231983, 0.0, 0.2416609194718915, 0.0, 0.17058722109231983, 0.09949874371066199, 0.13999999999999987, 0.13999999999999985, 0.1705872210923199, 0.0, 0.13999999999999999, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4630334761116093, 0.37134889255254305, 0.27129319932501084, 0.09949874371066195, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31288975694324056, 0.30594117081556704, 0.30594117081556693, 0.17058722109231966, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.27129319932501095, 0.27640549922170465, 0.5295280917949489, 0.09949874371066196, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066199, 0.1399999999999999, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434616, 0.17058722109231994, 0.2374868417407583, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35440090293338716, 0.1959591794226542, 0.23748684174075815, 0.1399999999999999, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4898979485566353, 0.28618176042508375, 0.542586398650022, 0.13999999999999987, 0.13999999999999985, 0.0, 0.371348892552543, 0.0, 0.19899748742132392, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3815756805667783, 0.25980762113533185, 0.17058722109231997, 0.09949874371066199, 0.13999999999999987, 0.0, 0.2215851980616032, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.1399999999999999, 0.2551470164434615, 0.09949874371066199, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21794494717703378, 0.0, 0.2764054992217046, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999999, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001022281070304335</v>
+        <v>0.002647027785125294</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2730648609357596</v>
+        <v>0.3953771141049496</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002601058191986184</v>
+        <v>0.001205116741718778</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1896807703367378</v>
+        <v>0.447179621649766</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008534534232802714</v>
+        <v>0.0005414987137020895</v>
       </c>
       <c r="G6" t="n">
-        <v>1.010985037308314</v>
+        <v>1.107292605649371</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000649032783453999</v>
+        <v>0.007326149403677776</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4430381290354281</v>
+        <v>0.039408854636849</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09992602208187168</v>
+        <v>0.110529249210427</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02382742853605679</v>
+        <v>0.006252020901600975</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001245152920959752</v>
+        <v>0.005791283039845331</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006258680015386889</v>
+        <v>0.002296185141944506</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05586883883673343</v>
+        <v>0.09952421418095903</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1255771643683972</v>
+        <v>0.03294626319589943</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02958364040500385</v>
+        <v>0.04947653821578324</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01727110818581218</v>
+        <v>0.01657912693503708</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8882146427158437</v>
+        <v>0.8494421716532831</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03808433941542873</v>
+        <v>0.08892902139403061</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9627722226886384</v>
+        <v>0.9558080960842755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7099754843970408</v>
+        <v>0.6553162453161754</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9642760756203812</v>
+        <v>0.956514368273145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6854894068912316</v>
+        <v>0.6103819463331672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9602529873033182</v>
+        <v>0.9412679049546911</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7512114131338844</v>
+        <v>0.7680613521918502</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8933394165801808</v>
+        <v>0.8652096053127774</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5406589379569667</v>
+        <v>0.6440464978952329</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8222331961330371</v>
+        <v>0.82067806368824</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9377418037031973</v>
+        <v>0.94991473588557</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9716206339875361</v>
+        <v>0.947016169505617</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9385607114602106</v>
+        <v>0.9569456623092053</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8029821016119727</v>
+        <v>0.7397567847307945</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9632576557015886</v>
+        <v>0.8626896871791334</v>
       </c>
       <c r="P7" t="n">
-        <v>0.947675747140416</v>
+        <v>0.9032222222437585</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9664124169873356</v>
+        <v>0.96534293132513</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8515874657536689</v>
+        <v>0.709947766557144</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9522954273365536</v>
+        <v>0.9469226391651117</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01977093919867023</v>
+        <v>0.02444732475255127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03794292329471523</v>
+        <v>0.04471146352289088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01572410490120997</v>
+        <v>0.03768866482405291</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03764343982431789</v>
+        <v>0.04062950393827882</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05075461108685331</v>
+        <v>0.06895468669630096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8191852136718647</v>
+        <v>0.7997556438416964</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1166508986631203</v>
+        <v>0.1049672210326431</v>
       </c>
       <c r="I8" t="n">
-        <v>0.174134129819763</v>
+        <v>0.1246574991107897</v>
       </c>
       <c r="J8" t="n">
-        <v>1.481525523097736</v>
+        <v>1.961203238202658</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03132852977955974</v>
+        <v>0.02599227249944162</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2657590656450396</v>
+        <v>0.3702094950202859</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3065390411071169</v>
+        <v>0.2936120945381547</v>
       </c>
       <c r="N8" t="n">
-        <v>1.88654105331204</v>
+        <v>1.67195954921607</v>
       </c>
       <c r="O8" t="n">
-        <v>1.350327863332538</v>
+        <v>2.375464492075602</v>
       </c>
       <c r="P8" t="n">
-        <v>1.235645706436364</v>
+        <v>0.9492294569077827</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3797919933826734</v>
+        <v>0.2326216856610209</v>
       </c>
       <c r="R8" t="n">
-        <v>1.471971382697973</v>
+        <v>2.055443380316164</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3982957831053389</v>
+        <v>0.2962105143037587</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9448175953400471</v>
+        <v>0.9531314800344368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8364589870921271</v>
+        <v>0.8353264169086372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9539715105379838</v>
+        <v>0.9439434673785795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8943111728620442</v>
+        <v>0.7824676514315795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9366692170922606</v>
+        <v>0.9231541284154061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7605709118786007</v>
+        <v>0.7855108611439248</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7894898374514489</v>
+        <v>0.7492219990430672</v>
       </c>
       <c r="I9" t="n">
-        <v>0.48490310716958</v>
+        <v>0.6603895862198975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1649383945943579</v>
+        <v>0.1379564622533747</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9423247290744657</v>
+        <v>0.9203729589978107</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9508550818022385</v>
+        <v>0.9018334619377548</v>
       </c>
       <c r="M9" t="n">
-        <v>0.935235211965211</v>
+        <v>0.9371024252441281</v>
       </c>
       <c r="N9" t="n">
-        <v>0.681027556200736</v>
+        <v>0.4519764379156434</v>
       </c>
       <c r="O9" t="n">
-        <v>0.913484462863165</v>
+        <v>0.8193657039077663</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8942638014031702</v>
+        <v>0.8751125130196671</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9373695556885147</v>
+        <v>0.9363131738552048</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8298950128980861</v>
+        <v>0.6078055654520388</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9402234386101617</v>
+        <v>0.9173863268863747</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/9_evaluation/distances/b/b_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/b/b_kl_oa_metrics.xlsx
@@ -532,69 +532,69 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.90379825653798</v>
+        <v>71.61516811955168</v>
       </c>
       <c r="C2" t="n">
         <v>11.04109589041096</v>
       </c>
       <c r="D2" t="n">
-        <v>3.426064757160648</v>
+        <v>3.427384806973848</v>
       </c>
       <c r="E2" t="n">
         <v>17.9788293897883</v>
       </c>
       <c r="F2" t="n">
-        <v>6.020622665006226</v>
+        <v>6.023723536737235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008468244084682441</v>
+        <v>0.008455790784557908</v>
       </c>
       <c r="H2" t="n">
-        <v>2.397770859277708</v>
+        <v>2.388418430884184</v>
       </c>
       <c r="I2" t="n">
-        <v>5.936488169364882</v>
+        <v>5.935242839352428</v>
       </c>
       <c r="J2" t="n">
-        <v>337.4308841843089</v>
+        <v>337.398505603985</v>
       </c>
       <c r="K2" t="n">
-        <v>5.658555417185553</v>
+        <v>5.661469489414695</v>
       </c>
       <c r="L2" t="n">
-        <v>3.006226650062267</v>
+        <v>3.005217932752179</v>
       </c>
       <c r="M2" t="n">
-        <v>4.87225404732254</v>
+        <v>4.837895392278954</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[79.54794520547945, 26.615193026151932, 119.90037359900374, 47.342465753424655, 13.165628891656288, 22.998754669987548, 0.2129514321295143, 14.250311332503113, 3.25653798256538, 4.266500622665006, 1.7148194271481942, 0.1320049813200498, 2.667496886674969, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[79.03113325031133, 26.998754669987548, 121.60398505603985, 47.21793275217933, 12.58530510585305, 22.265255292652554, 0.1917808219178082, 14.12826899128269, 3.2391033623910337, 4.247820672478206, 1.6874221668742218, 0.12702366127023662, 2.7148194271481945, 0.0112079701120797, 0.20672478206724781, 0.07098381070983811, 0.0161892901618929, 0.049813200498132, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[61.74595267745953, 1.1718555417185554, 58.93648816936488, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.34620174346202, 1.4333748443337484, 57.05230386052304, 0.8194271481942715, 21.919053549190537]</t>
+          <t>[61.72976338729763, 1.1706102117061021, 58.935242839352426, 1.0087173100871731, 65.3175591531756, 13.176836861768368, 1.5031133250311333, 53.344956413449566, 1.4333748443337484, 57.04358655043587, 0.8194271481942715, 21.915317559153177]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[11.666251556662516, 71.21793275217932, 148.82814445828146, 24.763387297633873, 40.52926525529265, 3.1805728518057284, 9.570361145703611, 2.2577833125778333, 8.5093399750934, 1.1095890410958904, 2.4420921544209215, 0.6313823163138231, 3.4221668742216687, 0.5255292652552926, 1.7036114570361145, 0.42092154420921546, 3.24906600249066, 0.24283935242839352, 0.6973848069738481, 0.1581569115815691, 0.45828144458281445, 0.0759651307596513, 0.17683686176836863, 0.031133250311332503, 0.3026151930261519, 0.0224159402241594, 0.0647571606475716, 0.014943960149439602, 0.10211706102117062, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
+          <t>[7.661270236612703, 78.26276463262765, 146.58779576587796, 24.058530510585307, 40.43586550435865, 3.1892901618929015, 9.550435865504358, 2.2552926525529267, 8.511830635118306, 1.108343711083437, 2.4458281444582815, 0.6301369863013698, 3.4221668742216687, 0.5255292652552926, 1.706102117061021, 0.41967621419676215, 3.2428393524283936, 0.23661270236612703, 0.6961394769613948, 0.1569115815691158, 0.45828144458281445, 0.06973848069738481, 0.17683686176836863, 0.031133250311332503, 0.3001245330012453, 0.0224159402241594, 0.0647571606475716, 0.012453300124533, 0.10336239103362391, 0.0136986301369863, 0.0323785803237858, 0.009962640099626401]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[4.204234122042341, 113.33001245330013, 59.40722291407223, 77.02366127023662, 13.826899128268991, 17.907845579078455, 0.0, 21.01120797011208, 0.0, 4.919053549190536, 2.4782067247820674, 4.731008717310087, 1.775840597758406, 1.86799501867995, 0.0, 4.171855541718555, 0.0, 1.273972602739726, 0.6376089663760897, 1.4408468244084682, 0.635118306351183, 0.7447073474470735, 0.0, 1.5865504358655043, 0.0, 0.5491905354919053, 0.28268991282689915, 0.6052303860523038, 0.24533001245330013, 0.3125778331257783, 0.0, 0.797011207970112, 0.0062266500622665, 0.2054794520547945, 0.0859277708592777, 0.273972602739726, 0.038605230386052306, 0.08841843088418432, 0.0012453300124533001, 0.21419676214196762, 0.0049813200498132005, 0.048567870485678705, 0.0448318804483188, 0.09713574097135741, 0.029887920298879204, 0.0273972602739726, 0.0012453300124533001, 0.12577833125778332, 0.0, 0.026151930261519303, 0.0186799501867995, 0.0448318804483188, 0.009962640099626401, 0.012453300124533, 0.0012453300124533001, 0.047322540473225407, 0.0, 0.012453300124533, 0.008717310087173101, 0.0224159402241594, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.15317559153175592]</t>
+          <t>[7.043586550435865, 119.93399750933997, 49.99003735990038, 76.98505603985056, 13.828144458281445, 17.90535491905355, 0.0062266500622665, 21.001245330012452, 0.0012453300124533001, 4.914072229140722, 2.476961394769614, 4.7272727272727275, 1.7795765877957659, 1.8655043586550435, 0.0037359900373599006, 4.168119551681196, 0.0012453300124533001, 1.273972602739726, 0.6363636363636364, 1.4371108343711083, 0.6376089663760897, 0.7447073474470735, 0.0, 1.5840597758405977, 0.0, 0.5491905354919053, 0.28144458281444584, 0.6052303860523038, 0.24408468244084683, 0.3125778331257783, 0.0, 0.7982565379825654, 0.0, 0.2054794520547945, 0.0859277708592777, 0.2777085927770859, 0.039850560398505604, 0.08841843088418432, 0.0, 0.21544209215442092, 0.0, 0.049813200498132, 0.04234122042341221, 0.099626400996264, 0.029887920298879204, 0.0273972602739726, 0.0, 0.1232876712328767, 0.0, 0.026151930261519303, 0.0224159402241594, 0.047322540473225407, 0.009962640099626401, 0.012453300124533, 0.0, 0.05105853051058531, 0.0, 0.012453300124533, 0.009962640099626401, 0.024906600249066, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.14694894146948942]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[15.838107098381071, 0.10336239103362391, 15.991282689912827, 0.07098381070983811, 5.257783312577833, 0.8268991282689913, 0.012453300124533, 4.24159402241594, 0.05977584059775841, 10.712328767123287, 0.16313823163138233, 8.001245330012454], [0.10460772104607721, 0.26774595267745954, 0.15442092154420922, 0.20174346201743462, 0.05105853051058531, 0.06973848069738481, 0.023661270236612703, 0.0024906600249066002, 0.0547945205479452, 0.037359900373599, 0.09339975093399751, 0.06973848069738481], [17.341220423412203, 0.14694894146948942, 13.892901618929017, 0.038605230386052306, 18.13947696139477, 0.7932752179327521, 0.09838107098381071, 3.7696139476961394, 0.009962640099626401, 2.7073474470734746, 0.024906600249066, 1.9327521793275217], [0.05105853051058531, 0.24283935242839352, 0.11207970112079702, 0.19427148194271482, 0.047322540473225407, 0.24283935242839352, 0.007471980074719801, 0.0037359900373599006, 0.053549190535491904, 0.0, 0.05105853051058531, 0.0], [5.815691158156912, 0.0410958904109589, 20.398505603985058, 0.05603985056039851, 15.647571606475717, 4.443337484433375, 0.3586550435865504, 11.643835616438356, 0.0921544209215442, 5.462017434620174, 0.0024906600249066002, 1.3138231631382316], [0.47696139476961397, 0.0684931506849315, 0.7347447073474471, 0.30510585305105853, 5.266500622665006, 3.019925280199253, 0.08343711083437111, 2.277708592777086, 0.17559153175591533, 0.6438356164383562, 0.0547945205479452, 0.0647571606475716], [0.0024906600249066002, 0.0136986301369863, 0.10709838107098381, 0.0136986301369863, 0.46326276463262767, 0.09713574097135741, 0.29514321295143214, 0.24533001245330013, 0.058530510585305104, 0.14072229140722292, 0.014943960149439602, 0.0460772104607721], [4.1569115815691156, 0.0024906600249066002, 3.671232876712329, 0.0224159402241594, 12.721046077210461, 2.74346201743462, 0.30510585305105853, 13.564134495641344, 0.08841843088418432, 14.910336239103362, 0.021170610211706103, 1.108343711083437], [0.023661270236612703, 0.0547945205479452, 0.024906600249066, 0.0547945205479452, 0.10834371108343711, 0.1706102117061021, 0.0448318804483188, 0.0722291407222914, 0.386052303860523, 0.26650062266500624, 0.1855541718555417, 0.0361145703611457], [10.846824408468244, 0.033623910336239106, 2.7783312577833126, 0.009962640099626401, 6.337484433374844, 0.6089663760896638, 0.199252801992528, 15.02988792029888, 0.21544209215442092, 15.14321295143213, 0.0448318804483188, 5.469489414694894], [0.1382316313823163, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.07347447073474471, 0.007471980074719801, 0.0273972602739726, 0.18057285180572852, 0.058530510585305104, 0.136986301369863, 0.0323785803237858], [6.748443337484433, 0.0921544209215442, 1.0323785803237857, 0.0, 0.9738480697384807, 0.0759651307596513, 0.06724782067247821, 2.227895392278954, 0.058530510585305104, 6.773349937733499, 0.026151930261519303, 3.829389788293898]]</t>
+          <t>[[15.774595267745953, 0.10336239103362391, 15.745952677459528, 0.06973848069738481, 5.280199252801992, 0.821917808219178, 0.012453300124533, 4.094645080946451, 0.058530510585305104, 10.839352428393525, 0.1706102117061021, 8.291407222914073], [0.10460772104607721, 0.27023661270236615, 0.15442092154420922, 0.18306351183063513, 0.05105853051058531, 0.07347447073474471, 0.024906600249066, 0.0024906600249066002, 0.048567870485678705, 0.037359900373599, 0.1095890410958904, 0.06973848069738481], [18.039850560398506, 0.14694894146948942, 13.778331257783313, 0.037359900373599, 17.931506849315067, 0.7833125778331258, 0.09838107098381071, 3.721046077210461, 0.009962640099626401, 2.4993773349937736, 0.021170610211706103, 1.8268991282689913], [0.047322540473225407, 0.2590286425902864, 0.1133250311332503, 0.19053549190535493, 0.047322540473225407, 0.23910336239103364, 0.008717310087173101, 0.0037359900373599006, 0.0547945205479452, 0.0, 0.04234122042341221, 0.0], [5.405977584059776, 0.0410958904109589, 21.134495641344955, 0.06102117061021171, 15.5280199252802, 4.414694894146949, 0.35367372353673726, 11.503113325031133, 0.0896637608966376, 5.457036114570361, 0.0024906600249066002, 1.2839352428393525], [0.46824408468244083, 0.05105853051058531, 0.6550435865504358, 0.33997509339975096, 5.457036114570361, 3.012453300124533, 0.08094645080946451, 2.204234122042341, 0.16936488169364883, 0.6239103362391034, 0.0547945205479452, 0.0547945205479452], [0.0024906600249066002, 0.0136986301369863, 0.10211706102117062, 0.007471980074719801, 0.47198007471980075, 0.10211706102117062, 0.298879202988792, 0.24283935242839352, 0.05977584059775841, 0.1357409713574097, 0.014943960149439602, 0.0460772104607721], [4.127023661270236, 0.0024906600249066002, 3.464508094645081, 0.017434620174346202, 12.921544209215442, 2.8368617683686175, 0.3163138231631382, 13.61145703611457, 0.08343711083437111, 14.833125778331258, 0.0186799501867995, 1.0809464508094646], [0.023661270236612703, 0.052303860523038606, 0.024906600249066, 0.05105853051058531, 0.10585305105853052, 0.18181818181818182, 0.0460772104607721, 0.07347447073474471, 0.38107098381070986, 0.2727272727272727, 0.1793275217932752, 0.0361145703611457], [10.757160647571606, 0.033623910336239106, 2.7322540473225403, 0.009962640099626401, 6.287671232876712, 0.5740971357409713, 0.18804483188044832, 15.481942714819427, 0.22914072229140722, 14.978829389788293, 0.0448318804483188, 5.391033623910336], [0.1357409713574097, 0.10460772104607721, 0.0037359900373599006, 0.039850560398505604, 0.0049813200498132005, 0.06351183063511831, 0.007471980074719801, 0.031133250311332503, 0.19053549190535493, 0.05977584059775841, 0.13449564134495642, 0.0323785803237858], [6.64134495641345, 0.0921544209215442, 0.9912826899128269, 0.0, 0.9315068493150684, 0.0647571606475716, 0.06724782067247821, 2.133250311332503, 0.058530510585305104, 7.108343711083437, 0.026151930261519303, 3.7870485678704857]]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[[0.0460772104607721, 0.9302615193026152, 0.6824408468244084, 1.7770859277708593, 0.11830635118306351, 0.14819427148194272, 0.0, 0.3163138231631382, 0.0, 0.014943960149439602, 0.026151930261519303, 0.029887920298879204, 0.008717310087173101, 0.012453300124533, 0.0, 0.021170610211706103, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.012453300124533, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006], [0.6562889165628891, 60.18804483188045, 16.866749688667497, 16.59526774595268, 3.4632627646326277, 5.72851805728518, 0.0, 3.1818181818181817, 0.0, 1.5790784557907847, 0.6662515566625156, 0.8418430884184309, 0.46077210460772106, 0.6201743462017435, 0.0, 0.7434620174346201, 0.0, 0.30635118306351183, 0.16189290161892902, 0.1780821917808219, 0.0647571606475716, 0.16687422166874222, 0.0, 0.2590286425902864, 0.0, 0.09464508094645081, 0.0410958904109589, 0.07970112079701121, 0.06351183063511831, 0.06351183063511831, 0.0, 0.10211706102117062, 0.0, 0.039850560398505604, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21544209215442092, 16.1706102117061, 20.91780821917808, 9.947696139476962, 2.6039850560398508, 2.5006226650062264, 0.0, 2.663760896637609, 0.0, 0.7285180572851806, 0.5417185554171855, 0.5691158156911582, 0.22042341220423411, 0.286425902864259, 0.0, 0.5541718555417185, 0.0, 0.20298879202988793, 0.11706102117061021, 0.2403486924034869, 0.13449564134495642, 0.09713574097135741, 0.0, 0.20921544209215442, 0.0, 0.062266500622665005, 0.0547945205479452, 0.05977584059775841, 0.0361145703611457, 0.04234122042341221, 0.0, 0.06102117061021171, 0.0049813200498132005, 0.0323785803237858, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4819427148194273, 15.643835616438356, 8.905354919053549, 27.576587795765878, 3.232876712328767, 3.5305105853051058, 0.0, 6.2640099626401, 0.0, 1.2627646326276463, 0.6413449564134496, 1.7334993773349938, 0.5442092154420921, 0.5242839352428393, 0.0, 1.3872976338729763, 0.0, 0.41344956413449563, 0.1581569115815691, 0.4931506849315068, 0.15940224159402241, 0.21419676214196762, 0.0, 0.47447073474470736, 0.0, 0.16811955168119552, 0.074719800747198, 0.24533001245330013, 0.0684931506849315, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11083437110834371, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.014943960149439602, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.037359900373599], [0.1917808219178082, 2.983810709838107, 2.247820672478207, 3.3262764632627646, 1.6413449564134495, 0.9190535491905355, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2590286425902864, 0.11083437110834371, 0.08841843088418432, 0.0, 0.22914072229140722, 0.0, 0.05977584059775841, 0.037359900373599, 0.06724782067247821, 0.033623910336239106, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.21793275217932753, 4.850560398505604, 2.4919053549190537, 3.5541718555417185, 0.9315068493150684, 2.4259028642590286, 0.0, 1.1668742216687422, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.06724782067247821, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.6463262764632627, 2.220423412204234, 5.180572851805729, 0.7708592777085927, 1.0049813200498132, 0.0, 4.199252801992528, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6127023661270237, 0.14570361145703611, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11207970112079702, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.009962640099626401, 0.014943960149439602, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0049813200498132005, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.04234122042341221], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 1.933997509339975, 0.763387297633873, 1.211706102117061, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.009962640099626401], [0.0037359900373599006, 0.7658779576587795, 0.6811955168119551, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006], [0.14196762141967623, 1.2104607721046077, 0.6948941469489415, 1.6376089663760898, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29389788293897884, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11955168119551682, 0.021170610211706103, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.5828144458281445, 0.3125778331257783, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0, 0.0448318804483188, 0.014943960149439602, 0.009962640099626401, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6425902864259029, 0.3424657534246575, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0049813200498132005, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9115815691158157, 0.6264009962640099, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.4396014943960149, 0.18306351183063513, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0, 0.062266500622665005, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.1930261519302615, 0.1357409713574097, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.05105853051058531, 0.31880448318804483, 0.273972602739726, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10211706102117062, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22042341220423411, 0.0921544209215442, 0.1643835616438356, 0.028642590286425903, 0.034869240348692404, 0.0, 0.021170610211706103, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2266500622665006, 0.1295143212951432, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.33499377334993774, 0.2054794520547945, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.16189290161892902, 0.0660024906600249, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06351183063511831, 0.039850560398505604, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.11830635118306351, 0.0647571606475716, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0037359900373599006, 0.053549190535491904, 0.0410958904109589, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13325031133250312, 0.07970112079701121, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09339975093399751, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.007471980074719801, 0.0024906600249066002, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.026151930261519303, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.019925280199252802, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0,</t>
+          <t>[[0.047322540473225407, 2.800747198007472, 1.2627646326276463, 2.019925280199253, 0.1780821917808219, 0.18057285180572852, 0.0, 0.33374844333748444, 0.0, 0.023661270236612703, 0.028642590286425903, 0.037359900373599, 0.0161892901618929, 0.012453300124533, 0.0, 0.026151930261519303, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0024906600249066002, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0], [3.5043586550435863, 64.20298879202988, 15.627646326276464, 16.869240348692404, 3.795765877957659, 5.833125778331258, 0.0, 3.2640099626401, 0.0, 1.63013698630137, 0.684931506849315, 0.8592777085927771, 0.46450809464508097, 0.6264009962640099, 0.0, 0.7584059775840598, 0.0, 0.3125778331257783, 0.16936488169364883, 0.20298879202988793, 0.0647571606475716, 0.16811955168119552, 0.0, 0.2714819427148194, 0.0, 0.09464508094645081, 0.048567870485678705, 0.07970112079701121, 0.0647571606475716, 0.06351183063511831, 0.0, 0.10460772104607721, 0.0, 0.048567870485678705, 0.0161892901618929, 0.026151930261519303, 0.0037359900373599006, 0.029887920298879204, 0.0, 0.009962640099626401, 0.0, 0.008717310087173101, 0.0012453300124533001, 0.0037359900373599006, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0], [0.21170610211706103, 14.932752179327522, 14.090909090909092, 9.455790784557907, 2.2141967621419676, 2.3636363636363638, 0.0, 2.564134495641345, 0.0, 0.6687422166874222, 0.5205479452054794, 0.5454545454545454, 0.20921544209215442, 0.28019925280199254, 0.0, 0.5342465753424658, 0.0, 0.19676214196762143, 0.1095890410958904, 0.21544209215442092, 0.1307596513075965, 0.09464508094645081, 0.0, 0.19676214196762143, 0.0, 0.062266500622665005, 0.047322540473225407, 0.05977584059775841, 0.033623910336239106, 0.04234122042341221, 0.0, 0.058530510585305104, 0.0, 0.023661270236612703, 0.0062266500622665, 0.034869240348692404, 0.0024906600249066002, 0.0112079701120797, 0.0, 0.0049813200498132005, 0.0, 0.014943960149439602, 0.0024906600249066002, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [2.4744707347447075, 16.201743462017436, 8.35865504358655, 27.530510585305105, 3.2353673723536738, 3.5305105853051058, 0.0024906600249066002, 6.261519302615193, 0.0, 1.2590286425902864, 0.6413449564134496, 1.7322540473225405, 0.5442092154420921, 0.523038605230386, 0.0012453300124533001, 1.3872976338729763, 0.0, 0.4122042341220423, 0.1569115815691158, 0.4919053549190536, 0.16064757160647572, 0.21419676214196762, 0.0, 0.47322540473225405, 0.0, 0.16811955168119552, 0.07347447073474471, 0.24533001245330013, 0.06724782067247821, 0.08343711083437111, 0.0, 0.26899128268991285, 0.0, 0.05603985056039851, 0.028642590286425903, 0.11457036114570361, 0.0062266500622665, 0.008717310087173101, 0.0, 0.0859277708592777, 0.0, 0.007471980074719801, 0.0161892901618929, 0.028642590286425903, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.012453300124533, 0.0, 0.008717310087173101, 0.0049813200498132005, 0.017434620174346202, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.008717310087173101, 0.0012453300124533001, 0.0, 0.0, 0.0410958904109589], [0.1917808219178082, 3.348692403486924, 1.8866749688667497, 3.328767123287671, 1.6363636363636365, 0.9202988792029888, 0.0, 0.9215442092154421, 0.0, 0.25155666251556663, 0.11581569115815692, 0.2577833125778331, 0.11207970112079702, 0.08841843088418432, 0.0024906600249066002, 0.2266500622665006, 0.0, 0.05977584059775841, 0.037359900373599, 0.0660024906600249, 0.034869240348692404, 0.043586550435865505, 0.0, 0.0722291407222914, 0.0, 0.026151930261519303, 0.017434620174346202, 0.023661270236612703, 0.0136986301369863, 0.014943960149439602, 0.0, 0.04234122042341221, 0.0, 0.024906600249066, 0.0012453300124533001, 0.009962640099626401, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005], [0.2191780821917808, 5.021170610211706, 2.3225404732254047, 3.551681195516812, 0.9302615193026152, 2.4246575342465753, 0.0012453300124533001, 1.1643835616438356, 0.0, 0.3287671232876712, 0.1295143212951432, 0.30884184308841844, 0.1506849315068493, 0.11830635118306351, 0.0, 0.30884184308841844, 0.0, 0.12453300124533001, 0.04234122042341221, 0.1133250311332503, 0.0660024906600249, 0.0759651307596513, 0.0, 0.1295143212951432, 0.0, 0.06351183063511831, 0.0273972602739726, 0.052303860523038606, 0.009962640099626401, 0.034869240348692404, 0.0, 0.05105853051058531, 0.0, 0.017434620174346202, 0.0112079701120797, 0.021170610211706103, 0.0049813200498132005, 0.0049813200498132005, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0049813200498132005, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 3.911581569115816, 1.9601494396014945, 5.174346201743462, 0.7708592777085927, 1.0024906600249066, 0.0, 4.196762141967621, 0.0, 0.29638854296388545, 0.16064757160647572, 0.6102117061021171, 0.14694894146948942, 0.11457036114570361, 0.0, 0.6674968866749689, 0.0, 0.11083437110834371, 0.08841843088418432, 0.261519302615193, 0.12702366127023662, 0.09838107098381071, 0.0, 0.33374844333748444, 0.0, 0.10834371108343711, 0.05105853051058531, 0.11207970112079702, 0.034869240348692404, 0.034869240348692404, 0.0, 0.1917808219178082, 0.0, 0.008717310087173101, 0.014943960149439602, 0.048567870485678705, 0.012453300124533, 0.0062266500622665, 0.0, 0.07970112079701121, 0.0, 0.0112079701120797, 0.012453300124533, 0.026151930261519303, 0.0049813200498132005, 0.008717310087173101, 0.0, 0.07347447073474471, 0.0, 0.0062266500622665, 0.0062266500622665, 0.0112079701120797, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0136986301369863, 0.0, 0.0, 0.0024906600249066002, 0.009962640099626401, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0410958904109589], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04234122042341221, 2.067247820672478, 0.6276463262764632, 1.2104607721046077, 0.1307596513075965, 0.22540473225404734, 0.0, 0.25653798256537985, 0.0, 0.0821917808219178, 0.0224159402241594, 0.0410958904109589, 0.0186799501867995, 0.009962640099626401, 0.0, 0.021170610211706103, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0012453300124533001, 0.014943960149439602, 0.0049813200498132005, 0.0, 0.007471980074719801, 0.0, 0.008717310087173101, 0.007471980074719801, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.014943960149439602, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0037359900373599006, 0.0024906600249066002, 0.0136986301369863, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.008717310087173101], [0.0062266500622665, 0.8841843088418431, 0.5616438356164384, 0.572851805728518, 0.09713574097135741, 0.0896637608966376, 0.0, 0.12204234122042341, 0.0, 0.008717310087173101, 0.008717310087173101, 0.031133250311332503, 0.009962640099626401, 0.0136986301369863, 0.0, 0.0224159402241594, 0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.14072229140722292, 1.2889165628891657, 0.6189290161892902, 1.6363636363636365, 0.12702366127023662, 0.17559153175591533, 0.0, 0.29265255292652553, 0.0, 0.05977584059775841, 0.0136986301369863, 0.11706102117061021, 0.0224159402241594, 0.014943960149439602, 0.0, 0.0361145703611457, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0273972602739726, 0.007471980074719801, 0.009962640099626401, 0.0, 0.0161892901618929, 0.0, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0062266500622665, 0.0049813200498132005, 0.0, 0.012453300124533, 0.0, 0.0062266500622665, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0112079701120797, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801], [0.007471980074719801, 0.6301369863013698, 0.26650062266500624, 0.4259028642590286, 0.05977584059775841, 0.1432129514321295, 0.0, 0.09339975093399751, 0.0012453300124533001, 0.0448318804483188, 0.014943960149439602, 0.0112079701120797, 0.0136986301369863, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001], [0.034869240348692404, 0.6948941469489415, 0.2889165628891656, 0.45080946450809467, 0.049813200498132, 0.1519302615193026, 0.0, 0.074719800747198, 0.0, 0.012453300124533, 0.017434620174346202, 0.0136986301369863, 0.0037359900373599006, 0.009962640099626401, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.9663760896637609, 0.5678704856787049, 1.4333748443337484, 0.1432129514321295, 0.1980074719800747, 0.0, 0.50186799501868, 0.0, 0.028642590286425903, 0.023661270236612703, 0.05105853051058531, 0.0136986301369863, 0.008717310087173101, 0.0, 0.057285180572851806, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0112079701120797, 0.0, 0.008717310087173101, 0.0, 0.0112079701120797, 0.0, 0.0062266500622665, 0.0012453300124533001, 0.0012453300124533001, 0.0012453300124533001, 0.008717310087173101, 0.0, 0.0161892901618929, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.008717310087173101, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.46450809464508097, 0.1569115815691158, 0.33499377334993774, 0.058530510585305104, 0.07347447073474471, 0.0012453300124533001, 0.06102117061021171, 0.0, 0.026151930261519303, 0.0062266500622665, 0.007471980074719801, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.007471980074719801, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0012453300124533001, 0.20921544209215442, 0.11955168119551682, 0.1930261519302615, 0.008717310087173101, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0, 0.007471980074719801, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.049813200498132, 0.3287671232876712, 0.2627646326276463, 0.4520547945205479, 0.052303860523038606, 0.07098381070983811, 0.0, 0.10087173100871731, 0.0, 0.0136986301369863, 0.012453300124533, 0.021170610211706103, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.007471980074719801, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.22914072229140722, 0.08841843088418432, 0.16189290161892902, 0.028642590286425903, 0.034869240348692404, 0.0, 0.0224159402241594, 0.0, 0.009962640099626401, 0.0037359900373599006, 0.0037359900373599006, 0.0062266500622665, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0049813200498132005, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0136986301369863, 0.2403486924034869, 0.11581569115815692, 0.15940224159402241, 0.031133250311332503, 0.047322540473225407, 0.0, 0.05105853051058531, 0.0, 0.007471980074719801, 0.0012453300124533001, 0.0049813200498132005, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.34620174346201743, 0.1930261519302615, 0.5330012453300125, 0.062266500622665005, 0.08094645080946451, 0.0, 0.16936488169364883, 0.0, 0.024906600249066, 0.019925280199252802, 0.008717310087173101, 0.009962640099626401, 0.007471980074719801, 0.0, 0.0186799501867995, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0112079701120797, 0.0, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.1656288916562889, 0.062266500622665005, 0.12826899128268993, 0.021170610211706103, 0.0547945205479452, 0.0, 0.0323785803237858, 0.0, 0.009962640099626401, 0.0049813200498132005, 0.007471980074719801, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.0647571606475716, 0.038605230386052306, 0.062266500622665005, 0.017434620174346202, 0.012453300124533, 0.0, 0.017434620174346202, 0.0, 0.019925280199252802, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.039850560398505604, 0.12079701120797011, 0.062266500622665005, 0.20423412204234123, 0.0323785803237858, 0.039850560398505604, 0.0, 0.0273972602739726, 0.0, 0.026151930261519303, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.052303860523038606, 0.0136986301369863, 0.0722291407222914, 0.017434620174346202, 0.012453300124533, 0.0, 0.024906600249066, 0.0, 0.007471980074719801, 0.009962640099626401, 0.0037359900373599006, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0037359900373599006, 0.05105853051058531, 0.043586550435865505, 0.049813200498132, 0.007471980074719801, 0.029887920298879204, 0.0, 0.034869240348692404, 0.0, 0.017434620174346202, 0.0012453300124533001, 0.009962640099626401, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0037359900373599006, 0.0, 0.0024906600249066002, 0.0, 0.0049813200498132005, 0.0, 0.0024906600249066002, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1320049813200498, 0.08094645080946451, 0.23661270236612703, 0.034869240348692404, 0.052303860523038606, 0.0, 0.10336239103362391, 0.0, 0.0037359900373599006, 0.007471980074719801, 0.0224159402241594, 0.0062266500622665, 0.0062266500622665, 0.0, 0.014943960149439602, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0024906600249066002, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0024906600249066002, 0.06724782067247821, 0.024906600249066, 0.031133250311332503, 0.0049813200498132005, 0.0062266500622665, 0.0, 0.0112079701120797, 0.0, 0.0037359900373599006, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0037359900373599006, 0.0, 0.007471980074719801, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.017434620174346202, 0.0161892901618929, 0.0273972602739726, 0.0037359900373599006, 0.0062266500622665, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.024906600249066, 0.0448318804483188, 0.033623910336239106, 0.09713574097135741, 0.0062266500622665, 0.0062266500622665, 0.0, 0.026151930261519303, 0.0, 0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0012453300124533001, 0.0062266500622665, 0.0012453300124533001, 0.0049813200498132005, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0062266500622665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0273972602739726, 0.0112079701120797, 0.014943960149439602, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.012453300124533, 0.0224159402241594, 0.08841843088418432, 0.0049813200498132005, 0.024906600249066, 0.0, 0.028642590286425903, 0.0, 0.0037359900373599006, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0037359900373599006, 0.0062266500622665, 0.009962640099626401, 0.009962640099626401, 0.0012453300124533001, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0062266500622665, 0.0012453300124533001, 0.014943960149439602, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.009962640099626401, 0.007471980074719801, 0.0049813200498132005, 0.039850560398505604, 0.0, 0.008717310087173101, 0.0, 0.0049813200498132005, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0024906600249066002, 0.0024906600249066002, 0.0012453300124533001, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0012453300124533001, 0.0062266500622665, 0.0, 0.0, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0049813200498132005, 0.0112079701120797, 0.024906600249066, 0.0037359900373599006, 0.0024906600249066002, 0.0, 0.05603985056039851, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0049813200498132005, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0037359900373599006, 0.0037359900373599006, 0.0, 0.0049813200498132005, 0.0, 0.0062266500622665, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0024906600249066002, 0.008717310087173101, 0.008717310087173101, 0.0037359900373599006, 0.0012453300124533001, 0.0, 0.007471980074719801, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0012453300124533001, 0.0, 0.0024906600249066002, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0037359900373599006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0012453300124533001, 0.0024906600249066002, 0.021170610211706103, 0.0, 0.0, 0.0, 0.012453300124533, 0.0, 0.0012453300124533001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0024906600249066002, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0</t>
         </is>
       </c>
     </row>
@@ -605,69 +605,69 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.590809757418174</v>
+        <v>7.235226184997575</v>
       </c>
       <c r="C3" t="n">
         <v>2.57530272087187</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5906991495010002</v>
+        <v>0.5913263771405545</v>
       </c>
       <c r="E3" t="n">
         <v>2.846561820213446</v>
       </c>
       <c r="F3" t="n">
-        <v>1.382981190106598</v>
+        <v>1.384184357131292</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02093743096043811</v>
+        <v>0.02093949002023239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4295189899033051</v>
+        <v>0.4294925781998982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.22384905978332</v>
+        <v>15.22110322371564</v>
       </c>
       <c r="J3" t="n">
-        <v>81.5531434743672</v>
+        <v>81.54435932815957</v>
       </c>
       <c r="K3" t="n">
-        <v>1.539005082169607</v>
+        <v>1.542095687964101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8673466694570817</v>
+        <v>0.8673732097594604</v>
       </c>
       <c r="M3" t="n">
-        <v>1.743405014990587</v>
+        <v>1.770096261819055</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[43.96518638746081, 25.800607565347597, 38.07611878564085, 24.63620289428403, 9.277308741289549, 12.653983014070555, 0.8917675963837053, 10.195149838372064, 4.666612977517225, 5.338710445776931, 2.886325739584823, 0.6695730800773179, 3.6247079443894394, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[44.31909401412168, 26.16964957441461, 38.629479629527744, 24.973930661050826, 9.152159616948792, 12.128129803532726, 0.8339509360070744, 10.109721120688956, 4.695204643369049, 5.305332697048505, 2.8578926485945755, 0.6611846292908672, 3.7038053281541234, 0.1362142855678743, 1.005392488043713, 0.5612585071227026, 0.18934750393179203, 0.34577591916811784, 0.0, 0.08629696706884282, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[26.811276561682035, 4.202277140987607, 24.36955414520669, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.73264582035267, 4.525173197895207, 27.38603245536218, 3.265125152597835, 20.031100926674434]</t>
+          <t>[26.793671272203323, 4.19862196467329, 24.368656568397462, 3.7431446643987547, 22.738045383573084, 16.48883123885517, 5.317180291040652, 25.733025503929685, 4.525173197895207, 27.387616495844522, 3.265125152597835, 20.024649865457057]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[21.682888198281276, 72.77347495650994, 85.86715596282875, 32.414751565248764, 39.18357444052118, 5.031014264403113, 10.13745963811475, 4.112617473526721, 10.600563905098909, 2.530106678819317, 4.387809627990111, 1.7008126274108673, 5.283717019416239, 1.3777391600385327, 2.9671215210227353, 1.0737027088168662, 5.612673215326598, 0.9334294661166349, 1.957030468379365, 0.7754917069724199, 1.5660439598479532, 0.4384481393377636, 0.7976375185476675, 0.33519509521814744, 1.330485781046696, 0.15621819955732857, 0.3359576332150764, 0.131191837510562, 0.416990344842046, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
+          <t>[19.200192814527096, 79.9311001297264, 86.71882793720533, 32.26698726378019, 39.236255489009736, 5.076896598584383, 10.126639427099418, 4.112470026799988, 10.600443939631395, 2.530406397086378, 4.3926795103390734, 1.7009083665490732, 5.2858378220952815, 1.3786427576165583, 2.9682084905495536, 1.07361026379461, 5.608395939485978, 0.923637016457183, 1.9571556713165779, 0.7749415602618336, 1.5660439598479532, 0.42653961853269734, 0.7976375185476675, 0.33519509521814744, 1.330113894853949, 0.15621819955732857, 0.3359576332150764, 0.12160952045562655, 0.418175068572185, 0.1448549541578633, 0.21511431381812385, 0.13166383701150328]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[10.239139713482235, 91.78844013187569, 68.24105539540207, 60.484269750223184, 16.852629823817313, 17.00425485442499, 0.0, 25.59437640424412, 0.0, 5.5202264198940165, 3.913505786863658, 6.218709756636351, 2.8897662234853323, 2.965137297495919, 0.0, 6.031495164290983, 0.0, 2.251255641720904, 1.384644578668003, 2.500296426799668, 1.627935480132149, 1.7065783665944962, 0.0, 2.9648700186569394, 0.0, 1.3113200852338929, 0.9461394257385434, 1.5852126572138443, 1.0614201274036805, 1.0133252683535194, 0.0, 2.0853258364601444, 0.14536794364889696, 0.8594184734990764, 0.5433521981379187, 1.1660013667634472, 0.31917397641484585, 0.5383456641009708, 0.03526725344584421, 1.1042531592621454, 0.08629696706884245, 0.3293562403611494, 0.3124363991146585, 0.47401127641350865, 0.2807273285898941, 0.24802397213202168, 0.03526725344584419, 0.6661130429448666, 0.0, 0.21305700411948367, 0.17545458036868317, 0.3043602855858842, 0.11114875584899048, 0.13145164696706488, 0.03526725344584421, 0.30805246003646064, 0.0, 0.1216095204556271, 0.11671605991392227, 0.1853827553268103, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7860548292405346]</t>
+          <t>[12.82798711365942, 94.103421431507, 57.92075920232701, 60.494370750456966, 16.839890816418453, 17.003801749609853, 0.10568443093039571, 25.597638598346183, 0.035267253445844, 5.519699915116759, 3.914771302825827, 6.208024446702059, 2.8881138850900765, 2.9646053313264136, 0.07882063461243541, 6.030671280240247, 0.03526725344584406, 2.251255641720904, 1.3847677767551712, 2.498710526015691, 1.627726837204949, 1.7065783665944962, 0.0, 2.96494167894833, 0.0, 1.3113200852338929, 0.9432156150600347, 1.5852126572138443, 1.0599463097857305, 1.0133252683535194, 0.0, 2.0911119385789925, 0.0, 0.8565154946302311, 0.5433521981379187, 1.1784020375726163, 0.32863501628982855, 0.5383456641009708, 0.0, 1.1045747270298638, 0.0, 0.33105640935787717, 0.30877655679214755, 0.4864667744977927, 0.2807273285898941, 0.24802397213202168, 0.0, 0.6647076535532884, 0.0, 0.21305700411948367, 0.1919828794384192, 0.3080524600364604, 0.12183885238988879, 0.13145164696706488, 0.0, 0.3174199387179689, 0.0, 0.1216095204556271, 0.12183885238988881, 0.19806620525101934, 0.06100846183768915, 0.1408049217942977, 0.0, 0.7752876981015855]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[[15.38889614094686, 0.631688048182767, 9.891625637727504, 0.7945595855445606, 5.233482449413023, 1.9447342379681531, 0.20539263798739288, 5.374531838009012, 0.41022236725876743, 8.889003375111665, 0.9700553268017363, 8.386447493574272], [0.6422378289478653, 1.5102120706540463, 1.0720331388163606, 1.1122086891902483, 0.5786859768794762, 0.435210324156881, 0.2191073133796967, 0.07053450689168798, 0.4513561150412919, 0.2842464048426837, 0.5777042841715191, 0.6113238651450054], [10.848355012658786, 0.9655717467595065, 13.351684682449697, 0.3629875308042183, 10.585615994262561, 2.367716579527088, 0.6022249069870991, 4.501332109504329, 0.16522108242054842, 3.7253509784856966, 0.375961810139954, 3.5346300705443294], [0.5001949809725345, 1.2354489689036974, 1.0679951929332134, 1.0932224401431487, 0.6899038352881035, 1.2212554664837807, 0.09953295742310293, 0.061008461837688, 0.33235149364226535, 0.0, 0.3579841864799223, 0.0], [5.709959651100379, 0.3149331021027293, 10.444687865900816, 0.6337127024105634, 13.293003373418633, 6.766720617459143, 1.5957241072502508, 9.437619601564657, 0.685357051095766, 5.699794793421793, 0.04984432402537817, 2.622091358442047], [1.4283745239176138, 0.6518800062938273, 2.1999945156347964, 1.3577181547725181, 7.647346202680266, 6.232090773697233, 0.6981649257013408, 4.194088080163874, 0.9549253548852652, 1.812553769134634, 0.3591692384349887, 0.48723765511381373], [0.04984432402537831, 0.1611343470334298, 0.6437645540343204, 0.18285583903340266, 1.9723071089338597, 0.8112099201198917, 1.5491334734999171, 1.5831735030172573, 0.46849573270176675, 0.7962383394682092, 0.23360479148124938, 0.43406495203080153], [5.191744229578108, 0.0705345068916885, 4.391660482390778, 0.29859887226931253, 9.147709586915433, 4.780766933528221, 1.883350749285682, 14.651512150992408, 0.5763308723985958, 10.687194197366386, 0.32847452922060666, 2.357144909832109], [0.25090232148369807, 0.4078755229375376, 0.298401444635697, 0.3954741484748913, 0.6387001287501293, 0.9661947294867658, 0.3998537283987726, 0.5302912917395295, 1.8057345299852554, 1.640463161957812, 1.1901172689340662, 0.3492612332345292], [9.099981484403692, 0.2825170498627745, 3.9760401591664585, 0.1930301690820467, 6.155270066150008, 1.7719326335665508, 1.06578133435243, 10.590256259116895, 1.1000557656289465, 15.575731134902835, 0.4151340798331694, 6.932336423044284], [1.0442610100838234, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.7220637765585423, 0.12201692367537688, 0.2939770246145319, 0.9998860062599834, 0.6012120033560843, 0.7992302545651963, 0.433868401049346], [8.406039573591837, 0.8809457818448249, 2.8641204146436636, 0.0, 2.4909426987785817, 0.5309430588918022, 0.4120969938719054, 3.3938804981733774, 0.773348935051679, 7.256443839536551, 0.4091889883963065, 7.086691998962943]]</t>
+          <t>[[15.544424817067915, 0.631688048182767, 9.728581503230998, 0.7938859179134038, 5.2627068744587495, 1.9487628181142156, 0.20539263798739288, 5.305933962109913, 0.3996403520191709, 9.073127323652596, 0.9916377644009764, 8.672095693852512], [0.6402958448301542, 1.5097683817988037, 1.0720331388163606, 0.9323904813246789, 0.5786859768794762, 0.44730409589567094, 0.2327534786248679, 0.07053450689168798, 0.3686092691981627, 0.2842464048426837, 0.7166027541999586, 0.6113238651450054], [11.168399914051411, 0.9655717467595065, 13.411512636086306, 0.3613989750457564, 10.652277913811034, 2.3809895670152303, 0.6145069558150342, 4.442172277958992, 0.16522108242054842, 3.5809009226752972, 0.36098678171210036, 3.4346666820049765], [0.4943034691653711, 1.3251668953567586, 1.0626029638290773, 1.0944488424159498, 0.6899038352881035, 1.2029913703501374, 0.11671605991392185, 0.061008461837688, 0.341393089727131, 0.0, 0.3206476915543523, 0.0], [5.6305574519687545, 0.3149331021027293, 10.67063068619951, 0.7351772794227536, 13.327006987969446, 6.759054312056993, 1.578796561769905, 9.330432152653872, 0.6820453171997707, 5.667770382020013, 0.04984432402537817, 2.608841840116135], [1.4035802930551646, 0.38155903598792873, 2.075609131578371, 1.4872587969627278, 7.7489619074125695, 6.301265510385754, 0.6730337634150431, 4.142015921670698, 0.9262777692008123, 1.7849589233613747, 0.362619913770433, 0.43161061433984804], [0.04984432402537831, 0.1611343470334298, 0.624954694244595, 0.11134392501747092, 1.9831543209302023, 0.8318282472193671, 1.570378428142396, 1.5819838445852001, 0.4696661059970374, 0.7845045347438666, 0.23360479148124938, 0.43406495203080153], [5.12666989306571, 0.0705345068916885, 4.252863438089124, 0.2635042973402156, 9.37645346376401, 4.810950161776644, 1.9372652435343902, 14.69722547308876, 0.5595427255680407, 10.7340567199275, 0.2704173259903404, 2.304291972659823], [0.25090232148369807, 0.38301946121415603, 0.298401444635697, 0.39122791058251355, 0.6371661366970607, 1.0187865131960492, 0.4043584824539249, 0.5312934547187215, 1.8102352829174537, 1.74075488100906, 1.1293529798090076, 0.3492612332345292], [9.015943144916903, 0.2825170498627745, 3.9193987994536226, 0.1930301690820467, 6.154764877021227, 1.7475623372485563, 1.0328389042944774, 10.846287516398174, 1.2425810256691137, 15.453003516573126, 0.4151340798331694, 6.9000347827098265], [1.025335491140491, 0.6461042864596092, 0.07882063461243609, 0.34345831483812034, 0.07040246089714859, 0.5687600905870498, 0.12201692367537688, 0.3567908519115193, 1.0287571663278192, 0.6041891529703305, 0.7918281814320607, 0.433868401049346], [8.306601925636771, 0.8809457818448249, 2.769910145696, 0.0, 2.39375299386898, 0.47690448987316153, 0.4120969938719054, 3.315825335365898, 0.773348935051679, 7.5540043315460075, 0.4091889883963065, 7.048717264499371]]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[[0.5981448522516661, 3.45295632807422, 2.5270694923376387, 6.300793440821469, 0.6876973477766123, 0.7447323369277237, 0.0, 1.8497942697753542, 0.0, 0.1793188734596477, 0.30855548528992865, 0.2717103475530585, 0.10550819217920393, 0.15732614393378672, 0.0, 0.24611577737616433, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.08629696706884259, 0.07053450689168851, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.03526725344584417, 0.0, 0.0, 0.15732614393378422, 0.0, 0.04984432402537798, 0.0, 0.07053450689168823, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0788206346124355], [2.738302585049167, 70.71128224090144, 22.655213696129486, 17.54046955616787, 5.3896337763833975, 7.711873795015497, 0.0, 4.532084945639117, 0.0, 3.0507799705099856, 1.820238860923577, 1.7725294392443114, 1.3220584356286411, 1.754252323622065, 0.0, 1.761336939708725, 0.0, 1.068417673472907, 0.703092194246869, 0.783972582067646, 0.42439999056073824, 0.8407720865311248, 0.0, 0.974214274417964, 0.0, 0.5000709462095569, 0.314933102102731, 0.5124831841471554, 0.475764962637261, 0.3925852250797812, 0.0, 0.5837423826999588, 0.0, 0.3324028188158522, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.10550819217920393, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07053450689168847, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.509193188726742, 22.259469178774047, 38.1841669335804, 15.81004154788268, 5.343967776035741, 4.87818608580641, 0.0, 5.57516457849677, 0.0, 1.9137104253621324, 1.6428843619202245, 1.629779711534943, 0.9599612487248417, 1.050482924194363, 0.0, 1.787737922503338, 0.0, 0.7401598788104239, 0.6342215239818803, 0.9719687063300225, 0.8611400757459441, 0.5606696452134722, 0.0, 0.9126561387276729, 0.0, 0.4693423964887469, 0.5507710446105903, 0.42804947231461904, 0.2951510946817137, 0.4123866665783569, 0.0, 0.41756270010404206, 0.1410690137833764, 0.38843517999213123, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.09315867601128378, 0.03526725344584425, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.12201692367537861, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07882063461243524, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.79025224872956, 16.69416259475453, 14.748738552296453, 42.25260630469924, 5.733545089744422, 4.985908223211347, 0.0, 10.172364455479032, 0.0, 2.673041621445877, 1.8501480360303018, 3.8478162309141517, 1.5873019523659646, 1.4814235619636973, 0.0, 3.502454296199748, 0.0, 1.3074814632420106, 0.6262363335760979, 1.4621468413816456, 0.719412823630801, 0.7852613028241368, 0.0, 1.5853574421106427, 0.0, 0.7371175564715419, 0.434382818857992, 1.0823329281260705, 0.5959941794248123, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.8433578596399137, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.15710912864667462, 0.0, 0.0, 0.0, 0.09315867601128383, 0.0, 0.03526725344584421, 0.0705345068916884, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27078411805582514], [1.1545921920934599, 4.523467181433315, 4.87089657888184, 5.818178619559349, 6.038142290935837, 2.3782269106892384, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8830224067293442, 0.5810795777519577, 0.4770215439931948, 0.0, 0.9572676110035493, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40906389761668716, 0.268968220034349, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3189214849254736, 7.081632816464265, 4.957942341338154, 5.435274475407721, 2.437572460004789, 5.480219294185036, 0.0, 2.7969114023594153, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4210652116157133, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.485143132576206, 4.33210164671944, 9.218316336798773, 2.0339087224555223, 2.35725215070793, 0.0, 12.58961003710107, 0.0, 1.0896658957459893, 0.827813864855967, 2.512868607277693, 0.7401934026317223, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5861761886654182, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12183885238988838, 0.19270853231927834, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.08629696706884352, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3320947487899453], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.2884381535021165, 2.0820778210694506, 2.5613299108819803, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.09295869293410511, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.11114875584899048], [0.10580176033753269, 1.8042378009538727, 1.8926304125042663, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.03526725344584425, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.06100846183768812], [0.8968019082899605, 2.2472986771569854, 1.8740706508790705, 4.05926583446298, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2032749518486976, 0.0, 0.4192306890890823, 0.18285583903340205, 1.0009478935914595, 0.3089372367037806, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.11134392501747215, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.04984432402537779, 0.0, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4383308262770131, 1.1039062104189568, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.0, 0.3998537283987718, 0.17931887345964864, 0.1493877037322834, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7624926493418738, 1.1515444811923943, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.07040246089714865, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.8682382573058716, 1.7424165162679763, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.373934851779479, 0.7284382240640416, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.0, 0.368238841371977, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.6888915297703234, 0.6899060832018447, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5408661936315918, 1.0144571714995214, 1.022612352827793, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7072180787806787, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.994370866289755, 0.5271939544122967, 0.7078121007311813, 0.2601398714280752, 0.2711160947356388, 0.0, 0.21936197425475198, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.8692546216985796, 0.6937997157399078, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.0778458955511716, 0.8752127586281268, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6685926212108927, 0.42858896755180403, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.352470195409574, 0.3398131162956131, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584413, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6190830972029179, 0.4273242469283259, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537851], [0.07882063461243573, 0.36451811415950947, 0.29869753715158565, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5849313875394228, 0.5362327985890728, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.035267253445844256, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.14536794364889696, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6676989898681324, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04984432402537795, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11134392501747085, 0.04984432402537791, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.09953295742310306, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.20102727913036317, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.03526725344584415, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920085, 0.06100846183768903, 0.0, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.035267253445844075, 0.06100846183768882, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584421, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.03526725344584415, 0.18566696948481257, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0705345068916884, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0,</t>
+          <t>[[0.6032309680582033, 6.975327409365649, 3.720221183872154, 6.527619373807764, 0.9158451897975939, 0.8431224481801997, 0.0, 1.8615047065037715, 0.0, 0.23019412422188812, 0.33910955925753683, 0.31341767474144994, 0.16846512152513995, 0.15732614393378672, 0.0, 0.26514125905531577, 0.0, 0.10568443093039494, 0.035267253445844256, 0.1269381686756842, 0.13639632946543412, 0.07882063461243609, 0.0, 0.13182863758724553, 0.0, 0.0, 0.0, 0.10568443093039458, 0.049844324025378015, 0.0, 0.0, 0.15732614393378422, 0.0, 0.035267253445844214, 0.0, 0.0788206346124355, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0], [8.405709879967649, 72.05959475702427, 20.568194935471578, 17.376902773029723, 5.627775983506235, 7.722590533674874, 0.0, 4.551357670791479, 0.0, 3.0669472177602466, 1.8510162370652141, 1.7907672375179229, 1.313659666513322, 1.7609010411749433, 0.0, 1.774010084635276, 0.0, 1.0706912630068763, 0.7171327786948001, 0.8439313999635857, 0.42439999056073824, 0.8412644374406971, 0.0, 0.9848269417596358, 0.0, 0.5000709462095569, 0.347748232474827, 0.5124831841471554, 0.47690448987316164, 0.3925852250797812, 0.0, 0.5875556214174019, 0.0, 0.37530536019169786, 0.18934750393179203, 0.2555749737427829, 0.07882063461243584, 0.33344626754696427, 0.0, 0.11114875584899017, 0.0, 0.1167160599139228, 0.035267253445844166, 0.07882063461243506, 0.04984432402537779, 0.03526725344584405, 0.0, 0.061008461837688224, 0.0, 0.03526725344584423, 0.0352672534458441, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.0], [2.5072770707759893, 20.358320931630743, 29.010247762871934, 15.594055632661258, 4.656996792399891, 4.6978199259931985, 0.0, 5.479208643976557, 0.0, 1.8172706224216741, 1.6219274847410945, 1.589618761554814, 0.9435181016441375, 1.0408560324790945, 0.0, 1.7756510809048176, 0.0, 0.7359405174955117, 0.6216879008447389, 0.9159772616077364, 0.855187260823239, 0.5588715879927961, 0.0, 0.8947832630765055, 0.0, 0.4693423964887469, 0.5307502425835738, 0.42804947231461904, 0.29119959394370315, 0.4123866665783569, 0.0, 0.41191631560504277, 0.0, 0.3358052641398605, 0.10568443093039488, 0.32920081587595895, 0.07053450689168786, 0.17608983990366775, 0.0, 0.08629696706884234, 0.0, 0.24403384735075295, 0.04984432402537791, 0.17591360903495498, 0.07882063461243584, 0.0, 0.0, 0.11687539931905186, 0.0, 0.0, 0.0, 0.0705345068916883, 0.07053450689168836, 0.0, 0.0, 0.0788206346124356, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08629696706884227], [7.785913986188617, 16.74559913410358, 14.604572346834846, 42.254639373165254, 5.742124995183023, 4.985908223211347, 0.07053450689168837, 10.17291846865618, 0.0, 2.6722414326549044, 1.8514937416250146, 3.848215225741559, 1.5873019523659646, 1.481443452218515, 0.035267253445844166, 3.502454296199748, 0.0, 1.3064455588117678, 0.6255549374186772, 1.4612885120931256, 0.7200010924846098, 0.7852613028241368, 0.0, 1.5853368991127177, 0.0, 0.7371175564715419, 0.43316007904758697, 1.0823329281260705, 0.592994194049528, 0.517934533785683, 0.0, 1.2644669100253705, 0.0, 0.4525810946436798, 0.30426855400399416, 0.853867858493989, 0.09315867601128319, 0.10550819217920296, 0.0, 0.7428119504872601, 0.0, 0.12201692367537655, 0.18265217551481117, 0.27863128468684545, 0.09968864805075679, 0.10568443093039558, 0.0, 0.14920072231784873, 0.0, 0.13639632946543284, 0.08629696706884206, 0.16460040793797942, 0.0, 0.0, 0.0, 0.09953295742310303, 0.0, 0.03526725344584421, 0.07882063461243571, 0.13639632946543281, 0.03526725344584419, 0.0, 0.0, 0.27706843662872715], [1.1545921920934599, 4.910198060166919, 4.338809114918467, 5.819322548060996, 6.02297574618445, 2.3795776827057114, 0.0, 2.375690837502433, 0.0, 0.9913609110736527, 0.615520657333571, 0.8826816199582865, 0.5819116806771465, 0.4770215439931948, 0.07053450689168829, 0.9500276516048531, 0.0, 0.3915845125256466, 0.3364143263741578, 0.40774242228737384, 0.27111609473563836, 0.3224178402006213, 0.0, 0.4261249266336279, 0.0, 0.25065495642160496, 0.18591738586821036, 0.2746002094872512, 0.16868591470183913, 0.2388762412378102, 0.0, 0.2606639632754011, 0.0, 0.21026540778822927, 0.03526725344584391, 0.14080492179429777, 0.06100846183768839, 0.10568443093039702, 0.0, 0.04984432402537786, 0.0, 0.035267253445843985, 0.03526725344584404, 0.04984432402537791, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0498443240253783, 0.0, 0.06100846183768826, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.07040246089714881], [1.3201308746463474, 7.132672627004393, 4.846518825823255, 5.433236266421455, 2.4377925842423576, 5.4799750684389394, 0.03526725344584389, 2.7970588916157735, 0.0, 1.0710764824222736, 0.7219477861724435, 1.1754055090594748, 0.7391954187546981, 0.5986295022743896, 0.0, 1.1722227308206572, 0.0, 0.7141574034175634, 0.3047167570047761, 0.5313197250903469, 0.4197815182120356, 0.4240088097719355, 0.0, 0.621862496549141, 0.0, 0.34891915772447624, 0.20995540140181732, 0.3797541937146656, 0.13166383701150305, 0.2520739905763335, 0.0, 0.3364650317941747, 0.0, 0.1859173858682102, 0.16886968849498354, 0.2511247417089393, 0.08629696706884306, 0.08629696706884314, 0.0, 0.1269381686756845, 0.0, 0.03526725344584406, 0.07882063461243603, 0.08629696706884223, 0.07882063461243621, 0.04984432402537839, 0.0, 0.13182863758724717, 0.0, 0.0, 0.04984432402537789, 0.03526725344584397, 0.035267253445844096, 0.03526725344584425, 0.0, 0.049844324025378244, 0.0, 0.0498443240253781, 0.0, 0.07053450689168841, 0.0, 0.0, 0.0, 0.049844324025377945], [0.0, 0.03526725344584389, 0.0, 0.0, 0.07053450689168837, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.03526725344584393, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04984432402537853, 4.599085172365692, 4.066496587754081, 9.22093505304629, 2.0339087224555223, 2.3572560981317405, 0.0, 12.590044871443677, 0.0, 1.0896658957459893, 0.827813864855967, 2.510996057446287, 0.7407881980057558, 0.6207892044261079, 0.0, 2.933938836583808, 0.0, 0.5853501479714571, 0.5171074490201772, 1.1419112610370283, 0.6723905666797703, 0.6022249069870969, 0.0, 1.466332595008721, 0.0, 0.5439284450593038, 0.38155903598793384, 0.6370785075490908, 0.3253959390473239, 0.23147063879777768, 0.0, 0.9299672281111608, 0.0, 0.15357499386767587, 0.17931887345964814, 0.43949741058584024, 0.22836106463021436, 0.11687539931905394, 0.0, 0.6242296655109074, 0.0, 0.12674254048211195, 0.1863173520225677, 0.21882400926150114, 0.07040246089714887, 0.15357499386767554, 0.0, 0.5121986478190869, 0.0, 0.10568443093039617, 0.09315867601128312, 0.13621428556787427, 0.03526725344584419, 0.08629696706884217, 0.0, 0.13598638799221782, 0.0, 0.0, 0.0705345068916878, 0.11114875584899055, 0.049844324025377855, 0.0498443240253778, 0.0, 0.3303717586290905], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4896950515055158, 3.3255059105720943, 1.8871216729886218, 2.561189434509863, 0.6104835849454087, 0.923069317931281, 0.0, 1.247240129131313, 0.0, 0.5096519732428465, 0.2485236935314869, 0.41701637803238145, 0.24120856130395588, 0.11114875584899035, 0.0, 0.20161273688490633, 0.0, 0.15764126922487304, 0.0862969670688437, 0.03526725344584391, 0.2112073826914461, 0.07040246089714881, 0.0, 0.08611706908901777, 0.0, 0.10550819217920371, 0.09953295742310311, 0.10580176033753397, 0.0, 0.04984432402537837, 0.0, 0.3230857457411664, 0.0, 0.06100846183768802, 0.0788206346124368, 0.07882063461243631, 0.04984432402537836, 0.28852982231780017, 0.0, 0.03526725344584386, 0.0, 0.0, 0.03526725344584399, 0.04984432402537867, 0.07053450689168773, 0.07053450689168833, 0.0, 0.0, 0.0, 0.049844324025377876, 0.03526725344584426, 0.09315867601128386, 0.0, 0.07882063461243541, 0.0, 0.0, 0.0, 0.03526725344584408, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.10550819217920301], [0.1270846921973476, 1.9206646903364448, 1.6945075106891834, 1.9291588864507037, 0.5562096106810701, 0.5663281144968402, 0.0, 0.7128423894381034, 0.0, 0.11671605991392124, 0.18983829662633858, 0.48156768273402656, 0.11114875584898949, 0.16868591470183852, 0.0, 0.2382912214008719, 0.0, 0.11148312237775929, 0.049844324025377834, 0.04984432402537813, 0.0, 0.0, 0.0, 0.11687539931905296, 0.0, 0.04984432402537806, 0.0, 0.0, 0.0, 0.11148312237775886, 0.0, 0.11148312237775918, 0.0, 0.035267253445844166, 0.035267253445844006, 0.04984432402537845, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.04984432402537849], [0.8879281585710084, 2.2856342079966128, 1.801269885163065, 4.059307859862757, 0.6102523685844544, 0.7421163856103026, 0.0, 1.2030609829080134, 0.0, 0.4192306890890823, 0.18285583903340205, 0.9950038730376165, 0.3108589175095745, 0.18613414088700717, 0.0, 0.3456772324229625, 0.0, 0.03526725344584399, 0.07882063461243553, 0.2480239721320208, 0.21160352067506452, 0.1316638370115032, 0.0, 0.160903191843958, 0.0, 0.0931586760112831, 0.0, 0.1961622078587494, 0.14536794364889488, 0.08629696706884285, 0.0, 0.1492007223178497, 0.0, 0.09315867601128343, 0.0, 0.10568443093039416, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.16132672335197967, 0.0, 0.03526725344584425, 0.0, 0.10580176033753164, 0.0, 0.0, 0.03526725344584417, 0.03526725344584425, 0.03526725344584419, 0.0, 0.0, 0.08629696706884395, 0.0, 0.07882063461243585, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08611706908901762], [0.09953295742310325, 1.4834708573047934, 0.9823909550073742, 1.2881011251535857, 0.42219075155551855, 1.1016406369062917, 0.0, 0.6506965505108849, 0.035267253445844, 0.3998537283987718, 0.17931887345964864, 0.15341333593459056, 0.22554573381679363, 0.07882063461243645, 0.0, 0.086296967068843, 0.0, 0.1410690137833756, 0.06100846183768784, 0.12708469219734697, 0.03526725344584389, 0.0, 0.0, 0.03526725344584407, 0.0, 0.0, 0.0, 0.0, 0.07882063461243635, 0.0, 0.0, 0.06100846183768841, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11148312237775973, 0.0, 0.03526725344584391, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.03526725344584406], [0.3784738003113154, 1.7953340195064404, 1.0414637638293092, 1.3825126356947457, 0.3310564093578771, 0.8450754776983171, 0.0, 0.4883662906232824, 0.0, 0.14920072231784717, 0.19249918023974963, 0.21995503635527222, 0.0610084618376882, 0.2821380275667512, 0.0, 0.035267253445844186, 0.0, 0.03526725344584407, 0.0, 0.0, 0.03526725344584419, 0.04984432402537871, 0.0, 0.035267253445844075, 0.0, 0.0, 0.0, 0.07882063461243533, 0.03526725344584411, 0.14536794364889521, 0.0, 0.035267253445844, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.03526725344584416, 0.03526725344584402, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.035267253445844, 0.03526725344584404, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.07053450689168829, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 1.9082609148330942, 1.645042765943019, 3.5596999807416085, 0.8502658807553721, 0.8769334177246595, 0.0, 2.7806364784728186, 0.0, 0.2503825725900313, 0.23019412422188767, 0.34378777998943816, 0.15321102365359715, 0.16148045939482353, 0.0, 0.5202797428561505, 0.0, 0.10568443093039556, 0.03526725344584411, 0.14506892023336015, 0.0, 0.1535749938676759, 0.0, 0.13621428556787418, 0.0, 0.093158676011283, 0.03526725344584406, 0.03526725344584423, 0.03526725344584394, 0.16148045939482347, 0.0, 0.30518462906583993, 0.0, 0.04984432402537824, 0.03526725344584396, 0.0, 0.035267253445843985, 0.10580176033753151, 0.0, 0.07882063461243655, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.22568321141935258, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12693816867568397, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378146], [0.0, 0.0, 0.03526725344584406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168832, 1.3847319384421342, 0.6826703307425074, 1.067396755818729, 0.3837435482682072, 0.4637077898358893, 0.03526725344584393, 0.3667533886955593, 0.0, 0.3242978994722724, 0.09315867601128303, 0.1797852881565914, 0.035267253445844124, 0.07882063461243556, 0.0, 0.14953297207613503, 0.0, 0.14953297207613514, 0.07053450689168782, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537776, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.035267253445844256, 0.7222248434137256, 0.6512016276906024, 0.7544644595577332, 0.09295869293410515, 0.22150076890975368, 0.0, 0.26040204920186233, 0.0, 0.11134392501747062, 0.0862969670688434, 0.0, 0.0, 0.0, 0.0, 0.03526725344584411, 0.0, 0.0, 0.0, 0.1058017603375333, 0.07882063461243631, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584384, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.03526725344584415], [0.5375182489648086, 1.081490069960067, 0.9991008800479312, 1.457963962535131, 0.34540794344486314, 0.4477060985422264, 0.0, 0.7065160075870341, 0.0, 0.17591360903495365, 0.17950904055170688, 0.25112474170893934, 0.0, 0.049844324025378264, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.11134392501747001, 0.0, 0.07882063461243619, 0.0, 0.04984432402537859, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.035267253445843846, 0.0, 0.0, 0.0, 0.03526725344584391, 0.0, 0.04984432402537847, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.049844324025378174, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405], [0.0, 0.9967806879392012, 0.5242824562264862, 0.7048611874942385, 0.2601398714280752, 0.2711160947356388, 0.0, 0.2220601858100623, 0.0, 0.17259393413768642, 0.06100846183768819, 0.07882063461243569, 0.14536794364889477, 0.035267253445844235, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0996886480507569, 0.035267253445843846, 0.09968864805075693, 0.07053450689168782, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584422, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.2565440277854765, 0.9070175438570212, 0.6509205481874648, 0.7124550306544375, 0.2738537045298144, 0.31206886765491826, 0.0, 0.3648753181834923, 0.0, 0.11134392501746977, 0.03526725344584421, 0.08629696706884356, 0.07882063461243598, 0.14536794364889521, 0.0, 0.07882063461243603, 0.0, 0.03526725344584404, 0.03526725344584384, 0.07053450689168782, 0.07053450689168782, 0.035267253445844256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584418, 0.0, 0.035267253445843826, 0.0, 0.03526725344584395, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584401, 1.085254912820109, 0.8651844557832804, 1.7615922645009436, 0.4068018738819371, 0.5464005171597189, 0.0, 1.0462328651317343, 0.0, 0.21026540778823294, 0.30699847581939455, 0.11671605991392046, 0.1993772961015137, 0.09953295742310303, 0.0, 0.29676504232339324, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.03526725344584395, 0.0, 0.16886968849498363, 0.0, 0.0, 0.0, 0.0, 0.10580176033753151, 0.03526725344584402, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.0, 0.035267253445843846, 0.0, 0.035267253445844055, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0498443240253786], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584384, 0.6723236758014889, 0.421830611405086, 0.602804047492698, 0.21936197425475323, 0.3954741484748924, 0.0, 0.2714248114734818, 0.0, 0.14080492179429757, 0.09968864805075615, 0.21160352067506322, 0.06100846183768854, 0.035267253445844006, 0.0, 0.10580176033753158, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.03526725344584393, 0.0, 0.03526725344584424, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584427, 0.0, 0.03526725344584391, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168825, 0.3540068240020386, 0.3381202853201767, 0.4850012838037022, 0.19886325557498574, 0.140606527285403, 0.0, 0.19886325557498588, 0.0, 0.27715238404366227, 0.07882063461243652, 0.03526725344584402, 0.0, 0.0, 0.0, 0.14536794364889521, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.035267253445843964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3972583220398915, 0.6226151910334707, 0.41886800390275897, 1.0108413594767087, 0.2848568208032502, 0.36113282065740643, 0.0, 0.22150076890975764, 0.0, 0.33562048161107094, 0.03526725344584413, 0.07882063461243559, 0.0, 0.035267253445844006, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.09968864805075714, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.392652375191469, 0.12649757979606965, 0.5688146222788149, 0.18591738586820974, 0.16505203903612162, 0.0, 0.3448642377219643, 0.0, 0.1576412692248712, 0.22296624475551793, 0.06100846183768829, 0.09968864805075713, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537858, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07882063461243573, 0.3579841864799267, 0.30657890269881094, 0.2994546142200476, 0.11134392501747144, 0.226738996961806, 0.0, 0.3581877403997085, 0.0, 0.21683766852786868, 0.035267253445844075, 0.12183885238988858, 0.07053450689168768, 0.035267253445843944, 0.0, 0.07882063461243599, 0.0, 0.04984432402537775, 0.0, 0.1410690137833756, 0.0, 0.07053450689168853, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458441, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5841487212116812, 0.5372065571572824, 1.1857621446559805, 0.3215460419964512, 0.5062538382715561, 0.0, 0.6177338990557453, 0.0, 0.06100846183768857, 0.12201692367537662, 0.22759917870437524, 0.07866307196689262, 0.09315867601128285, 0.0, 0.1793188734596478, 0.0, 0.04984432402537853, 0.035267253445844, 0.049844324025377924, 0.07053450689168832, 0.0705345068916878, 0.0, 0.1453679436488957, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916883, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.03526725344584385, 0.0, 0.03526725344584383, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07053450689168826, 0.4633096295206717, 0.3484566005752484, 0.2598535576242571, 0.08629696706884268, 0.10568443093039691, 0.0, 0.12674254048211195, 0.0, 0.07882063461243574, 0.04984432402537813, 0.07053450689168844, 0.03526725344584396, 0.10580176033753227, 0.0, 0.1318286375872456, 0.0, 0.0705345068916881, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21160352067506397, 0.0, 0.035267253445844214, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584414, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.22803485378865374, 0.2081452793601598, 0.2981830830649509, 0.10580176033753366, 0.10568443093039637, 0.0, 0.08629696706884259, 0.0, 0.03526725344584389, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168832, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4648301662229989, 0.3741092406171576, 0.2825170498627747, 0.6810213304722661, 0.11687539931905319, 0.09315867601128223, 0.0, 0.2604020492018654, 0.0, 0.0, 0.07882063461243612, 0.03526725344584425, 0.0, 0.0, 0.0, 0.07053450689168854, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584412, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.06100846183768855, 0.03526725344584395, 0.09315867601128307, 0.03526725344584416, 0.09968864805075678, 0.0, 0.07882063461243591, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04984432402537786, 0.0, 0.17633626722922152, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439], [0.0, 0.33366014333491806, 0.15341333593459064, 0.23887624123781437, 0.035267253445843944, 0.03526725344584383, 0.0, 0.08611706908901763, 0.0, 0.11148312237775884, 0.0, 0.03526725344584421, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.1650520390361216, 0.22759917870437557, 0.7081822902144591, 0.08629696706884368, 0.3921741740709671, 0.0, 0.28306545679603595, 0.0, 0.07882063461243524, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.1410690137833769, 0.0, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.03526725344584417, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584394, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07882063461243617, 0.12708469219734675, 0.11114875584899023, 0.2173091951010616, 0.035267253445844166, 0.0, 0.08629696706884256, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.10568443093039584, 0.035267253445844256, 0.1793188734596477, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.10580176033753151, 0.0, 0.0, 0.07053450689168789, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584399, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.14080492179429754, 0.12201692367537707, 0.11148312237776047, 0.3248235119367309, 0.0, 0.10550819217920367, 0.0, 0.07040246089714884, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168836, 0.0, 0.0, 0.0, 0.0, 0.1410690137833756, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0352672534458439, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884205, 0.049844324025378604, 0.04984432402537786, 0.03526725344584419, 0.0, 0.0, 0.07882063461243627, 0.0, 0.0, 0.0, 0.0, 0.14106901378337577, 0.035267253445843944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.035267253445844166, 0.03526725344584395, 0.11687539931905308, 0.0, 0.0, 0.0, 0.15764126922487198, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584424, 0.0, 0.0705345068916878, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584405, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08629696706884253, 0.15341333593459072, 0.1980662052510194, 0.07882063461243535, 0.07053450689168839, 0.0, 0.5216104560889827, 0.0, 0.03526725344584385, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09968864805075558, 0.0, 0.0, 0.0, 0.03526725344584417, 0.07053450689168789, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584419], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.07882063461243621, 0.07882063461243533, 0.0, 0.08629696706884211, 0.0, 0.07866307196689305, 0.0, 0.03526725344584416, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0352672534458441, 0.0705345068916883, 0.1318286375872472, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0705345068916878, 0.0, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07053450689168804, 0.12693816867568397, 0.10550819217920135, 0.06100846183768903, 0.03526725344584425, 0.0, 0.15764126922487065, 0.0, 0.0, 0.0, 0.0705345068916885, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844166, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584415, 0.0, 0.0, 0.0, 0.035267253445844235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844006, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168839, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03526725344584419, 0.0, 0.04984432402537808, 0.04984432402537803, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584425, 0.0, 0.03526725344584418, 0.0, 0.0, 0.0, 0.0788206346124354, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168834, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03526725344584388, 0.04984432402537787, 0.19533825956355105, 0.0, 0.0, 0.0, 0.1863173520225676, 0.0, 0.03526725344584419, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07053450689168766, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03526725344584387, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.049844324025378084, 0.0, 0.035267253445844, 0.0, 0.03526725344584423, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445844, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.07882063461243571, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.035267253445843</t>
         </is>
       </c>
     </row>
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.69840000000001</v>
+        <v>71.0598</v>
       </c>
       <c r="C4" t="n">
-        <v>13.56</v>
+        <v>15.02</v>
       </c>
       <c r="D4" t="n">
-        <v>3.514</v>
+        <v>3.453699999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>21.7</v>
+        <v>25.72</v>
       </c>
       <c r="F4" t="n">
-        <v>6.2161</v>
+        <v>6.196699999999998</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0146</v>
+        <v>0.0155</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3908</v>
+        <v>2.4687</v>
       </c>
       <c r="I4" t="n">
-        <v>4.51</v>
+        <v>7.99</v>
       </c>
       <c r="J4" t="n">
-        <v>323.01</v>
+        <v>322.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.245699999999999</v>
+        <v>5.991300000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6777</v>
+        <v>2.7643</v>
       </c>
       <c r="M4" t="n">
-        <v>4.4161</v>
+        <v>4.646800000000001</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[79.66, 22.39, 109.14, 46.78, 13.68, 25.17, 0.64, 13.45, 2.51, 3.62, 2.24, 0.13, 2.01, 0.05, 0.27, 0.1, 0.05, 0.04, 0.0, 0.03, 0.01, 0.0, 0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[78.55, 24.41, 109.02, 44.39, 13.82, 24.91, 0.69, 13.25, 2.49, 3.69, 2.6, 0.24, 2.08, 0.1, 0.31, 0.08, 0.04, 0.03, 0.0, 0.04, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.04, 0.0, 0.02, 0.0, 0.01, 0.01, 0.0, 0.05, 0.0, 0.07, 0.02, 0.02, 0.08, 0.04, 0.02, 0.0, 0.05, 0.03, 0.05, 0.04, 0.02, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[60.81, 0.87, 53.84, 0.49, 58.54, 9.46, 1.44, 51.52, 1.19, 60.53, 0.52, 23.8]</t>
+          <t>[55.38, 1.7, 53.24, 1.41, 61.62, 14.65, 1.87, 53.16, 2.12, 56.2, 0.89, 20.16]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[11.66, 75.17, 151.33, 21.41, 28.36, 4.45, 8.2, 2.48, 5.89, 1.54, 2.62, 0.74, 2.2, 0.63, 1.61, 0.63, 1.69, 0.28, 0.52, 0.14, 0.32, 0.11, 0.12, 0.03, 0.09, 0.04, 0.05, 0.01, 0.03, 0.0, 0.01, 0.0]</t>
+          <t>[3.51, 82.54, 142.8, 21.31, 36.91, 4.61, 8.55, 2.44, 6.3, 0.99, 2.67, 0.8, 2.52, 0.75, 1.56, 0.49, 1.78, 0.28, 0.55, 0.13, 0.27, 0.04, 0.1, 0.02, 0.07, 0.02, 0.02, 0.01, 0.02, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.63, 112.72, 61.67, 81.06, 12.38, 13.08, 0.0, 13.03, 0.0, 4.3, 2.2, 4.18, 1.51, 1.81, 0.0, 3.4, 0.0, 1.29, 0.7, 1.04, 0.5, 0.69, 0.0, 1.23, 0.0, 0.46, 0.34, 0.41, 0.21, 0.27, 0.0, 0.71, 0.01, 0.31, 0.04, 0.16, 0.0, 0.12, 0.0, 0.1, 0.01, 0.03, 0.03, 0.02, 0.02, 0.01, 0.0, 0.05, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04]</t>
+          <t>[7.63, 108.55, 41.92, 86.07, 11.22, 18.27, 0.0, 22.74, 0.0, 3.95, 2.02, 4.31, 1.26, 1.37, 0.0, 3.78, 0.0, 1.08, 0.37, 1.21, 0.45, 0.6, 0.0, 1.65, 0.0, 0.28, 0.12, 0.56, 0.15, 0.25, 0.0, 0.9, 0.0, 0.16, 0.07, 0.27, 0.05, 0.03, 0.0, 0.2, 0.0, 0.01, 0.01, 0.17, 0.02, 0.02, 0.0, 0.12, 0.0, 0.03, 0.01, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.03, 0.0, 0.0, 0.0, 0.12]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[15.86, 0.08, 14.69, 0.03, 5.03, 0.51, 0.05, 4.74, 0.07, 11.62, 0.03, 7.85], [0.06, 0.24, 0.07, 0.04, 0.05, 0.02, 0.06, 0.03, 0.13, 0.02, 0.07, 0.06], [15.58, 0.03, 12.89, 0.06, 15.72, 0.81, 0.07, 3.29, 0.02, 3.4, 0.05, 1.85], [0.0, 0.05, 0.07, 0.09, 0.09, 0.04, 0.03, 0.0, 0.05, 0.04, 0.03, 0.0], [5.56, 0.04, 17.39, 0.12, 14.35, 3.2, 0.39, 10.34, 0.1, 5.47, 0.03, 1.32], [0.48, 0.05, 0.67, 0.05, 3.57, 2.25, 0.03, 1.55, 0.08, 0.58, 0.02, 0.09], [0.03, 0.05, 0.18, 0.0, 0.41, 0.02, 0.27, 0.11, 0.09, 0.18, 0.01, 0.07], [4.71, 0.03, 3.61, 0.01, 11.46, 1.71, 0.17, 13.22, 0.06, 14.85, 0.02, 1.52], [0.07, 0.11, 0.09, 0.05, 0.12, 0.11, 0.05, 0.03, 0.28, 0.14, 0.1, 0.04], [11.6, 0.04, 3.04, 0.0, 5.97, 0.47, 0.24, 15.77, 0.11, 17.14, 0.02, 5.96], [0.05, 0.06, 0.03, 0.04, 0.02, 0.07, 0.02, 0.0, 0.07, 0.02, 0.11, 0.02], [6.62, 0.09, 1.07, 0.0, 1.42, 0.21, 0.06, 2.23, 0.13, 6.91, 0.03, 4.99]]</t>
+          <t>[[14.0, 0.1, 13.72, 0.02, 5.05, 0.82, 0.03, 3.67, 0.07, 10.13, 0.05, 7.53], [0.05, 0.44, 0.16, 0.21, 0.08, 0.16, 0.11, 0.08, 0.16, 0.09, 0.1, 0.04], [14.86, 0.11, 12.99, 0.13, 16.06, 0.98, 0.11, 3.3, 0.07, 3.12, 0.02, 1.35], [0.07, 0.25, 0.08, 0.21, 0.06, 0.23, 0.07, 0.06, 0.15, 0.03, 0.14, 0.03], [5.2, 0.09, 17.8, 0.09, 15.64, 4.45, 0.3, 10.9, 0.1, 5.54, 0.04, 1.34], [0.83, 0.1, 0.94, 0.23, 5.02, 3.94, 0.12, 2.23, 0.27, 0.73, 0.06, 0.11], [0.04, 0.12, 0.12, 0.13, 0.32, 0.12, 0.36, 0.1, 0.25, 0.18, 0.08, 0.03], [4.68, 0.06, 3.28, 0.07, 11.6, 2.79, 0.2, 14.39, 0.15, 14.56, 0.04, 1.17], [0.09, 0.23, 0.12, 0.13, 0.16, 0.19, 0.22, 0.12, 0.47, 0.17, 0.17, 0.05], [9.62, 0.04, 2.9, 0.01, 6.38, 0.74, 0.21, 15.84, 0.19, 14.88, 0.04, 5.21], [0.02, 0.11, 0.04, 0.17, 0.02, 0.07, 0.04, 0.05, 0.18, 0.07, 0.09, 0.03], [5.72, 0.05, 1.05, 0.01, 0.95, 0.14, 0.09, 2.17, 0.06, 6.5, 0.06, 3.27]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.65, 0.58, 0.9, 0.05, 0.11, 0.0, 0.07, 0.0, 0.03, 0.03, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.72, 60.07, 17.16, 17.76, 3.12, 4.36, 0.0, 2.94, 0.0, 1.21, 0.6, 0.92, 0.36, 0.45, 0.0, 0.85, 0.0, 0.32, 0.17, 0.14, 0.13, 0.17, 0.0, 0.26, 0.0, 0.1, 0.06, 0.08, 0.08, 0.05, 0.0, 0.17, 0.0, 0.1, 0.02, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.34, 17.42, 23.68, 9.85, 2.59, 1.8, 0.0, 1.76, 0.0, 0.59, 0.53, 0.56, 0.28, 0.25, 0.0, 0.53, 0.0, 0.2, 0.15, 0.21, 0.1, 0.1, 0.0, 0.16, 0.0, 0.05, 0.06, 0.01, 0.01, 0.02, 0.0, 0.11, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.13, 16.62, 9.18, 35.03, 3.01, 3.18, 0.0, 4.58, 0.0, 1.17, 0.51, 1.62, 0.46, 0.49, 0.0, 1.15, 0.0, 0.3, 0.18, 0.44, 0.07, 0.15, 0.0, 0.41, 0.0, 0.13, 0.12, 0.2, 0.05, 0.1, 0.0, 0.24, 0.0, 0.08, 0.01, 0.06, 0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.05, 2.53, 2.58, 2.98, 1.56, 0.82, 0.0, 0.44, 0.0, 0.31, 0.12, 0.14, 0.06, 0.11, 0.0, 0.16, 0.0, 0.11, 0.04, 0.04, 0.08, 0.03, 0.0, 0.03, 0.0, 0.0, 0.03, 0.03, 0.01, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.12, 3.83, 1.97, 3.3, 0.63, 1.26, 0.0, 0.68, 0.0, 0.24, 0.12, 0.19, 0.06, 0.07, 0.0, 0.13, 0.0, 0.04, 0.02, 0.04, 0.03, 0.04, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.02, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 2.95, 1.76, 4.1, 0.6, 0.56, 0.0, 1.2, 0.0, 0.31, 0.07, 0.24, 0.08, 0.08, 0.0, 0.25, 0.0, 0.09, 0.05, 0.05, 0.07, 0.05, 0.0, 0.16, 0.0, 0.05, 0.01, 0.03, 0.02, 0.02, 0.0, 0.04, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 1.6, 0.7, 0.95, 0.1, 0.18, 0.0, 0.16, 0.0, 0.08, 0.03, 0.09, 0.02, 0.07, 0.0, 0.04, 0.0, 0.07, 0.02, 0.01, 0.0, 0.02, 0.0, 0.03, 0.0, 0.02, 0.01, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.75, 0.5, 0.45, 0.12, 0.05, 0.0, 0.1, 0.0, 0.04, 0.05, 0.02, 0.02, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 1.28, 0.68, 1.34, 0.09, 0.15, 0.0, 0.28, 0.0, 0.08, 0.0, 0.07, 0.0, 0.05, 0.0, 0.04, 0.0, 0.01, 0.01, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.53, 0.31, 0.32, 0.05, 0.08, 0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.01, 0.03, 0.0, 0.01, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.69, 0.3, 0.39, 0.06, 0.05, 0.0, 0.12, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.03, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.05, 0.94, 0.68, 1.01, 0.09, 0.06, 0.0, 0.18, 0.0, 0.03, 0.01, 0.07, 0.02, 0.04, 0.0, 0.05, 0.0, 0.03, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.42, 0.22, 0.28, 0.04, 0.04, 0.0, 0.04, 0.0, 0.02, 0.01, 0.04, 0.03, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.24, 0.1, 0.11, 0.02, 0.02, 0.0, 0.04, 0.0, 0.01, 0.03, 0.0, 0.03, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2, 0.19, 0.35, 0.02, 0.07, 0.0, 0.07, 0.0, 0.03, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.18, 0.03, 0.14, 0.04, 0.03, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.18, 0.12, 0.18, 0.02, 0.03, 0.0, 0.05, 0.0, 0.01, 0.01, 0.0, 0.01, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.31, 0.13, 0.48, 0.02, 0.03, 0.0, 0.04, 0.0, 0.03, 0.01, 0.02, 0.02, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.16, 0.11, 0.08, 0.01, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11, 0.08, 0.08, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.06, 0.14, 0.01, 0.02, 0.0, 0.02, 0.0, 0.01, 0.01, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.03, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.04, 0.06, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2, 0.09, 0.16, 0.02, 0.02, 0.0, 0.11, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.05, 0.03, 0.01, 0.02, 0.0, 0.03, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.02, 0.07, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.04, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.02, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[0.44, 1.98, 0.94, 2.79, 0.1, 0.23, 0.0, 0.49, 0.0, 0.06, 0.06, 0.12, 0.02, 0.02, 0.0, 0.13, 0.0, 0.02, 0.02, 0.02, 0.01, 0.02, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.3, 62.19, 9.98, 17.48, 2.8, 5.28, 0.0, 2.79, 0.0, 1.23, 0.46, 0.62, 0.39, 0.39, 0.0, 0.62, 0.0, 0.38, 0.09, 0.18, 0.07, 0.14, 0.0, 0.29, 0.0, 0.07, 0.02, 0.06, 0.03, 0.08, 0.0, 0.11, 0.0, 0.05, 0.0, 0.04, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.29, 9.78, 13.17, 9.31, 1.81, 2.42, 0.0, 2.43, 0.0, 0.43, 0.38, 0.48, 0.12, 0.1, 0.0, 0.22, 0.0, 0.13, 0.06, 0.1, 0.07, 0.05, 0.0, 0.12, 0.0, 0.05, 0.02, 0.07, 0.03, 0.01, 0.0, 0.1, 0.0, 0.01, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [3.45, 16.46, 8.66, 36.2, 2.53, 3.25, 0.0, 7.07, 0.0, 1.03, 0.47, 1.6, 0.32, 0.45, 0.0, 1.38, 0.0, 0.32, 0.07, 0.46, 0.13, 0.18, 0.0, 0.46, 0.0, 0.08, 0.02, 0.19, 0.04, 0.07, 0.0, 0.3, 0.0, 0.05, 0.05, 0.15, 0.01, 0.0, 0.0, 0.12, 0.0, 0.01, 0.01, 0.09, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02], [0.13, 2.32, 1.92, 2.79, 1.13, 0.92, 0.0, 0.75, 0.0, 0.17, 0.14, 0.21, 0.11, 0.05, 0.0, 0.18, 0.0, 0.03, 0.03, 0.03, 0.0, 0.03, 0.0, 0.1, 0.0, 0.01, 0.03, 0.01, 0.0, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.25, 5.29, 2.19, 3.56, 1.06, 2.64, 0.0, 1.68, 0.0, 0.31, 0.12, 0.17, 0.09, 0.14, 0.0, 0.18, 0.0, 0.06, 0.0, 0.07, 0.04, 0.05, 0.0, 0.13, 0.0, 0.04, 0.01, 0.03, 0.02, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.26, 3.32, 2.52, 6.43, 0.72, 1.45, 0.0, 4.68, 0.0, 0.3, 0.18, 0.66, 0.09, 0.08, 0.0, 0.64, 0.0, 0.05, 0.04, 0.15, 0.06, 0.03, 0.0, 0.31, 0.0, 0.01, 0.01, 0.12, 0.0, 0.02, 0.0, 0.2, 0.0, 0.02, 0.01, 0.04, 0.02, 0.0, 0.0, 0.08, 0.0, 0.0, 0.0, 0.03, 0.01, 0.01, 0.0, 0.06, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.06, 1.55, 0.44, 0.86, 0.11, 0.35, 0.0, 0.31, 0.0, 0.06, 0.02, 0.04, 0.0, 0.0, 0.0, 0.04, 0.0, 0.01, 0.01, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.05, 0.47, 0.37, 0.36, 0.09, 0.26, 0.0, 0.14, 0.0, 0.04, 0.02, 0.05, 0.01, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.01, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13, 0.89, 0.3, 1.55, 0.13, 0.29, 0.0, 0.54, 0.0, 0.04, 0.02, 0.11, 0.02, 0.0, 0.0, 0.05, 0.0, 0.04, 0.01, 0.03, 0.0, 0.02, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.01, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.02, 0.46, 0.17, 0.25, 0.1, 0.1, 0.0, 0.03, 0.0, 0.03, 0.0, 0.03, 0.02, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.03, 0.47, 0.15, 0.29, 0.08, 0.14, 0.0, 0.11, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.07, 0.71, 0.26, 1.24, 0.11, 0.25, 0.0, 0.58, 0.0, 0.04, 0.07, 0.1, 0.02, 0.04, 0.0, 0.12, 0.0, 0.0, 0.02, 0.02, 0.01, 0.01, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.42, 0.12, 0.21, 0.05, 0.04, 0.0, 0.1, 0.0, 0.06, 0.03, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.15, 0.04, 0.04, 0.05, 0.02, 0.0, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.33, 0.05, 0.39, 0.03, 0.13, 0.0, 0.11, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.14, 0.02, 0.16, 0.02, 0.03, 0.0, 0.05, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.06, 0.2, 0.03, 0.06, 0.0, 0.07, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 0.37, 0.12, 0.55, 0.06, 0.08, 0.0, 0.2, 0.0, 0.03, 0.0, 0.03, 0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.04, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.07, 0.05, 0.07, 0.01, 0.04, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.02, 0.01, 0.01, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.11, 0.03, 0.23, 0.03, 0.04, 0.0, 0.07, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.03, 0.01, 0.05, 0.01, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.05, 0.05, 0.01, 0.01, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.2, 0.11, 0.27, 0.04, 0.06, 0.0, 0.12, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.01, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.01, 0.03, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.04, 0.02, 0.12, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 0.01, 0.01, 0.1, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.06, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.01, 0.02, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.234259952446618</v>
+        <v>6.570242762638227</v>
       </c>
       <c r="C5" t="n">
-        <v>2.923422651619159</v>
+        <v>3.939492353083072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5375797615238134</v>
+        <v>0.464115621370365</v>
       </c>
       <c r="E5" t="n">
-        <v>3.034798181098704</v>
+        <v>8.252369356736283</v>
       </c>
       <c r="F5" t="n">
-        <v>1.114278147501781</v>
+        <v>1.240870706399341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01899578900704048</v>
+        <v>0.0219260119492807</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1976141695324503</v>
+        <v>0.5566949883014934</v>
       </c>
       <c r="I5" t="n">
-        <v>12.10330120256453</v>
+        <v>26.37290086433421</v>
       </c>
       <c r="J5" t="n">
-        <v>4.26964869749257</v>
+        <v>4.296510211788167</v>
       </c>
       <c r="K5" t="n">
-        <v>1.621128776501114</v>
+        <v>1.30270921928111</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6658436077638653</v>
+        <v>0.6738163770642562</v>
       </c>
       <c r="M5" t="n">
-        <v>1.398792261202499</v>
+        <v>1.541417451568523</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[11.308598498487777, 18.29966939592079, 13.075947384415398, 11.74953616105759, 5.262850938417314, 6.578837283289504, 1.3001538370516017, 4.452808102759427, 1.763490856228067, 2.0774022239325736, 1.7783138080777523, 0.36482872693909385, 1.6339828640472343, 0.21794494717703417, 0.507050293363489, 0.29999999999999977, 0.21794494717703372, 0.1959591794226543, 0.0, 0.17058722109231986, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.661496142662156, 18.891318111767635, 17.21277432606377, 12.106936028574692, 5.8384587007188795, 6.418870617172464, 1.4946236984605863, 4.030818775385467, 1.6881646839097189, 2.0576442841268743, 1.9493588689617936, 0.5122499389946283, 1.4260434775980717, 0.4123105625617663, 0.5233545643251808, 0.2712931993250109, 0.19595917942265415, 0.17058722109231983, 0.0, 0.1959591794226541, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.09949874371066199, 0.2416609194718912, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.32787192621509953, 0.0, 0.43023249528597846, 0.19899748742132392, 0.13999999999999987, 0.6273754856543244, 0.39799497484264784, 0.13999999999999985, 0.0, 0.32787192621509953, 0.29849623113198565, 0.35707142142714204, 0.24166091947189144, 0.19899748742132392, 0.19899748742132392, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[17.20214812167364, 3.1895297459029877, 13.309184798476577, 1.5523852614605715, 13.90785389627026, 12.921625284769714, 5.704945223225204, 19.911042162579033, 3.4891116347861346, 20.446249044751458, 2.090358820872626, 20.948508300115307]</t>
+          <t>[12.605379803877392, 6.424173098539609, 15.061952064722552, 5.777707157688075, 12.8544000248942, 19.870266731979214, 6.317681536766477, 16.256518692512245, 6.675747149196104, 21.91164074185226, 3.2462131784588593, 16.837291943777657]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[10.048104298821741, 60.36639048344698, 68.70968708995842, 19.55407630137512, 16.40763237033302, 5.109549882328187, 5.885575587824864, 2.9033773437154173, 4.01471045033138, 2.012063617284504, 2.5642932749590104, 1.0641428475538426, 2.1863211109075436, 1.026206606877972, 1.8968131167829894, 1.006528688115744, 2.038111871316194, 0.5114684741017764, 0.8997777503361594, 0.4694677837722205, 0.5635601121442144, 0.371348892552543, 0.3815756805667785, 0.17058722109231983, 0.28618176042508386, 0.24166091947189122, 0.21794494717703375, 0.09949874371066196, 0.1705872210923198, 0.0, 0.09949874371066197, 0.0]</t>
+          <t>[6.040687047017084, 72.00783568473642, 72.56913944646166, 23.387900718106362, 29.598005000337434, 5.090962580887823, 5.648672410398747, 2.7579702681501117, 4.484417464955733, 1.3453252394867197, 2.4292179811618384, 1.208304597359457, 2.3172397372736384, 0.8874119674649424, 1.4987995196156165, 0.8543418519538879, 1.9777765293379348, 0.5844655678480983, 0.8529361054615988, 0.36482872693909363, 0.6140846847137614, 0.19595917942265398, 0.29999999999999977, 0.13999999999999993, 0.3536947836765476, 0.13999999999999987, 0.13999999999999987, 0.09949874371066195, 0.13999999999999987, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[3.3901474894169414, 74.03716364097156, 65.1114513737791, 67.76618920966413, 15.804923283584772, 9.72798026313787, 0.0, 9.648269274849246, 0.0, 3.956008088970498, 2.3409399821439245, 3.5815639042183793, 1.5652156400956392, 2.2658111130453915, 0.0, 3.274141108748979, 0.0, 1.9041796133768474, 0.9949874371066196, 1.4485855169785455, 0.8185352771872451, 1.1890752709563857, 0.0, 1.707951989957563, 0.0, 0.7799999999999997, 0.6036555309114631, 0.8728688332160797, 0.5156549233741496, 0.5450688029964661, 0.0, 1.3288717018583842, 0.09949874371066196, 0.702780193232564, 0.19595917942265406, 0.3929376540877704, 0.0, 0.35440090293338716, 0.0, 0.3316624790355398, 0.09949874371066196, 0.1705872210923198, 0.17058722109231983, 0.13999999999999987, 0.1399999999999999, 0.09949874371066196, 0.0, 0.21794494717703372, 0.0, 0.13999999999999993, 0.09949874371066197, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19595917942265415]</t>
+          <t>[15.278517598248856, 85.60752011359747, 54.30058563220105, 63.87241266775509, 12.314690414297875, 18.16086727003972, 0.0, 28.264684678941673, 0.0, 3.2935543110748906, 2.1446678064446245, 3.994233343208682, 1.4671059948074643, 1.5404869360043274, 0.0, 4.430756143143065, 0.0, 1.163443165779919, 0.6878226515607057, 1.3659795020423986, 0.8760707733967616, 1.0295630140986995, 0.0, 1.774119499921018, 0.0, 0.5114684741017764, 0.4308131845707604, 0.930806102257607, 0.3570714214271428, 0.51720402163943, 0.0, 1.4387494569938162, 0.0, 0.3929376540877704, 0.29171904291629647, 0.5806031346797912, 0.21794494717703383, 0.17058722109232, 0.0, 0.5999999999999995, 0.0, 0.09949874371066193, 0.09949874371066199, 0.4910193478876369, 0.13999999999999985, 0.13999999999999985, 0.0, 0.4534313619501846, 0.0, 0.17058722109231989, 0.09949874371066199, 0.13999999999999996, 0.0, 0.0, 0.0, 0.17058722109231989, 0.0, 0.0, 0.09949874371066197, 0.1705872210923197, 0.0, 0.0, 0.0, 0.5153639490690037]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[9.090676542480214, 0.33704599092705406, 5.643925938564397, 0.17058722109231983, 2.49581649966499, 0.9219002115196626, 0.25980762113533196, 3.4543306153291122, 0.2917190429162963, 5.170647928451521, 0.1705872210923197, 6.6187234418730645], [0.3104834939252005, 1.0873821775254529, 0.29171904291629636, 0.27999999999999975, 0.21794494717703375, 0.13999999999999987, 0.36932370625238836, 0.17058722109231977, 0.7570336848516054, 0.19899748742132398, 0.38091993909481736, 0.276405499221705], [5.580645123997763, 0.17058722109231975, 6.009816968926758, 0.23748684174075815, 5.7690207141247125, 1.2782409788455384, 0.4302324952859783, 2.0014744564945115, 0.13999999999999987, 2.3108440016582685, 0.2598076211353318, 2.118372016431487], [0.0, 0.35707142142714193, 0.2917190429162962, 0.4264973622427223, 0.28618176042508364, 0.19595917942265417, 0.17058722109231966, 0.0, 0.32787192621509936, 0.24166091947189133, 0.22158519806160282, 0.0], [2.430308622377001, 0.19595917942265423, 5.57654911213019, 0.4308131845707599, 7.368005157435763, 4.368065933568311, 1.6241613220367008, 5.03829336184387, 0.33166247903553975, 2.875604284320081, 0.17058722109231989, 1.541946821391711], [0.9431860898041285, 0.29580398915498046, 1.2732242536175635, 0.21794494717703367, 4.764986883507655, 4.579028281196787, 0.17058722109232002, 2.2332711434127286, 0.3919183588453077, 0.8852118390532285, 0.1989974874213239, 0.2861817604250837], [0.17058722109231966, 0.25980762113533173, 0.6982836100038435, 0.0, 2.0980705421887, 0.19899748742132392, 1.5352849898308796, 0.46679760067935255, 0.3491418050019217, 0.7400000000000014, 0.09949874371066199, 0.4302324952859784], [3.296346462373153, 0.17058722109231997, 2.1995226754912074, 0.09949874371066195, 4.934409792467585, 2.604976007567055, 0.762299153875957, 9.15049725424799, 0.31048349392520036, 7.024777576550023, 0.1399999999999999, 1.7232527382830412], [0.32419130154894565, 0.5271622141238883, 0.34914180500192227, 0.25980762113533223, 0.43081318457076034, 0.4877499359302882, 0.21794494717703367, 0.1705872210923199, 1.077775486824599, 0.400499687890016, 0.5000000000000012, 0.19595917942265428], [5.283937925449163, 0.19595917942265417, 2.029384143034531, 0.0, 3.462527978226313, 0.7410128204019146, 1.0209799214480155, 7.12861136547645, 0.37134889255254305, 11.677345588788572, 0.13999999999999987, 5.984847533563406], [0.21794494717703383, 0.31048349392520036, 0.17058722109231986, 0.2416609194718911, 0.1399999999999999, 0.29171904291629613, 0.13999999999999987, 0.0, 0.4950757517794619, 0.13999999999999987, 0.7196526940128808, 0.13999999999999987], [6.449465094098891, 0.31921779399024724, 1.5116547224812953, 0.0, 1.517761509592334, 0.6212084996198943, 0.2764054992217046, 2.235419423732379, 0.48280430818293224, 6.43443082175883, 0.17058722109231986, 6.518427724536029]]</t>
+          <t>[[6.028266749240614, 0.3316624790355398, 5.246103315795447, 0.13999999999999987, 2.616772821625906, 1.381158933649564, 0.1705872210923198, 2.4333310502272396, 0.2551470164434615, 4.8572728974188815, 0.21794494717703375, 6.0472390394294795], [0.2179449471770339, 1.9043108989868232, 0.6118823416311336, 0.9725739046468398, 0.3655133376499406, 0.6590902821313628, 0.6307931515164047, 0.3655133376499408, 0.8569714114251412, 0.4493328387732186, 0.6403124237432841, 0.19595917942265395], [5.905963088269347, 0.48774993593028815, 6.5490380973086415, 0.43943145085439644, 6.044534721548054, 1.4281456508353756, 0.421781934179263, 1.86815416922694, 0.29171904291629625, 1.866976164818394, 0.13999999999999987, 1.4654350889752843], [0.29171904291629625, 1.2114041439585717, 0.3370459909270541, 1.1601293031382305, 0.27640549922170465, 0.9680392554023822, 0.6042350536008315, 0.23748684174075815, 0.9205976319760975, 0.22158519806160323, 0.7073895673530953, 0.17058722109232002], [2.723967694375247, 0.3766961640367476, 5.971599450733446, 0.4264973622427222, 6.382037292275876, 5.908256934155788, 1.2041594578792303, 5.350700888668699, 0.36055512754639873, 3.106187373614154, 0.19595917942265398, 1.3800000000000001], [1.3420506696842702, 0.6403124237432841, 1.340298474221321, 0.9149316914393113, 6.60451360813194, 7.492422839108859, 0.5344155686354951, 3.0687293787494516, 0.8106170489201425, 1.3553966209195005, 0.2764054992217047, 0.39736632972611075], [0.19595917942265415, 0.7652450587883604, 0.38157568056677843, 0.8444524853418349, 1.0571660229122017, 0.406939798987516, 1.9365949499056303, 0.3316624790355398, 1.0523782589924593, 0.6384355879804949, 0.3655133376499411, 0.17058722109232], [2.3232735525546704, 0.2764054992217047, 1.881913919391638, 0.2917190429162963, 5.29339210714642, 3.7210079279679054, 0.5099019513592781, 7.850980830444052, 0.4092676385936228, 7.59252263743744, 0.2416609194718912, 1.327064429483361], [0.3192177939902474, 1.0281536850101727, 0.4955804677345538, 0.7701298591796061, 0.5043808085167402, 0.7575618786607464, 0.9957911427603684, 0.4308131845707599, 1.7858051405458526, 0.47021271782035, 0.7218725649309579, 0.21794494717703403], [5.061185631845565, 0.19595917942265395, 1.9000000000000008, 0.09949874371066196, 3.148904571434328, 1.1542963224406462, 0.6212084996198942, 7.583824892493233, 0.594894948709433, 9.864360090750946, 0.24166091947189136, 5.278816155162063], [0.13999999999999993, 0.4877499359302881, 0.19595917942265406, 0.94926287191694, 0.13999999999999987, 0.3536947836765474, 0.24166091947189128, 0.21794494717703394, 0.7922120928135351, 0.2917190429162962, 0.5847221562417483, 0.2215851980616029], [5.413095232858925, 0.25980762113533207, 1.2835497652993437, 0.09949874371066196, 1.1434596626029274, 0.4247352116319063, 0.40236799077461466, 1.9081666593880107, 0.2764054992217046, 6.1473571557214735, 0.31048349392520097, 4.707132885313523]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 1.1258330249197706, 1.0313098467482988, 2.0760539492026697, 0.2179449471770336, 0.39736632972611063, 0.0, 0.25514701644346155, 0.0, 0.17058722109231989, 0.17058722109231977, 0.17058722109231975, 0.0, 0.13999999999999993, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066197, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [1.0870142593360956, 70.42389580249024, 18.24649007343604, 14.823036126246201, 4.205425067695299, 3.935784546948677, 0.0, 2.399249882775865, 0.0, 1.626622267153625, 1.0099504938362074, 1.1634431657799194, 0.640624695121879, 0.6837397165588674, 0.0, 1.2278029157808672, 0.0, 0.7600000000000008, 0.4013726448077897, 0.40049968789001583, 0.3912799509302769, 0.44844174649557345, 0.0, 0.5765414122159827, 0.0, 0.2999999999999999, 0.23748684174075824, 0.2712931993250109, 0.3655133376499408, 0.21794494717703367, 0.0, 0.5487257967327581, 0.0, 0.45825756949558466, 0.1399999999999999, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.6959885056522129, 18.926795819683797, 34.37641051651555, 11.467671952057223, 3.789709751418965, 2.592296279363145, 0.0, 2.1406541056415445, 0.0, 0.8954886933959586, 1.0045396955820116, 0.9728309205612242, 0.584465567848098, 0.6383572667401852, 0.0, 1.2037856952132306, 0.0, 0.48989794855663543, 0.3840572873934309, 0.6048966853934646, 0.29999999999999977, 0.33166247903553986, 0.0, 0.4409081537009723, 0.0, 0.2179449471770336, 0.23748684174075818, 0.09949874371066195, 0.09949874371066197, 0.13999999999999987, 0.0, 0.39736632972611063, 0.0, 0.19899748742132395, 0.0, 0.1399999999999999, 0.0, 0.1399999999999999, 0.0, 0.09949874371066197, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [2.265634568945311, 13.806360852882271, 11.558875377821149, 52.02604251718555, 4.603248852712613, 3.2966043135323346, 0.0, 6.031881961709796, 0.0, 1.4356531614564845, 0.7809609465267776, 2.2126002802133056, 0.8296987405076617, 0.7936623967405783, 0.0, 1.5516120649182898, 0.0, 0.7416198487095669, 0.45563142999578105, 0.8284926070883201, 0.25514701644346144, 0.49749371855331037, 0.0, 0.775822144566653, 0.0, 0.39127995093027684, 0.35440090293338716, 0.6480740698407857, 0.21794494717703383, 0.2999999999999999, 0.0, 0.7227724399837064, 0.0, 0.30594117081556693, 0.09949874371066197, 0.2764054992217047, 0.0, 0.2416609194718912, 0.0, 0.1959591794226543, 0.0, 0.09949874371066197, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.21794494717703372, 3.281630692201667, 3.957726620169715, 4.701021165661775, 4.858641785519902, 1.620987353436171, 0.0, 1.0613199329137286, 0.0, 0.6587108622149781, 0.3544009029333872, 0.42473521163190603, 0.2764054992217045, 0.3433656942677881, 0.0, 0.3929376540877701, 0.0, 0.34336569426778807, 0.19595917942265423, 0.19595917942265423, 0.27129319932501084, 0.1705872210923198, 0.0, 0.17058722109231972, 0.0, 0.0, 0.1705872210923198, 0.17058722109231966, 0.09949874371066195, 0.1705872210923199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.32496153618543855, 3.4031015265489812, 2.7182899035974804, 3.2388269481403307, 1.6950221237494223, 2.1661948204166697, 0.0, 1.0759182125050222, 0.0, 0.567802782663136, 0.32496153618543855, 0.5233545643251816, 0.27640549922170504, 0.2551470164434616, 0.0, 0.4394314508543964, 0.0, 0.195959179422654, 0.13999999999999987, 0.2416609194718915, 0.17058722109231977, 0.2416609194718914, 0.0, 0.25514701644346155, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.13999999999999993, 0.09949874371066196, 0.0, 0.2551470164434616, 0.0, 0.09949874371066196, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.2179449471770336, 2.255548713727992, 2.1124393482417427, 5.710516614107693, 1.303840481040532, 0.9520504188329518, 0.0, 2.477902338672773, 0.0, 0.5233545643251808, 0.25514701644346155, 0.6499230723708772, 0.3059411708155671, 0.271293199325011, 0.0, 0.5545268253204708, 0.0, 0.3491418050019221, 0.21794494717703375, 0.2598076211353318, 0.291719042916296, 0.21794494717703397, 0.0, 0.5425863986500217, 0.0, 0.25980762113533185, 0.09949874371066199, 0.1705872210923197, 0.13999999999999987, 0.13999999999999993, 0.0, 0.24166091947189117, 0.0, 0.1705872210923198, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 1.7663521732655696, 1.0049875621120887, 1.4026760139105539, 0.36055512754639873, 0.4770744176750626, 0.0, 0.4841487374764088, 0.0, 0.3655133376499406, 0.1705872210923198, 0.3192177939902475, 0.13999999999999987, 0.3241913015489465, 0.0, 0.1959591794226542, 0.0, 0.29171904291629647, 0.13999999999999987, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.17058722109231975, 0.0, 0.1399999999999999, 0.09949874371066197, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 1.1521718621802912, 0.9327379053088815, 0.8170067319184099, 0.35440090293338716, 0.21794494717703375, 0.0, 0.2999999999999998, 0.0, 0.19595917942265412, 0.21794494717703367, 0.1399999999999999, 0.13999999999999987, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265415, 1.715109325961467, 1.0851727973000433, 2.011069367277021, 0.319217793990248, 0.3570714214271427, 0.0, 0.7626270385975051, 0.0, 0.30594117081556715, 0.0, 0.25514701644346155, 0.0, 0.21794494717703375, 0.0, 0.19595917942265395, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066199, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.953467356546621, 0.6114736298484178, 0.6462197768561407, 0.21794494717703367, 0.27129319932501095, 0.0, 0.21794494717703364, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.09949874371066199, 0.17058722109231983, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.09949874371066197, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999996, 1.2140428328522854, 0.7000000000000004, 0.6766830868286866, 0.27640549922170504, 0.21794494717703383, 0.0, 0.32496153618543866, 0.0, 0.09949874371066196, 0.09949874371066196, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.17058722109231986, 0.09949874371066199, 0.0, 0.17058722109231975, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.21794494717703375, 1.2634872377669675, 1.1651609330903612, 1.6643016553497756, 0.28618176042508375, 0.2374868417407581, 0.0, 0.47707441767506287, 0.0, 0.22158519806160326, 0.09949874371066199, 0.2917190429162965, 0.13999999999999985, 0.2416609194718914, 0.0, 0.2958039891549808, 0.0, 0.17058722109231975, 0.09949874371066197, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066195, 0.09949874371066196, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6954135460285488, 0.5400000000000004, 0.633719180710194, 0.19595917942265412, 0.1959591794226541, 0.0, 0.1959591794226541, 0.0, 0.13999999999999987, 0.09949874371066197, 0.19595917942265415, 0.1705872210923198, 0.17058722109231994, 0.0, 0.13999999999999987, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.17058722109231983, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5122499389946283, 0.33166247903553986, 0.3433656942677881, 0.13999999999999999, 0.1399999999999999, 0.0, 0.19595917942265395, 0.0, 0.09949874371066195, 0.1705872210923198, 0.0, 0.17058722109231986, 0.0, 0.0, 0.21794494717703364, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.5477225575051659, 0.5421254467371924, 0.7123903424387509, 0.19899748742132395, 0.2917190429162965, 0.0, 0.35369478367654794, 0.0, 0.17058722109231975, 0.09949874371066196, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999987, 0.47707441767506253, 0.17058722109231972, 0.3469870314579495, 0.19595917942265412, 0.17058722109231977, 0.0, 0.17058722109232002, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.5173006862551025, 0.3815756805667784, 0.43312815655415426, 0.13999999999999996, 0.1705872210923197, 0.0, 0.2598076211353319, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066196, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1959591794226542, 0.6433506042586732, 0.4616275555033516, 0.9641576634555166, 0.13999999999999987, 0.17058722109231983, 0.0, 0.2416609194718915, 0.0, 0.17058722109231983, 0.09949874371066199, 0.13999999999999987, 0.13999999999999985, 0.1705872210923199, 0.0, 0.13999999999999999, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4630334761116093, 0.37134889255254305, 0.27129319932501084, 0.09949874371066195, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066196, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.31288975694324056, 0.30594117081556704, 0.30594117081556693, 0.17058722109231966, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.27129319932501095, 0.27640549922170465, 0.5295280917949489, 0.09949874371066196, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.09949874371066199, 0.1399999999999999, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434616, 0.17058722109231994, 0.2374868417407583, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35440090293338716, 0.1959591794226542, 0.23748684174075815, 0.1399999999999999, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4898979485566353, 0.28618176042508375, 0.542586398650022, 0.13999999999999987, 0.13999999999999985, 0.0, 0.371348892552543, 0.0, 0.19899748742132392, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3815756805667783, 0.25980762113533185, 0.17058722109231997, 0.09949874371066199, 0.13999999999999987, 0.0, 0.2215851980616032, 0.0, 0.13999999999999993, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.1399999999999999, 0.2551470164434615, 0.09949874371066199, 0.13999999999999985, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21794494717703378, 0.0, 0.2764054992217046, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.19595917942265415, 0.0, 0.13999999999999987, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066196, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.09949874371066196, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.13999999999999999, 0.13999999999999993, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+          <t>[[2.136913662270894, 4.424884179275203, 2.1062763351469354, 8.110850756856518, 0.3316624790355398, 0.5975784467331465, 0.0, 1.5066187308008636, 0.0, 0.2374868417407581, 0.27640549922170454, 0.4749736834815164, 0.1399999999999999, 0.13999999999999985, 0.0, 0.4160528812542941, 0.0, 0.13999999999999993, 0.19899748742132398, 0.13999999999999985, 0.09949874371066199, 0.13999999999999987, 0.0, 0.23748684174075835, 0.0, 0.09949874371066196, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [5.766281297335397, 67.45808995220665, 12.11938942356421, 14.276189967915112, 3.209361307176243, 5.7377347446531575, 0.0, 2.6430853183353733, 0.0, 1.7655310815729075, 0.6545227268781426, 1.0371113729971337, 0.7056202944927251, 0.6766830868286865, 0.0, 0.9568698971124548, 0.0, 0.7039886362719218, 0.28618176042508386, 0.43312815655415443, 0.2551470164434616, 0.5102940328869233, 0.0, 0.5708765190476831, 0.0, 0.25514701644346155, 0.1399999999999999, 0.23748684174075826, 0.17058722109232002, 0.27129319932501095, 0.0, 0.39736632972611075, 0.0, 0.21794494717703367, 0.0, 0.19595917942265417, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196], [0.6970652767137376, 12.090144746858906, 28.30902859513199, 13.508290047226557, 3.2486766536545324, 3.8863350344508367, 0.0, 4.278445979558467, 0.0, 0.8155366331440909, 0.7453858061433688, 0.9325234581499818, 0.4534313619501853, 0.2999999999999998, 0.0, 0.6095900261651274, 0.0, 0.3912799509302768, 0.23748684174075796, 0.36055512754639873, 0.32419130154894593, 0.21794494717703372, 0.0, 0.4308131845707602, 0.0, 0.21794494717703386, 0.13999999999999996, 0.25514701644346155, 0.1705872210923198, 0.09949874371066197, 0.0, 0.36055512754639873, 0.0, 0.09949874371066199, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1705872210923198, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [9.266471820493495, 13.49104888435291, 12.888149595655696, 51.68365312165927, 2.9101718162335355, 3.4303789878087816, 0.0, 9.02912509604336, 0.0, 1.1700854669638454, 0.6849087530467107, 2.284731931759173, 0.6305553108173777, 0.7921489758877432, 0.0, 2.448591431823613, 0.0, 0.5455272678794338, 0.2551470164434615, 0.8052328855678957, 0.4160528812542942, 0.4770744176750624, 0.0, 0.7799999999999996, 0.0, 0.27129319932501084, 0.13999999999999993, 0.5602677931132581, 0.19595917942265415, 0.2551470164434615, 0.0, 0.6855654600401048, 0.0, 0.21794494717703364, 0.25980762113533157, 0.4092676385936228, 0.09949874371066199, 0.0, 0.0, 0.40693979898751614, 0.0, 0.09949874371066193, 0.09949874371066199, 0.37669616403674766, 0.09949874371066193, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987], [0.5030904491242105, 2.497518768698245, 3.142228508558856, 3.7823141064697423, 2.3437363332934877, 2.3735205918634885, 0.0, 1.3444329659748753, 0.0, 0.4255584566190644, 0.548087584241789, 0.5346961754117943, 0.31288975694324045, 0.2179449471770336, 0.0, 0.5546169849544814, 0.0, 0.17058722109231994, 0.1705872210923198, 0.17058722109231975, 0.0, 0.17058722109231989, 0.0, 0.38729833462074154, 0.0, 0.09949874371066196, 0.22158519806160326, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.17058722109231972, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7794228634059948, 5.532259936047836, 4.048938132399655, 3.9957977926817065, 2.275170323294501, 5.4360279616646565, 0.0, 3.0850607773591765, 0.0, 0.6737210105080589, 0.4069397989875159, 0.4013726448077897, 0.31921779399024736, 0.49030602688525077, 0.0, 0.4770744176750622, 0.0, 0.2374868417407581, 0.0, 0.2551470164434615, 0.19595917942265398, 0.2179449471770336, 0.0, 0.36482872693909374, 0.0, 0.19595917942265417, 0.09949874371066199, 0.2215851980616036, 0.13999999999999987, 0.13999999999999985, 0.0, 0.25980762113533157, 0.0, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.7432361670424814, 2.870121948628663, 4.236696826538338, 8.582837526133188, 1.5432433379088355, 2.5588083163847952, 0.0, 14.904281264120042, 0.0, 0.6244997998398404, 0.5173006862551021, 1.607606917128686, 0.31921779399024747, 0.30594117081556704, 0.0, 1.9106019993708796, 0.0, 0.21794494717703392, 0.19595917942265415, 0.409267638593623, 0.27640549922170465, 0.17058722109231975, 0.0, 0.9766780431646875, 0.0, 0.09949874371066197, 0.09949874371066196, 0.35440090293338716, 0.0, 0.13999999999999987, 0.0, 0.6633249580710794, 0.0, 0.13999999999999985, 0.09949874371066196, 0.19595917942265417, 0.1399999999999999, 0.0, 0.0, 0.41665333311999275, 0.0, 0.0, 0.0, 0.17058722109231972, 0.09949874371066196, 0.09949874371066199, 0.0, 0.31048349392520075, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3278719262150993], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.23748684174075838, 2.108909670896313, 0.8284926070883195, 1.1918053532351658, 0.37134889255254305, 0.6837397165588673, 0.0, 0.7027801932325639, 0.0, 0.2764054992217049, 0.13999999999999999, 0.1959591794226539, 0.0, 0.0, 0.0, 0.1959591794226541, 0.0, 0.09949874371066197, 0.09949874371066195, 0.13999999999999993, 0.0, 0.17058722109231975, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193], [0.2179449471770336, 0.817985329941803, 0.87926105338517, 0.6560487786742696, 0.3192177939902473, 0.5936328831862329, 0.0, 0.400499687890016, 0.0, 0.1959591794226542, 0.13999999999999987, 0.21794494717703367, 0.09949874371066199, 0.09949874371066196, 0.0, 0.17058722109232, 0.0, 0.13999999999999987, 0.0, 0.13999999999999985, 0.09949874371066193, 0.13999999999999987, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0], [0.4828043081829323, 1.1304423912787422, 0.556776436283002, 2.255548713727991, 0.3912799509302768, 0.5530822723609932, 0.0, 1.4994665718181237, 0.0, 0.24166091947189147, 0.13999999999999985, 0.31288975694324056, 0.13999999999999996, 0.0, 0.0, 0.2598076211353319, 0.0, 0.19595917942265398, 0.09949874371066199, 0.17058722109231972, 0.0, 0.13999999999999985, 0.0, 0.19595917942265415, 0.0, 0.0, 0.09949874371066193, 0.09949874371066196, 0.09949874371066195, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.13999999999999987, 0.7269112738154498, 0.548725796732758, 0.6062177826491071, 0.2999999999999999, 0.3605551275463988, 0.0, 0.17058722109231966, 0.0, 0.1705872210923199, 0.0, 0.17058722109231977, 0.1399999999999999, 0.09949874371066196, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.17058722109231972, 0.8056674251823766, 0.40926763859362303, 0.6048966853934644, 0.39191835884530846, 0.5102940328869232, 0.0, 0.37134889255254294, 0.0, 0.09949874371066195, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.09949874371066195, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3241913015489464, 1.0029456615390484, 0.769675256195754, 2.2276444958745096, 0.3973663297261107, 0.6383572667401852, 0.0, 1.7954386650621081, 0.0, 0.1959591794226542, 0.25514701644346155, 0.4123105625617663, 0.13999999999999987, 0.24166091947189144, 0.0, 0.4069397989875162, 0.0, 0.0, 0.13999999999999987, 0.13999999999999996, 0.09949874371066199, 0.09949874371066196, 0.0, 0.17058722109231975, 0.0, 0.09949874371066197, 0.0, 0.13999999999999985, 0.0, 0.09949874371066197, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132392, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7236021006050221, 0.4069397989875162, 0.4958830507286977, 0.21794494717703392, 0.195959179422654, 0.0, 0.3316624790355397, 0.0, 0.23748684174075835, 0.2215851980616031, 0.0, 0.09949874371066197, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066195, 0.4555216789572156, 0.19595917942265428, 0.19595917942265428, 0.3278719262150999, 0.1399999999999999, 0.0, 0.24166091947189133, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.5840376700179534, 0.2179449471770336, 0.6913031173081745, 0.17058722109231972, 0.36482872693909396, 0.0, 0.39736632972611063, 0.0, 0.22158519806160312, 0.0, 0.13999999999999987, 0.0, 0.13999999999999985, 0.0, 0.13999999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.40049968789001605, 0.13999999999999999, 0.41761226035642235, 0.13999999999999985, 0.17058722109231989, 0.0, 0.21794494717703386, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.45552167895721574, 0.23748684174075818, 0.5099019513592782, 0.22158519806160315, 0.27640549922170493, 0.0, 0.2917190429162962, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265423, 0.7830070242341374, 0.38157568056677843, 0.8986100377805718, 0.23748684174075815, 0.3059411708155671, 0.0, 0.7211102550927977, 0.0, 0.17058722109231986, 0.0, 0.17058722109231989, 0.09949874371066196, 0.09949874371066199, 0.0, 0.24166091947189125, 0.0, 0.0, 0.0, 0.19595917942265415, 0.09949874371066196, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 0.2551470164434615, 0.259807621135332, 0.29171904291629647, 0.09949874371066199, 0.19595917942265417, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.13999999999999999, 0.09949874371066199, 0.09949874371066199, 0.17058722109231966, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3128897569432405, 0.17058722109231966, 0.6611353870426243, 0.2215851980616036, 0.1959591794226539, 0.0, 0.3536947836765476, 0.0, 0.09949874371066196, 0.0, 0.09949874371066193, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.17058722109231983, 0.09949874371066195, 0.21794494717703367, 0.09949874371066199, 0.09949874371066196, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434615, 0.2179449471770336, 0.21794494717703355, 0.09949874371066199, 0.09949874371066193, 0.0, 0.17058722109231989, 0.0, 0.13999999999999996, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 0.48989794855663527, 0.371348892552543, 0.5631163290120438, 0.39799497484264795, 0.27640549922170504, 0.0, 0.4955804677345543, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.17058722109231994, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.25514701644346166, 0.09949874371066199, 0.13999999999999985, 0.0, 0.0, 0.0, 0.17058722109231975, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.09949874371066199, 0.17058722109231972, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.19595917942265412, 0.13999999999999996, 0.4069397989875159, 0.09949874371066199, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999985, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999985, 0.09949874371066199, 0.09949874371066195, 0.3872983346207415, 0.0, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1399999999999999, 0.0, 0.27640549922170443, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.1705872210923199, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.09949874371066199, 0.13999999999999996, 0.0, 0.19899748742132392, 0.0, 0.32787192621509964, 0.0, 0.0, 0.09949874371066196, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999996, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 0.09949874371066196, 0.0, 0.195959179422654, 0.0, 0.0, 0.0, 0.221585198061603, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002647027785125294</v>
+        <v>0.00125524936255619</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3953771141049496</v>
+        <v>0.4457851733370744</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001205116741718778</v>
+        <v>0.0006769061058569908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.447179621649766</v>
+        <v>0.6782028155648219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005414987137020895</v>
+        <v>0.159313658454295</v>
       </c>
       <c r="G6" t="n">
-        <v>1.107292605649371</v>
+        <v>0.6843424102728194</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007326149403677776</v>
+        <v>2.706030359538013</v>
       </c>
       <c r="I6" t="n">
-        <v>0.039408854636849</v>
+        <v>0.1692726708896382</v>
       </c>
       <c r="J6" t="n">
-        <v>0.110529249210427</v>
+        <v>0.11065174967019</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006252020901600975</v>
+        <v>0.004652445655148781</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005791283039845331</v>
+        <v>0.004626903274292835</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002296185141944506</v>
+        <v>0.002170071940614372</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09952421418095903</v>
+        <v>0.1236778171768327</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03294626319589943</v>
+        <v>0.1744463502624614</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04947653821578324</v>
+        <v>0.03023343856950379</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01657912693503708</v>
+        <v>0.0154109117433292</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8494421716532831</v>
+        <v>1.285293645540561</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08892902139403061</v>
+        <v>0.06528821133117645</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9558080960842755</v>
+        <v>0.9510845096830678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6553162453161754</v>
+        <v>0.5482888938125033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.956514368273145</v>
+        <v>0.9331329597345541</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6103819463331672</v>
+        <v>0.4515586025340347</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9412679049546911</v>
+        <v>0.9238682931033756</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7680613521918502</v>
+        <v>0.7256604301621751</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8652096053127774</v>
+        <v>0.8818470499468098</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6440464978952329</v>
+        <v>0.5666971846578328</v>
       </c>
       <c r="J7" t="n">
-        <v>0.82067806368824</v>
+        <v>0.8214320938889024</v>
       </c>
       <c r="K7" t="n">
-        <v>0.94991473588557</v>
+        <v>0.9529307919151463</v>
       </c>
       <c r="L7" t="n">
-        <v>0.947016169505617</v>
+        <v>0.9409907420955582</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9569456623092053</v>
+        <v>0.95214580061244</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7397567847307945</v>
+        <v>0.7522195050664561</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8626896871791334</v>
+        <v>0.8436927641825538</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9032222222437585</v>
+        <v>0.9420054394444946</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.96534293132513</v>
+        <v>0.9689767896140499</v>
       </c>
       <c r="R7" t="n">
-        <v>0.709947766557144</v>
+        <v>0.6933400599795958</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9469226391651117</v>
+        <v>0.9493264954580096</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02444732475255127</v>
+        <v>0.04586313978209601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04471146352289088</v>
+        <v>0.0204027588535286</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03768866482405291</v>
+        <v>0.01764891992611945</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04062950393827882</v>
+        <v>0.04220550872593848</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06895468669630096</v>
+        <v>0.02263008318910304</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7997556438416964</v>
+        <v>0.3576115692965495</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1049672210326431</v>
+        <v>0.06145163666210701</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1246574991107897</v>
+        <v>0.1147480208790213</v>
       </c>
       <c r="J8" t="n">
-        <v>1.961203238202658</v>
+        <v>3.146481065452454</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02599227249944162</v>
+        <v>0.01128946479657892</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3702094950202859</v>
+        <v>0.4398431514120693</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2936120945381547</v>
+        <v>0.3303713114341065</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67195954921607</v>
+        <v>0.9796722871574333</v>
       </c>
       <c r="O8" t="n">
-        <v>2.375464492075602</v>
+        <v>1.754134122890704</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9492294569077827</v>
+        <v>1.399053305067801</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2326216856610209</v>
+        <v>0.4819584351900518</v>
       </c>
       <c r="R8" t="n">
-        <v>2.055443380316164</v>
+        <v>4.636310175118045</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2962105143037587</v>
+        <v>0.5888696144921602</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9531314800344368</v>
+        <v>0.9362773905234204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8353264169086372</v>
+        <v>0.8336516616207301</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9439434673785795</v>
+        <v>0.9090933627067068</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7824676514315795</v>
+        <v>0.7864066097461553</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9231541284154061</v>
+        <v>0.8981190118382006</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7855108611439248</v>
+        <v>0.7633030333972463</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7492219990430672</v>
+        <v>0.7921650122810372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6603895862198975</v>
+        <v>0.5795535886129862</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1379564622533747</v>
+        <v>0.1416104548234679</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9203729589978107</v>
+        <v>0.931180371243453</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9018334619377548</v>
+        <v>0.8955345200266132</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9371024252441281</v>
+        <v>0.938328521284041</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4519764379156434</v>
+        <v>0.4876727415155354</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8193657039077663</v>
+        <v>0.7866962527339361</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8751125130196671</v>
+        <v>0.8743052314335608</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9363131738552048</v>
+        <v>0.915419072560685</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6078055654520388</v>
+        <v>0.5855516509609793</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9173863268863747</v>
+        <v>0.9295602357111689</v>
       </c>
     </row>
   </sheetData>
